--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$4:$A$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$7:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="323">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -587,13 +588,418 @@
   </si>
   <si>
     <t>Al Houcine AL. Ali Chamakh,WEL</t>
+  </si>
+  <si>
+    <t>DHAYANITHI DHAYANITHI,BUS</t>
+  </si>
+  <si>
+    <t>Asma AL-,ENG</t>
+  </si>
+  <si>
+    <t>Vijaya kumar,IT</t>
+  </si>
+  <si>
+    <t>Sultan Sultan,IT</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Kannan</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Rojesb</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>vinay</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>Marwan</t>
+  </si>
+  <si>
+    <t>Silpa</t>
+  </si>
+  <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Abdurahiman</t>
+  </si>
+  <si>
+    <t>Fatma</t>
+  </si>
+  <si>
+    <t>Maryam</t>
+  </si>
+  <si>
+    <t>Aref</t>
+  </si>
+  <si>
+    <t>Sajith</t>
+  </si>
+  <si>
+    <t>Vijaya</t>
+  </si>
+  <si>
+    <t>Ericson</t>
+  </si>
+  <si>
+    <t>Sheikha</t>
+  </si>
+  <si>
+    <t>Vara</t>
+  </si>
+  <si>
+    <t>Jaffar</t>
+  </si>
+  <si>
+    <t>NAGAPAVAN</t>
+  </si>
+  <si>
+    <t>Ayoub</t>
+  </si>
+  <si>
+    <t>Bilal</t>
+  </si>
+  <si>
+    <t>antonio</t>
+  </si>
+  <si>
+    <t>Ayeesha</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Conrado</t>
+  </si>
+  <si>
+    <t>Eulogio</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Ignatius</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Karunadas</t>
+  </si>
+  <si>
+    <t>Hermogenes</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Abdulaziz</t>
+  </si>
+  <si>
+    <t>Ammar</t>
+  </si>
+  <si>
+    <t>Ghalib</t>
+  </si>
+  <si>
+    <t>Nasir</t>
+  </si>
+  <si>
+    <t>Macario</t>
+  </si>
+  <si>
+    <t>mohammed</t>
+  </si>
+  <si>
+    <t>Osamah</t>
+  </si>
+  <si>
+    <t>Juluis</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Jenier</t>
+  </si>
+  <si>
+    <t>Rommel</t>
+  </si>
+  <si>
+    <t>Taoufik</t>
+  </si>
+  <si>
+    <t>(1, 'Paul', 'George', 0, 'PolSci instructor'),</t>
+  </si>
+  <si>
+    <t>(2, 'Peter', 'Parker', 0, 'Bio instructor'),</t>
+  </si>
+  <si>
+    <t>(3, 'James', 'LeBron', 0, 'English instructo'),</t>
+  </si>
+  <si>
+    <t>(4, 'John', 'Wall', 0, 'Math instructor'),</t>
+  </si>
+  <si>
+    <t>(5, 'Canteen', 'Canteen', 0, 'Canteen');</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>DRW</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>ELX</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>RAC</t>
+  </si>
+  <si>
+    <t>WEL</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Formaran</t>
+  </si>
+  <si>
+    <t>Romion</t>
+  </si>
+  <si>
+    <t>subash chandra bose</t>
+  </si>
+  <si>
+    <t>Metwally</t>
+  </si>
+  <si>
+    <t>Chaladatb</t>
+  </si>
+  <si>
+    <t>Mahmoud Saliem</t>
+  </si>
+  <si>
+    <t>Mahsob</t>
+  </si>
+  <si>
+    <t>Nasser Abdullah Al Balushi</t>
+  </si>
+  <si>
+    <t>Chaladath</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>Al-BAlushi</t>
+  </si>
+  <si>
+    <t>Mathew Senil</t>
+  </si>
+  <si>
+    <t>AL-</t>
+  </si>
+  <si>
+    <t>Nabbhan Al Nabbhani</t>
+  </si>
+  <si>
+    <t>ahmed. Almamari</t>
+  </si>
+  <si>
+    <t>ALNabhani</t>
+  </si>
+  <si>
+    <t>Sarah Abraham</t>
+  </si>
+  <si>
+    <t>Al Balushi</t>
+  </si>
+  <si>
+    <t>Mohammed Ali Salih</t>
+  </si>
+  <si>
+    <t>Puthan</t>
+  </si>
+  <si>
+    <t>AL-Maqbali</t>
+  </si>
+  <si>
+    <t>AL-Blushi</t>
+  </si>
+  <si>
+    <t>AL-Mamary</t>
+  </si>
+  <si>
+    <t>Al ajmi</t>
+  </si>
+  <si>
+    <t>Bandara</t>
+  </si>
+  <si>
+    <t>Billedo</t>
+  </si>
+  <si>
+    <t>Ali Said Al-Badi</t>
+  </si>
+  <si>
+    <t>Prasad Reddy Subbi Reddy</t>
+  </si>
+  <si>
+    <t>Al. Bahrani</t>
+  </si>
+  <si>
+    <t>Vaziruddin</t>
+  </si>
+  <si>
+    <t>.N</t>
+  </si>
+  <si>
+    <t>Al Oufi</t>
+  </si>
+  <si>
+    <t>Al Farsi</t>
+  </si>
+  <si>
+    <t>Al Arqenah</t>
+  </si>
+  <si>
+    <t>Buca</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>Caniedo</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Oderon</t>
+  </si>
+  <si>
+    <t>Saif Said Al Mawaali</t>
+  </si>
+  <si>
+    <t>Rodrigues</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Parakunnath</t>
+  </si>
+  <si>
+    <t>Baculo</t>
+  </si>
+  <si>
+    <t>Maher.Abdullah</t>
+  </si>
+  <si>
+    <t>Abid Galm Al Hinai</t>
+  </si>
+  <si>
+    <t>Bin Mosbah</t>
+  </si>
+  <si>
+    <t>Al Amri</t>
+  </si>
+  <si>
+    <t>Al Hinai</t>
+  </si>
+  <si>
+    <t>Barredo</t>
+  </si>
+  <si>
+    <t>al-basyuni al-said al qal youbi</t>
+  </si>
+  <si>
+    <t>Jumah Al Shamaki</t>
+  </si>
+  <si>
+    <t>Mohammad Ahmmad Al-Shobaki</t>
+  </si>
+  <si>
+    <t>Dabon</t>
+  </si>
+  <si>
+    <t>De Ocampo</t>
+  </si>
+  <si>
+    <t>Galarpe</t>
+  </si>
+  <si>
+    <t>A. Rosales</t>
+  </si>
+  <si>
+    <t>Ouelhazi</t>
+  </si>
+  <si>
+    <t>Ramdan Salim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +1133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1070,8 +1482,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2164,492 +2579,4624 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B97"/>
+  <dimension ref="A7:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="e">
-        <f>SEARCH(a,A4)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7">
+        <f>FIND(" ",A7)</f>
+        <v>7</v>
+      </c>
+      <c r="C7" t="str">
+        <f>LEFT(A7,B7-1)</f>
+        <v>Regina</v>
+      </c>
+      <c r="D7">
+        <f>LEN(A7)-B7</f>
+        <v>11</v>
+      </c>
+      <c r="E7" t="str">
+        <f>RIGHT(A7,D7)</f>
+        <v>Formaran,PE</v>
+      </c>
+      <c r="F7">
+        <f>FIND(",",E7)</f>
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <f>LEN(E7)</f>
+        <v>11</v>
+      </c>
+      <c r="H7" t="str">
+        <f>RIGHT(E7,G7-F7)</f>
+        <v>PE</v>
+      </c>
+      <c r="I7" t="str">
+        <f>LEFT(E7,F7-1)</f>
+        <v>Formaran</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8">
+        <f t="shared" ref="B8:B71" si="0">FIND(" ",A8)</f>
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C71" si="1">LEFT(A8,B8-1)</f>
+        <v>Carlo</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D71" si="2">LEN(A8)-B8</f>
+        <v>9</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E71" si="3">RIGHT(A8,D8)</f>
+        <v>Romion,PE</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="4">FIND(",",E8)</f>
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G71" si="5">LEN(E8)</f>
+        <v>9</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:H71" si="6">RIGHT(E8,G8-F8)</f>
+        <v>PE</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I71" si="7">LEFT(E8,F8-1)</f>
+        <v>Romion</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Kannan</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>subash chandra bose,DRW</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="6"/>
+        <v>DRW</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="7"/>
+        <v>subash chandra bose</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Mustafa</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>Metwally,DRW</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="6"/>
+        <v>DRW</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="7"/>
+        <v>Metwally</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Rojesb</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>Chaladatb,DRW</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v>DRW</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="7"/>
+        <v>Chaladatb</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>Mahmoud Saliem,BUS</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="7"/>
+        <v>Mahmoud Saliem</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Ahmed</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>Mahsob,BUS</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="7"/>
+        <v>Mahsob</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>Mahmud Saliem,BUS</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="7"/>
+        <v>Mahmud Saliem</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>Nasser Abdullah Al Balushi,BUS</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="7"/>
+        <v>Nasser Abdullah Al Balushi</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Yahya</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>Fawi Hassan,BUS</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="7"/>
+        <v>Fawi Hassan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>DHAYANITHI</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>DHAYANITHI,BUS</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="7"/>
+        <v>DHAYANITHI</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Rajesh</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>Chaladath,BUS</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v>BUS</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="7"/>
+        <v>Chaladath</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>vinay</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>kumar,ENG</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="7"/>
+        <v>kumar</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>Al-BAlushi,ENG</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="7"/>
+        <v>Al-BAlushi</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Julie</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>Mathew Senil,ENG</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="7"/>
+        <v>Mathew Senil</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Asma</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>AL-,ENG</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="7"/>
+        <v>AL-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Suresh</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>Kumar Vadakkakalloth,ENG</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="7"/>
+        <v>Kumar Vadakkakalloth</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>Nabbhan Al Nabbhani,ENG</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="7"/>
+        <v>Nabbhan Al Nabbhani</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Marwan</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>ahmed. Almamari,ENG</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="7"/>
+        <v>ahmed. Almamari</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>ALNabhani,ENG</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="7"/>
+        <v>ALNabhani</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunanda</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>Dutt. Algole,ENG</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="7"/>
+        <v>Dutt. Algole</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Silpa</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>Sarah Abraham,ENG</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="7"/>
+        <v>Sarah Abraham</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>Mansoor</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>Al Balushi,ENG</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="7"/>
+        <v>Al Balushi</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>Zainab</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>Mahammed IBraheem Al Lawati,ENG</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="7"/>
+        <v>Mahammed IBraheem Al Lawati</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>Dharmaiah</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>James Bayye,ENG</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="7"/>
+        <v>James Bayye</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>Ali</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>Mohammed Ali Salih,ENG</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="7"/>
+        <v>Mohammed Ali Salih</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>Christopher</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v>Vidyanand,ENG</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="7"/>
+        <v>Vidyanand</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>Deepa</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="3"/>
+        <v>Shine,ENG</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="7"/>
+        <v>Shine</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Najeeb</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v>Shibani Latrash,ENG</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="7"/>
+        <v>Shibani Latrash</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Kamartaj</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="3"/>
+        <v>Ahmed Sherif,ENG</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="7"/>
+        <v>Ahmed Sherif</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Premjith</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v>Mathew,ENG</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="7"/>
+        <v>Mathew</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammad</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="3"/>
+        <v>Shafee Shaik,ENG</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="7"/>
+        <v>Shafee Shaik</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Salwa</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>Abdullah bin Nasr,ENG</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="7"/>
+        <v>Abdullah bin Nasr</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Abdurahiman</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v>Puthan,ENG</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="7"/>
+        <v>Puthan</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>Ahmed</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v>AL-Maqbali,ENG</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="7"/>
+        <v>AL-Maqbali</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Younis</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>AL-Blushi,ENG</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="7"/>
+        <v>AL-Blushi</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Fatma</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>AL-Blushi,ENG</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="7"/>
+        <v>AL-Blushi</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Maryam</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v>AL-Mamary,ENG</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="7"/>
+        <v>AL-Mamary</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>Aref</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="3"/>
+        <v>Al ajmi,ENG</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="6"/>
+        <v>ENG</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="7"/>
+        <v>Al ajmi</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>Sajith</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="3"/>
+        <v>Bandara,IT</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="7"/>
+        <v>Bandara</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>Vijaya</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="3"/>
+        <v>kumar,IT</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="7"/>
+        <v>kumar</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>Ericson</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="3"/>
+        <v>Billedo,IT</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="7"/>
+        <v>Billedo</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>Sheikha</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="3"/>
+        <v>Ali Said Al-Badi,IT</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="7"/>
+        <v>Ali Said Al-Badi</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>Sultan</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="3"/>
+        <v>Sultan,IT</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="7"/>
+        <v>Sultan</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>Malik</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v>Mohammed Al-Rushaidi,IT</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="7"/>
+        <v>Mohammed Al-Rushaidi</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>Vara</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v>Prasad Reddy Subbi Reddy,IT</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="7"/>
+        <v>Prasad Reddy Subbi Reddy</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>Dindo</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v>Bibanco,IT</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="7"/>
+        <v>Bibanco</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>Hassan</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v>Najjar,IT</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="7"/>
+        <v>Najjar</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>Fatma</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>Al Balushi,IT</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="6"/>
+        <v>IT</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="7"/>
+        <v>Al Balushi</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaffar</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="3"/>
+        <v>Al. Bahrani,MATH</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="6"/>
+        <v>MATH</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="7"/>
+        <v>Al. Bahrani</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>Vaziruddin,MATH</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="6"/>
+        <v>MATH</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="7"/>
+        <v>Vaziruddin</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>NAGAPAVAN</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>.N,MATH</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="6"/>
+        <v>MATH</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="7"/>
+        <v>.N</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>Reda</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v>Saed Hussein Wahpd,MATH</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="6"/>
+        <v>MATH</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="7"/>
+        <v>Saed Hussein Wahpd</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>Deogracias</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>Joaquin,MATH</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="6"/>
+        <v>MATH</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="7"/>
+        <v>Joaquin</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>Ayoub</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>Al Oufi,MATH</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="6"/>
+        <v>MATH</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="7"/>
+        <v>Al Oufi</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>Asma</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v>Al Farsi,PHY</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="6"/>
+        <v>PHY</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="7"/>
+        <v>Al Farsi</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>Bilal</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>Al Arqenah,PHY</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="6"/>
+        <v>PHY</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="7"/>
+        <v>Al Arqenah</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>antonio</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>Buca,PHY</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="6"/>
+        <v>PHY</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="7"/>
+        <v>Buca</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>Srinivas</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v>Vuthaluro,PHY</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="6"/>
+        <v>PHY</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="7"/>
+        <v>Vuthaluro</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>Ayeesha</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>Yasmin,PHY</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="6"/>
+        <v>PHY</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="7"/>
+        <v>Yasmin</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>William</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="3"/>
+        <v>Caniedo,ELX</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="6"/>
+        <v>ELX</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="7"/>
+        <v>Caniedo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>Conrado</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="3"/>
+        <v>Torres,ELX</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="6"/>
+        <v>ELX</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="7"/>
+        <v>Torres</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>Enrique</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>Enriquez,ELX</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="6"/>
+        <v>ELX</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="7"/>
+        <v>Enriquez</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>Eulogio</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>Oderon,ELX</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="6"/>
+        <v>ELX</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="7"/>
+        <v>Oderon</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Ibrahim</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>Saif Said Al Mawaali,ELC</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="6"/>
+        <v>ELC</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="7"/>
+        <v>Saif Said Al Mawaali</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B94" si="8">FIND(" ",A72)</f>
+        <v>9</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" ref="C72:C94" si="9">LEFT(A72,B72-1)</f>
+        <v>Ignatius</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D94" si="10">LEN(A72)-B72</f>
+        <v>13</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ref="E72:E94" si="11">RIGHT(A72,D72)</f>
+        <v>Rodrigues,ELC</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F94" si="12">FIND(",",E72)</f>
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:G94" si="13">LEN(E72)</f>
+        <v>13</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" ref="H72:H94" si="14">RIGHT(E72,G72-F72)</f>
+        <v>ELC</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" ref="I72:I94" si="15">LEFT(E72,F72-1)</f>
+        <v>Rodrigues</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="9"/>
+        <v>Euclid</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="11"/>
+        <v>Santiago,ELC</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="15"/>
+        <v>Santiago</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="9"/>
+        <v>Shouik</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="11"/>
+        <v>Mahabu Suouni,ELC</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="15"/>
+        <v>Mahabu Suouni</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="9"/>
+        <v>Edgar</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="11"/>
+        <v>Javier,ELC</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="15"/>
+        <v>Javier</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="9"/>
+        <v>Karunadas</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="11"/>
+        <v>Parakunnath,ELC</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="15"/>
+        <v>Parakunnath</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="9"/>
+        <v>Hermogenes</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="11"/>
+        <v>Baculo,ELC</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="15"/>
+        <v>Baculo</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="9"/>
+        <v>Abdullah</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="11"/>
+        <v>Maher.Abdullah,ELC</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="15"/>
+        <v>Maher.Abdullah</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="9"/>
+        <v>Abdulaziz</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="11"/>
+        <v>Abid Galm Al Hinai,ELC</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="14"/>
+        <v>ELC</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="15"/>
+        <v>Abid Galm Al Hinai</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="9"/>
+        <v>Ammar</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="11"/>
+        <v>Bin Mosbah,MECH</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="14"/>
+        <v>MECH</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="15"/>
+        <v>Bin Mosbah</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="9"/>
+        <v>Ghalib</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="11"/>
+        <v>Al Amri,MECH</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="14"/>
+        <v>MECH</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="15"/>
+        <v>Al Amri</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="9"/>
+        <v>Nasir</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="11"/>
+        <v>Al Hinai,MECH</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="14"/>
+        <v>MECH</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="15"/>
+        <v>Al Hinai</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="9"/>
+        <v>Macario</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="11"/>
+        <v>Barredo,MECH</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="14"/>
+        <v>MECH</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="15"/>
+        <v>Barredo</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="9"/>
+        <v>Regalado</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="11"/>
+        <v>Cruzat,MECH</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="14"/>
+        <v>MECH</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="15"/>
+        <v>Cruzat</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="9"/>
+        <v>mohammed</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="11"/>
+        <v>al-basyuni al-said al qal youbi,RAC</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="14"/>
+        <v>RAC</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="15"/>
+        <v>al-basyuni al-said al qal youbi</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="9"/>
+        <v>Abdulaziz</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="11"/>
+        <v>Jumah Al Shamaki,RAC</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="14"/>
+        <v>RAC</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="15"/>
+        <v>Jumah Al Shamaki</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="9"/>
+        <v>Osamah</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="11"/>
+        <v>Mohammad Ahmmad Al-Shobaki,RAC</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="14"/>
+        <v>RAC</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="15"/>
+        <v>Mohammad Ahmmad Al-Shobaki</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="9"/>
+        <v>Danilo</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="11"/>
+        <v>Roca,RAC</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="14"/>
+        <v>RAC</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="15"/>
+        <v>Roca</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="9"/>
+        <v>Juluis</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="11"/>
+        <v>Dabon,RAC</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="14"/>
+        <v>RAC</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="15"/>
+        <v>Dabon</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="9"/>
+        <v>Norman</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="11"/>
+        <v>De Ocampo,RAC</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="14"/>
+        <v>RAC</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="15"/>
+        <v>De Ocampo</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="9"/>
+        <v>Jenier</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="11"/>
+        <v>Galarpe,WEL</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="14"/>
+        <v>WEL</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="15"/>
+        <v>Galarpe</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="9"/>
+        <v>Rommel</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="11"/>
+        <v>A. Rosales,WEL</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="14"/>
+        <v>WEL</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="15"/>
+        <v>A. Rosales</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="9"/>
+        <v>Taoufik</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="11"/>
+        <v>Ouelhazi,WEL</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="14"/>
+        <v>WEL</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="15"/>
+        <v>Ouelhazi</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="9"/>
+        <v>Mohammed</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="11"/>
+        <v>Ramdan Salim,WEL</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="14"/>
+        <v>WEL</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="15"/>
+        <v>Ramdan Salim</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9">
+        <v>2017001</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE("(",A9,", ","'",B9,"', '",C9,"', ",E9,", '",D9," - Instructor'),")</f>
+        <v>(100, 'Abdulaziz', 'Abid Galm Al Hinai', 2017001, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10">
+        <v>2017002</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10:F69" si="0">CONCATENATE("(",A10,", ","'",B10,"', '",C10,"', ",E10,", '",D10," - Instructor'),")</f>
+        <v>(101, 'Abdulaziz', 'Jumah Al Shamaki', 2017002, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11">
+        <v>2017003</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>(102, 'Abdullah', 'Maher.Abdullah', 2017003, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12">
+        <v>2017004</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>(103, 'Abdurahiman', 'Puthan', 2017004, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13">
+        <v>2017005</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>(104, 'Ahmed', 'Mahsob', 2017005, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14">
+        <v>2017006</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>(105, 'Ahmed', 'AL-Maqbali', 2017006, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15">
+        <v>2017007</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>(106, 'Ali', 'Mohammed Ali Salih', 2017007, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16">
+        <v>2017008</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>(107, 'Ammar', 'Bin Mosbah', 2017008, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17">
+        <v>2017009</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>(108, 'antonio', 'Buca', 2017009, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18">
+        <v>2017010</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>(109, 'Aref', 'Al ajmi', 2017010, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19">
+        <v>2017011</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>(110, 'Asma', 'AL-', 2017011, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20">
+        <v>2017012</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>(111, 'Asma', 'Al Farsi', 2017012, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21">
+        <v>2017013</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>(112, 'Ayeesha', 'Yasmin', 2017013, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <v>2017014</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>(113, 'Ayoub', 'Al Oufi', 2017014, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23">
+        <v>2017015</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>(114, 'Bilal', 'Al Arqenah', 2017015, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24">
+        <v>2017016</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>(115, 'Carlo', 'Romion', 2017016, 'PE - Instructor'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25">
+        <v>2017017</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>(116, 'Conrado', 'Torres', 2017017, 'ELX - Instructor'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>2017018</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>(117, 'Ericson', 'Billedo', 2017018, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27">
+        <v>2017019</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>(118, 'Euclid', 'Santiago', 2017019, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28">
+        <v>2017020</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>(119, 'Eulogio', 'Oderon', 2017020, 'ELX - Instructor'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29">
+        <v>2017021</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>(120, 'Fatma', 'AL-Blushi', 2017021, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>2017022</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>(121, 'Fatma', 'Al Balushi', 2017022, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31">
+        <v>2017023</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>(122, 'Ghalib', 'Al Amri', 2017023, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32">
+        <v>2017024</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>(123, 'Hermogenes', 'Baculo', 2017024, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33">
+        <v>2017025</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>(124, 'Ibrahim', 'Saif Said Al Mawaali', 2017025, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34">
+        <v>2017026</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>(125, 'Ignatius', 'Rodrigues', 2017026, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35">
+        <v>2017027</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>(126, 'Jaffar', 'Al. Bahrani', 2017027, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36">
+        <v>2017028</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>(127, 'Jenier', 'Galarpe', 2017028, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37">
+        <v>2017029</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>(128, 'Julie', 'Mathew Senil', 2017029, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38">
+        <v>2017030</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>(129, 'Juluis', 'Dabon', 2017030, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>130</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39">
+        <v>2017031</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>(130, 'Kannan', 'subash chandra bose', 2017031, 'DRW - Instructor'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40">
+        <v>2017032</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>(131, 'Karunadas', 'Parakunnath', 2017032, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41">
+        <v>2017033</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>(132, 'Macario', 'Barredo', 2017033, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42">
+        <v>2017034</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>(133, 'Mansoor', 'Al Balushi', 2017034, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43">
+        <v>2017035</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>(134, 'Marwan', 'ahmed. Almamari', 2017035, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44">
+        <v>2017036</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>(135, 'Maryam', 'AL-Mamary', 2017036, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45">
+        <v>2017037</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>(136, 'Mohammed', 'Mahmoud Saliem', 2017037, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46">
+        <v>2017038</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>(137, 'Mohammed', 'Nasser Abdullah Al Balushi', 2017038, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47">
+        <v>2017039</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>(138, 'Mohammed', 'Al-BAlushi', 2017039, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48">
+        <v>2017040</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>(139, 'Mohammed', 'Nabbhan Al Nabbhani', 2017040, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49">
+        <v>2017041</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>(140, 'Mohammed', 'ALNabhani', 2017041, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50">
+        <v>2017042</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>(141, 'Mohammed', 'Vaziruddin', 2017042, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51">
+        <v>2017043</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>(142, 'mohammed', 'al-basyuni al-said al qal youbi', 2017043, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52">
+        <v>2017044</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>(143, 'Mohammed', 'Ramdan Salim', 2017044, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53">
+        <v>2017045</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>(144, 'Mustafa', 'Metwally', 2017045, 'DRW - Instructor'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54">
+        <v>2017046</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>(145, 'NAGAPAVAN', '.N', 2017046, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55">
+        <v>2017047</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>(146, 'Nasir', 'Al Hinai', 2017047, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56">
+        <v>2017048</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>(147, 'Norman', 'De Ocampo', 2017048, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57">
+        <v>2017049</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>(148, 'Osamah', 'Mohammad Ahmmad Al-Shobaki', 2017049, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58">
+        <v>2017050</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>(149, 'Rajesh', 'Chaladath', 2017050, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59">
+        <v>2017051</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>(150, 'Regina', 'Formaran', 2017051, 'PE - Instructor'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>151</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60">
+        <v>2017052</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>(151, 'Rojesb', 'Chaladatb', 2017052, 'DRW - Instructor'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61">
+        <v>2017053</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>(152, 'Rommel', 'A. Rosales', 2017053, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>153</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>2017054</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>(153, 'Sajith', 'Bandara', 2017054, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>154</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>2017055</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>(154, 'Sheikha', 'Ali Said Al-Badi', 2017055, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64">
+        <v>2017056</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>(155, 'Silpa', 'Sarah Abraham', 2017056, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>156</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D65" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65">
+        <v>2017057</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>(156, 'Taoufik', 'Ouelhazi', 2017057, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>2017058</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>(157, 'Vara', 'Prasad Reddy Subbi Reddy', 2017058, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>158</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>2017059</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>(158, 'Vijaya', 'kumar', 2017059, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>159</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68">
+        <v>2017060</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>(159, 'vinay', 'kumar', 2017060, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>187</v>
+      <c r="B69" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69">
+        <v>2017061</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>(160, 'William', 'Caniedo', 2017061, 'ELX - Instructor'),</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B9:D96">
+    <sortCondition ref="B8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="instructors" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$7:$A$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$C$4:$E$66</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="460">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -993,13 +996,424 @@
   </si>
   <si>
     <t>Ramdan Salim</t>
+  </si>
+  <si>
+    <t>Room 1</t>
+  </si>
+  <si>
+    <t>Room 2</t>
+  </si>
+  <si>
+    <t>Room 3</t>
+  </si>
+  <si>
+    <t>Room 4</t>
+  </si>
+  <si>
+    <t>Room 5</t>
+  </si>
+  <si>
+    <t>Classroom</t>
+  </si>
+  <si>
+    <t>Computer LAB 1</t>
+  </si>
+  <si>
+    <t>Computer LAB 2</t>
+  </si>
+  <si>
+    <t>Computer LAB</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>INSERT INTO `trainee_group` (`id`, `name`, `section`, `level`, `remarks`) VALUES</t>
+  </si>
+  <si>
+    <t>(1, 'Electronics', 'A', 1, NULL),</t>
+  </si>
+  <si>
+    <t>(2, 'Mechtronics', 'A', 1, NULL),</t>
+  </si>
+  <si>
+    <t>Basic Electricity and System</t>
+  </si>
+  <si>
+    <t>Basic Electronics and Circuits</t>
+  </si>
+  <si>
+    <t>Fundamental Digital Electronics Circuits</t>
+  </si>
+  <si>
+    <t>Engineering Drawing 1</t>
+  </si>
+  <si>
+    <t>Physics 1</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>Installation, Servicing Audio-Video Systems</t>
+  </si>
+  <si>
+    <t>Switched-Mode Power Supplies &amp; Autovolt Power</t>
+  </si>
+  <si>
+    <t>Electronics Devices Servicing 1</t>
+  </si>
+  <si>
+    <t>Engineering Drawing 2</t>
+  </si>
+  <si>
+    <t>Physics 2</t>
+  </si>
+  <si>
+    <t>Engineering Mathematics</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO C++ Programming</t>
+  </si>
+  <si>
+    <t>Technical Communication</t>
+  </si>
+  <si>
+    <t>Personal Computers and Multimedia Devices</t>
+  </si>
+  <si>
+    <t>Computer System Data Comm. &amp; Internetworking</t>
+  </si>
+  <si>
+    <t>Graduation Project 1</t>
+  </si>
+  <si>
+    <t>Chemistry 1</t>
+  </si>
+  <si>
+    <t>Entrepreneurship 1</t>
+  </si>
+  <si>
+    <t>Public Speaking</t>
+  </si>
+  <si>
+    <t>Security Alarm systems</t>
+  </si>
+  <si>
+    <t>Electronics Devices Servicing 2</t>
+  </si>
+  <si>
+    <t>Graduation Project 2</t>
+  </si>
+  <si>
+    <t>Chemistry 2</t>
+  </si>
+  <si>
+    <t>Entrepreneurship 2</t>
+  </si>
+  <si>
+    <t>Health and Safety Precautions</t>
+  </si>
+  <si>
+    <t>Basic Electricity(AC/DC) &amp;Electrical Code</t>
+  </si>
+  <si>
+    <t>Tools, Instruments, Electric wires and cable works</t>
+  </si>
+  <si>
+    <t>Basic Electronics</t>
+  </si>
+  <si>
+    <t>Electrical-Circuits and Protection Devices</t>
+  </si>
+  <si>
+    <t>Three Phase Principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTE 1101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVANCED IT SKILLS </t>
+  </si>
+  <si>
+    <t>MTST 1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATISTICS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCTION TO SELLING </t>
+  </si>
+  <si>
+    <t>ENTREPRENEURSHIP</t>
+  </si>
+  <si>
+    <t>BBSSM 1103</t>
+  </si>
+  <si>
+    <t>ECONOMICS</t>
+  </si>
+  <si>
+    <t>BBSSM 1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINCIPLES OF MARKETING </t>
+  </si>
+  <si>
+    <t>TWENG 1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICAL WRINTING </t>
+  </si>
+  <si>
+    <t>ENG 1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICAL COMMUNICATION  </t>
+  </si>
+  <si>
+    <t>MTBS 1202</t>
+  </si>
+  <si>
+    <t>BUSINESS MATHIMATICS</t>
+  </si>
+  <si>
+    <t>BBSSM 1201</t>
+  </si>
+  <si>
+    <t>BUSINESS ETHICS</t>
+  </si>
+  <si>
+    <t>BBSSM 1202</t>
+  </si>
+  <si>
+    <t>ADVERTISIMENT &amp; PROMOTION</t>
+  </si>
+  <si>
+    <t>BBSSM 1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSUMER BEHAVIOR </t>
+  </si>
+  <si>
+    <t>BBSSM 1204</t>
+  </si>
+  <si>
+    <t>BUSINESS RESEARCH METHODS</t>
+  </si>
+  <si>
+    <t>ENTRP 1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICAL WRITING </t>
+  </si>
+  <si>
+    <t>BBSSM 2101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECT MARKETING </t>
+  </si>
+  <si>
+    <t>BBSSM 2102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAILING MANAGEMENT </t>
+  </si>
+  <si>
+    <t>BBSSM 2103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL PRICING STRAGEGIES </t>
+  </si>
+  <si>
+    <t>BBSSM 2104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESSIONAL SELLING </t>
+  </si>
+  <si>
+    <t>PUENG 2101</t>
+  </si>
+  <si>
+    <t>INBS 1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E- COMMERCE </t>
+  </si>
+  <si>
+    <t>BBSSM 2204</t>
+  </si>
+  <si>
+    <t>MARKETING COMMUINCATION</t>
+  </si>
+  <si>
+    <t>BBSSM 2201</t>
+  </si>
+  <si>
+    <t>CUSTOMER RELATIONSHIP MGT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRADUATION PROJECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGEMENT AND ORGANIZATION </t>
+  </si>
+  <si>
+    <t>Course Code</t>
+  </si>
+  <si>
+    <t>Course Title</t>
+  </si>
+  <si>
+    <t>BBSSM 1102</t>
+  </si>
+  <si>
+    <t>BBSSM 2201x</t>
+  </si>
+  <si>
+    <t>BBSSM 2204x</t>
+  </si>
+  <si>
+    <t>CHEM 1101</t>
+  </si>
+  <si>
+    <t>CHEM 1202</t>
+  </si>
+  <si>
+    <t>EECIM 1101</t>
+  </si>
+  <si>
+    <t>EECIM 1102</t>
+  </si>
+  <si>
+    <t>EECIM 1103</t>
+  </si>
+  <si>
+    <t>EECIM 1204</t>
+  </si>
+  <si>
+    <t>EECIM 1205</t>
+  </si>
+  <si>
+    <t>EECIM 1206</t>
+  </si>
+  <si>
+    <t>EECIM 2107</t>
+  </si>
+  <si>
+    <t>EECIM 2108</t>
+  </si>
+  <si>
+    <t>EECIM 2109</t>
+  </si>
+  <si>
+    <t>EECIM 2210</t>
+  </si>
+  <si>
+    <t>EECIM 2211</t>
+  </si>
+  <si>
+    <t>EECIM 2212</t>
+  </si>
+  <si>
+    <t>EELIHW 1101</t>
+  </si>
+  <si>
+    <t>EELIHW 1102</t>
+  </si>
+  <si>
+    <t>EELIHW 1103</t>
+  </si>
+  <si>
+    <t>EELIHW 1204</t>
+  </si>
+  <si>
+    <t>EELIHW 1205</t>
+  </si>
+  <si>
+    <t>EELIHW 1206</t>
+  </si>
+  <si>
+    <t>EENDR 1101</t>
+  </si>
+  <si>
+    <t>EENDR 1202</t>
+  </si>
+  <si>
+    <t>ENTRP 1101</t>
+  </si>
+  <si>
+    <t>ENTRP 1203</t>
+  </si>
+  <si>
+    <t>INTE 1202</t>
+  </si>
+  <si>
+    <t>MTCL 1101</t>
+  </si>
+  <si>
+    <t>MTCL 1202</t>
+  </si>
+  <si>
+    <t>PHYS 1101</t>
+  </si>
+  <si>
+    <t>PHYS 1202</t>
+  </si>
+  <si>
+    <t>PRMG 1101</t>
+  </si>
+  <si>
+    <t>TCENG 1202</t>
+  </si>
+  <si>
+    <t>Period Req</t>
+  </si>
+  <si>
+    <t>ENG 1101</t>
+  </si>
+  <si>
+    <t>EECIM 1203</t>
+  </si>
+  <si>
+    <t>ELX-?</t>
+  </si>
+  <si>
+    <t>EECIM 1305</t>
+  </si>
+  <si>
+    <t>EELIHW 1203</t>
+  </si>
+  <si>
+    <t>EELIHW 2107</t>
+  </si>
+  <si>
+    <t>EELIHW 2108</t>
+  </si>
+  <si>
+    <t>EELIHW 2209</t>
+  </si>
+  <si>
+    <t>EELIHW 2210</t>
+  </si>
+  <si>
+    <t>INSERT INTO `subject` (`id`, `code`, `name`, `required_period`, `description`) VALUES</t>
+  </si>
+  <si>
+    <t>(1, 'MATH101', 'Basic Math', 2, 'Basic Math taught in level 1'),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,6 +1553,11 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1482,10 +1901,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1814,13 +2242,13 @@
       <selection activeCell="B1" sqref="B1:B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +2256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +2264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +2272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +2280,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1860,7 +2288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +2296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1876,7 +2304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1884,7 +2312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1892,7 +2320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +2328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +2336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +2344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +2352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +2360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1940,7 +2368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1948,7 +2376,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +2384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1964,7 +2392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1972,7 +2400,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1980,7 +2408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +2416,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +2424,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2004,7 +2432,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2020,7 +2448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2036,7 +2464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2052,7 +2480,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2068,7 +2496,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2076,7 +2504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2084,7 +2512,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2520,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2100,7 +2528,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2108,7 +2536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2116,7 +2544,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2124,7 +2552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2132,7 +2560,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2568,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2148,7 +2576,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2156,7 +2584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2164,7 +2592,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2172,7 +2600,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2180,7 +2608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2616,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2624,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2204,7 +2632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2212,7 +2640,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2220,7 +2648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2228,7 +2656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2236,7 +2664,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2244,7 +2672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2260,7 +2688,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2268,7 +2696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2276,7 +2704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2284,7 +2712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +2720,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2736,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2316,7 +2744,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2324,7 +2752,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +2760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2340,7 +2768,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2348,7 +2776,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2356,7 +2784,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2364,7 +2792,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2372,7 +2800,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2380,7 +2808,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2388,7 +2816,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2396,7 +2824,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2404,7 +2832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2412,7 +2840,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2420,7 +2848,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2856,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2436,7 +2864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2444,7 +2872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2452,7 +2880,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2460,7 +2888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2476,7 +2904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +2912,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2492,7 +2920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2500,7 +2928,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2508,7 +2936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2516,7 +2944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2524,7 +2952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2532,7 +2960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2540,7 +2968,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2548,7 +2976,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2556,7 +2984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2564,7 +2992,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2585,7 +3013,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
@@ -2596,7 +3024,7 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -2633,7 +3061,7 @@
         <v>Formaran</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2670,7 +3098,7 @@
         <v>Romion</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -2707,7 +3135,7 @@
         <v>subash chandra bose</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -2744,7 +3172,7 @@
         <v>Metwally</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2781,7 +3209,7 @@
         <v>Chaladatb</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -2818,7 +3246,7 @@
         <v>Mahmoud Saliem</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -2855,7 +3283,7 @@
         <v>Mahsob</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2892,7 +3320,7 @@
         <v>Mahmud Saliem</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2929,7 +3357,7 @@
         <v>Nasser Abdullah Al Balushi</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2966,7 +3394,7 @@
         <v>Fawi Hassan</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3003,7 +3431,7 @@
         <v>DHAYANITHI</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -3040,7 +3468,7 @@
         <v>Chaladath</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -3077,7 +3505,7 @@
         <v>kumar</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -3114,7 +3542,7 @@
         <v>Al-BAlushi</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -3151,7 +3579,7 @@
         <v>Mathew Senil</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -3188,7 +3616,7 @@
         <v>AL-</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3225,7 +3653,7 @@
         <v>Kumar Vadakkakalloth</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -3262,7 +3690,7 @@
         <v>Nabbhan Al Nabbhani</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -3299,7 +3727,7 @@
         <v>ahmed. Almamari</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -3336,7 +3764,7 @@
         <v>ALNabhani</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -3373,7 +3801,7 @@
         <v>Dutt. Algole</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -3410,7 +3838,7 @@
         <v>Sarah Abraham</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -3447,7 +3875,7 @@
         <v>Al Balushi</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -3484,7 +3912,7 @@
         <v>Mahammed IBraheem Al Lawati</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -3521,7 +3949,7 @@
         <v>James Bayye</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3986,7 @@
         <v>Mohammed Ali Salih</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -3595,7 +4023,7 @@
         <v>Vidyanand</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -3632,7 +4060,7 @@
         <v>Shine</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -3669,7 +4097,7 @@
         <v>Shibani Latrash</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -3706,7 +4134,7 @@
         <v>Ahmed Sherif</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -3743,7 +4171,7 @@
         <v>Mathew</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -3780,7 +4208,7 @@
         <v>Shafee Shaik</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -3817,7 +4245,7 @@
         <v>Abdullah bin Nasr</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -3854,7 +4282,7 @@
         <v>Puthan</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -3891,7 +4319,7 @@
         <v>AL-Maqbali</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -3928,7 +4356,7 @@
         <v>AL-Blushi</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -3965,7 +4393,7 @@
         <v>AL-Blushi</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -4002,7 +4430,7 @@
         <v>AL-Mamary</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -4039,7 +4467,7 @@
         <v>Al ajmi</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -4076,7 +4504,7 @@
         <v>Bandara</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -4113,7 +4541,7 @@
         <v>kumar</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -4150,7 +4578,7 @@
         <v>Billedo</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -4187,7 +4615,7 @@
         <v>Ali Said Al-Badi</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -4224,7 +4652,7 @@
         <v>Sultan</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -4261,7 +4689,7 @@
         <v>Mohammed Al-Rushaidi</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -4298,7 +4726,7 @@
         <v>Prasad Reddy Subbi Reddy</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -4335,7 +4763,7 @@
         <v>Bibanco</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -4372,7 +4800,7 @@
         <v>Najjar</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>142</v>
       </c>
@@ -4409,7 +4837,7 @@
         <v>Al Balushi</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -4446,7 +4874,7 @@
         <v>Al. Bahrani</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -4483,7 +4911,7 @@
         <v>Vaziruddin</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -4520,7 +4948,7 @@
         <v>.N</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>146</v>
       </c>
@@ -4557,7 +4985,7 @@
         <v>Saed Hussein Wahpd</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -4594,7 +5022,7 @@
         <v>Joaquin</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -4631,7 +5059,7 @@
         <v>Al Oufi</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -4668,7 +5096,7 @@
         <v>Al Farsi</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -4705,7 +5133,7 @@
         <v>Al Arqenah</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -4742,7 +5170,7 @@
         <v>Buca</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -4779,7 +5207,7 @@
         <v>Vuthaluro</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -4816,7 +5244,7 @@
         <v>Yasmin</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -4853,7 +5281,7 @@
         <v>Caniedo</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -4890,7 +5318,7 @@
         <v>Torres</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -4927,7 +5355,7 @@
         <v>Enriquez</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -4964,7 +5392,7 @@
         <v>Oderon</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -5001,7 +5429,7 @@
         <v>Saif Said Al Mawaali</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -5038,7 +5466,7 @@
         <v>Rodrigues</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -5075,7 +5503,7 @@
         <v>Santiago</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5112,7 +5540,7 @@
         <v>Mahabu Suouni</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -5149,7 +5577,7 @@
         <v>Javier</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -5186,7 +5614,7 @@
         <v>Parakunnath</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -5223,7 +5651,7 @@
         <v>Baculo</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -5260,7 +5688,7 @@
         <v>Maher.Abdullah</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -5297,7 +5725,7 @@
         <v>Abid Galm Al Hinai</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -5334,7 +5762,7 @@
         <v>Bin Mosbah</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -5371,7 +5799,7 @@
         <v>Al Amri</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -5408,7 +5836,7 @@
         <v>Al Hinai</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -5445,7 +5873,7 @@
         <v>Barredo</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -5482,7 +5910,7 @@
         <v>Cruzat</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -5519,7 +5947,7 @@
         <v>al-basyuni al-said al qal youbi</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -5556,7 +5984,7 @@
         <v>Jumah Al Shamaki</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -5593,7 +6021,7 @@
         <v>Mohammad Ahmmad Al-Shobaki</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -5630,7 +6058,7 @@
         <v>Roca</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -5667,7 +6095,7 @@
         <v>Dabon</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -5704,7 +6132,7 @@
         <v>De Ocampo</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -5741,7 +6169,7 @@
         <v>Galarpe</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -5778,7 +6206,7 @@
         <v>A. Rosales</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -5815,7 +6243,7 @@
         <v>Ouelhazi</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -5862,43 +6290,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="C3" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>248</v>
       </c>
@@ -5912,7 +6340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>100</v>
       </c>
@@ -5933,7 +6361,7 @@
         <v>(100, 'Abdulaziz', 'Abid Galm Al Hinai', 2017001, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>101</v>
       </c>
@@ -5954,7 +6382,7 @@
         <v>(101, 'Abdulaziz', 'Jumah Al Shamaki', 2017002, 'RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>102</v>
       </c>
@@ -5975,7 +6403,7 @@
         <v>(102, 'Abdullah', 'Maher.Abdullah', 2017003, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>103</v>
       </c>
@@ -5996,7 +6424,7 @@
         <v>(103, 'Abdurahiman', 'Puthan', 2017004, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>104</v>
       </c>
@@ -6017,7 +6445,7 @@
         <v>(104, 'Ahmed', 'Mahsob', 2017005, 'BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>105</v>
       </c>
@@ -6038,7 +6466,7 @@
         <v>(105, 'Ahmed', 'AL-Maqbali', 2017006, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>106</v>
       </c>
@@ -6059,7 +6487,7 @@
         <v>(106, 'Ali', 'Mohammed Ali Salih', 2017007, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>107</v>
       </c>
@@ -6080,7 +6508,7 @@
         <v>(107, 'Ammar', 'Bin Mosbah', 2017008, 'MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>108</v>
       </c>
@@ -6101,7 +6529,7 @@
         <v>(108, 'antonio', 'Buca', 2017009, 'PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>109</v>
       </c>
@@ -6122,7 +6550,7 @@
         <v>(109, 'Aref', 'Al ajmi', 2017010, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>110</v>
       </c>
@@ -6143,7 +6571,7 @@
         <v>(110, 'Asma', 'AL-', 2017011, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>111</v>
       </c>
@@ -6164,7 +6592,7 @@
         <v>(111, 'Asma', 'Al Farsi', 2017012, 'PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>112</v>
       </c>
@@ -6185,7 +6613,7 @@
         <v>(112, 'Ayeesha', 'Yasmin', 2017013, 'PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>113</v>
       </c>
@@ -6206,7 +6634,7 @@
         <v>(113, 'Ayoub', 'Al Oufi', 2017014, 'MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>114</v>
       </c>
@@ -6227,7 +6655,7 @@
         <v>(114, 'Bilal', 'Al Arqenah', 2017015, 'PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>115</v>
       </c>
@@ -6248,7 +6676,7 @@
         <v>(115, 'Carlo', 'Romion', 2017016, 'PE - Instructor'),</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -6269,7 +6697,7 @@
         <v>(116, 'Conrado', 'Torres', 2017017, 'ELX - Instructor'),</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>117</v>
       </c>
@@ -6290,7 +6718,7 @@
         <v>(117, 'Ericson', 'Billedo', 2017018, 'IT - Instructor'),</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>118</v>
       </c>
@@ -6311,7 +6739,7 @@
         <v>(118, 'Euclid', 'Santiago', 2017019, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>119</v>
       </c>
@@ -6332,7 +6760,7 @@
         <v>(119, 'Eulogio', 'Oderon', 2017020, 'ELX - Instructor'),</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>120</v>
       </c>
@@ -6353,7 +6781,7 @@
         <v>(120, 'Fatma', 'AL-Blushi', 2017021, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>121</v>
       </c>
@@ -6374,7 +6802,7 @@
         <v>(121, 'Fatma', 'Al Balushi', 2017022, 'IT - Instructor'),</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>122</v>
       </c>
@@ -6395,7 +6823,7 @@
         <v>(122, 'Ghalib', 'Al Amri', 2017023, 'MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>123</v>
       </c>
@@ -6416,7 +6844,7 @@
         <v>(123, 'Hermogenes', 'Baculo', 2017024, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>124</v>
       </c>
@@ -6437,7 +6865,7 @@
         <v>(124, 'Ibrahim', 'Saif Said Al Mawaali', 2017025, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>125</v>
       </c>
@@ -6458,7 +6886,7 @@
         <v>(125, 'Ignatius', 'Rodrigues', 2017026, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>126</v>
       </c>
@@ -6479,7 +6907,7 @@
         <v>(126, 'Jaffar', 'Al. Bahrani', 2017027, 'MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>127</v>
       </c>
@@ -6500,7 +6928,7 @@
         <v>(127, 'Jenier', 'Galarpe', 2017028, 'WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>128</v>
       </c>
@@ -6521,7 +6949,7 @@
         <v>(128, 'Julie', 'Mathew Senil', 2017029, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>129</v>
       </c>
@@ -6542,7 +6970,7 @@
         <v>(129, 'Juluis', 'Dabon', 2017030, 'RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>130</v>
       </c>
@@ -6563,7 +6991,7 @@
         <v>(130, 'Kannan', 'subash chandra bose', 2017031, 'DRW - Instructor'),</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>131</v>
       </c>
@@ -6584,7 +7012,7 @@
         <v>(131, 'Karunadas', 'Parakunnath', 2017032, 'ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>132</v>
       </c>
@@ -6605,7 +7033,7 @@
         <v>(132, 'Macario', 'Barredo', 2017033, 'MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>133</v>
       </c>
@@ -6626,7 +7054,7 @@
         <v>(133, 'Mansoor', 'Al Balushi', 2017034, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>134</v>
       </c>
@@ -6647,7 +7075,7 @@
         <v>(134, 'Marwan', 'ahmed. Almamari', 2017035, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>135</v>
       </c>
@@ -6668,7 +7096,7 @@
         <v>(135, 'Maryam', 'AL-Mamary', 2017036, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>136</v>
       </c>
@@ -6689,7 +7117,7 @@
         <v>(136, 'Mohammed', 'Mahmoud Saliem', 2017037, 'BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>137</v>
       </c>
@@ -6710,7 +7138,7 @@
         <v>(137, 'Mohammed', 'Nasser Abdullah Al Balushi', 2017038, 'BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>138</v>
       </c>
@@ -6731,7 +7159,7 @@
         <v>(138, 'Mohammed', 'Al-BAlushi', 2017039, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>139</v>
       </c>
@@ -6752,7 +7180,7 @@
         <v>(139, 'Mohammed', 'Nabbhan Al Nabbhani', 2017040, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>140</v>
       </c>
@@ -6773,7 +7201,7 @@
         <v>(140, 'Mohammed', 'ALNabhani', 2017041, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>141</v>
       </c>
@@ -6794,7 +7222,7 @@
         <v>(141, 'Mohammed', 'Vaziruddin', 2017042, 'MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>142</v>
       </c>
@@ -6815,7 +7243,7 @@
         <v>(142, 'mohammed', 'al-basyuni al-said al qal youbi', 2017043, 'RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>143</v>
       </c>
@@ -6836,7 +7264,7 @@
         <v>(143, 'Mohammed', 'Ramdan Salim', 2017044, 'WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>144</v>
       </c>
@@ -6857,7 +7285,7 @@
         <v>(144, 'Mustafa', 'Metwally', 2017045, 'DRW - Instructor'),</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>145</v>
       </c>
@@ -6878,7 +7306,7 @@
         <v>(145, 'NAGAPAVAN', '.N', 2017046, 'MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>146</v>
       </c>
@@ -6899,7 +7327,7 @@
         <v>(146, 'Nasir', 'Al Hinai', 2017047, 'MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>147</v>
       </c>
@@ -6920,7 +7348,7 @@
         <v>(147, 'Norman', 'De Ocampo', 2017048, 'RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>148</v>
       </c>
@@ -6941,7 +7369,7 @@
         <v>(148, 'Osamah', 'Mohammad Ahmmad Al-Shobaki', 2017049, 'RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>149</v>
       </c>
@@ -6962,7 +7390,7 @@
         <v>(149, 'Rajesh', 'Chaladath', 2017050, 'BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>150</v>
       </c>
@@ -6983,7 +7411,7 @@
         <v>(150, 'Regina', 'Formaran', 2017051, 'PE - Instructor'),</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>151</v>
       </c>
@@ -7004,7 +7432,7 @@
         <v>(151, 'Rojesb', 'Chaladatb', 2017052, 'DRW - Instructor'),</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>152</v>
       </c>
@@ -7025,7 +7453,7 @@
         <v>(152, 'Rommel', 'A. Rosales', 2017053, 'WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>153</v>
       </c>
@@ -7046,7 +7474,7 @@
         <v>(153, 'Sajith', 'Bandara', 2017054, 'IT - Instructor'),</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>154</v>
       </c>
@@ -7067,7 +7495,7 @@
         <v>(154, 'Sheikha', 'Ali Said Al-Badi', 2017055, 'IT - Instructor'),</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>155</v>
       </c>
@@ -7088,7 +7516,7 @@
         <v>(155, 'Silpa', 'Sarah Abraham', 2017056, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>156</v>
       </c>
@@ -7109,7 +7537,7 @@
         <v>(156, 'Taoufik', 'Ouelhazi', 2017057, 'WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>157</v>
       </c>
@@ -7130,7 +7558,7 @@
         <v>(157, 'Vara', 'Prasad Reddy Subbi Reddy', 2017058, 'IT - Instructor'),</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>158</v>
       </c>
@@ -7151,7 +7579,7 @@
         <v>(158, 'Vijaya', 'kumar', 2017059, 'IT - Instructor'),</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>159</v>
       </c>
@@ -7172,7 +7600,7 @@
         <v>(159, 'vinay', 'kumar', 2017060, 'ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>160</v>
       </c>
@@ -7199,4 +7627,1883 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>136</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" t="str">
+        <f>CONCATENATE("Term ",D12," Mechatronics Trainees")</f>
+        <v>Term 1 Mechatronics Trainees</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE("(",B12,", '",$F$10,"', '",E12,"', ",D12,",'",F12,"'),")</f>
+        <v>(136, 'BUS', 'A', 1,'Term 1 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>137</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ref="F13:F38" si="0">CONCATENATE("Term ",D13," Mechatronics Trainees")</f>
+        <v>Term 1 Mechatronics Trainees</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G38" si="1">CONCATENATE("(",B13,", '",$F$10,"', '",E13,"', ",D13,",'",F13,"'),")</f>
+        <v>(137, 'BUS', 'B', 1,'Term 1 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 1 Mechatronics Trainees</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>(138, 'BUS', 'C', 1,'Term 1 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 2 Mechatronics Trainees</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>(139, 'BUS', 'A', 2,'Term 2 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>140</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
+        <f>C15</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 2 Mechatronics Trainees</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>(140, 'BUS', 'B', 2,'Term 2 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>141</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
+        <f>C15</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 2 Mechatronics Trainees</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>(141, 'BUS', 'C', 2,'Term 2 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 3 Mechatronics Trainees</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>(142, 'BUS', 'A', 3,'Term 3 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>143</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
+        <f>C18</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 3 Mechatronics Trainees</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>(143, 'BUS', 'B', 3,'Term 3 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>144</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4">
+        <f>C18</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 3 Mechatronics Trainees</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>(144, 'BUS', 'C', 3,'Term 3 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
+        <v>145</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 4 Mechatronics Trainees</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>(145, 'BUS', 'A', 4,'Term 4 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>146</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4">
+        <f>C21</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 4 Mechatronics Trainees</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>(146, 'BUS', 'A', 4,'Term 4 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>147</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4">
+        <f>C21</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 4 Mechatronics Trainees</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>(147, 'BUS', 'B', 4,'Term 4 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <v>148</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24" si="2">C24</f>
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 5 Mechatronics Trainees</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>(148, 'BUS', 'C', 5,'Term 5 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>149</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:D45" si="3">C24</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 5 Mechatronics Trainees</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>(149, 'BUS', 'A', 5,'Term 5 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26" si="4">C24</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 5 Mechatronics Trainees</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>(150, 'BUS', 'B', 5,'Term 5 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>151</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27" si="5">C27</f>
+        <v>6</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 6 Mechatronics Trainees</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>(151, 'BUS', 'C', 6,'Term 6 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>152</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:D45" si="6">C27</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 6 Mechatronics Trainees</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>(152, 'BUS', 'A', 6,'Term 6 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <v>153</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29" si="7">C27</f>
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 6 Mechatronics Trainees</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>(153, 'BUS', 'A', 6,'Term 6 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>154</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ref="D30" si="8">C30</f>
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 7 Mechatronics Trainees</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>(154, 'BUS', 'B', 7,'Term 7 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
+        <v>155</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:D45" si="9">C30</f>
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 7 Mechatronics Trainees</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>(155, 'BUS', 'C', 7,'Term 7 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>156</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4">
+        <f t="shared" ref="D32" si="10">C30</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 7 Mechatronics Trainees</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>(156, 'BUS', 'A', 7,'Term 7 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>157</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33" si="11">C33</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 8 Mechatronics Trainees</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>(157, 'BUS', 'B', 8,'Term 8 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>158</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34:D45" si="12">C33</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 8 Mechatronics Trainees</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>(158, 'BUS', 'C', 8,'Term 8 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>159</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35" si="13">C33</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 8 Mechatronics Trainees</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>(159, 'BUS', 'A', 8,'Term 8 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36">
+        <v>160</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" ref="D36" si="14">C36</f>
+        <v>9</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 9 Mechatronics Trainees</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>(160, 'BUS', 'A', 9,'Term 9 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>161</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:D45" si="15">C36</f>
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 9 Mechatronics Trainees</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>(161, 'BUS', 'B', 9,'Term 9 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>162</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38" si="16">C36</f>
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Term 9 Mechatronics Trainees</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>(162, 'BUS', 'C', 9,'Term 9 Mechatronics Trainees'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="D43">
+        <f t="shared" ref="D43:D45" si="17">C42</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="D44">
+        <f t="shared" ref="D44" si="18">C42</f>
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="D45">
+        <f t="shared" ref="D45" si="19">C45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="D1" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="D2" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE("(",B5,",'",C5,"','",D5,"',",E5,",''),")</f>
+        <v>(1,'BBSSM 1101','PRINCIPLES OF MARKETING ',6,''),</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F66" si="0">CONCATENATE("(",B6,",'",C6,"','",D6,"',",E6,",''),")</f>
+        <v>(2,'BBSSM 1102','INTRODUCTION TO SELLING ',6,''),</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'BBSSM 1103','ECONOMICS',6,''),</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'BBSSM 1201','BUSINESS ETHICS',6,''),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'BBSSM 1202','ADVERTISIMENT &amp; PROMOTION',6,''),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'BBSSM 1203','CONSUMER BEHAVIOR ',6,''),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'BBSSM 1204','BUSINESS RESEARCH METHODS',6,''),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'BBSSM 2101','DIRECT MARKETING ',6,''),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'BBSSM 2102','RETAILING MANAGEMENT ',6,''),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'BBSSM 2103','RETAIL PRICING STRAGEGIES ',6,''),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,'BBSSM 2104','PROFESSIONAL SELLING ',6,''),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,'BBSSM 2201','CUSTOMER RELATIONSHIP MGT.',6,''),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',0,''),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,'BBSSM 2204','MARKETING COMMUINCATION',0,''),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" t="s">
+        <v>410</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,'BBSSM 2204x','GRADUATION PROJECT ',0,''),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,'CHEM 1101','Chemistry 1',4,''),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,'CHEM 1202','Chemistry 2',4,''),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,'EECIM 1101','Basic Electricity and System',0,''),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,'EECIM 1102','Basic Electronics and Circuits',0,''),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,'EECIM 1103','Fundamental Digital Electronics Circuits',0,''),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,'EECIM 1203','ELX-?',7,''),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,'EECIM 1204','Installation, Servicing Audio-Video Systems',5,''),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',0,''),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,'EECIM 1206','Electronics Devices Servicing 1',0,''),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,'EECIM 1305','ELX-?',5,''),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>425</v>
+      </c>
+      <c r="D30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,'EECIM 2107','Personal Computers and Multimedia Devices',0,''),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',0,''),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,'EECIM 2109','Graduation Project 1',0,''),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,'EECIM 2210','Security Alarm systems',0,''),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>429</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,'EECIM 2211','Electronics Devices Servicing 2',0,''),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35" t="s">
+        <v>360</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,'EECIM 2212','Graduation Project 2',0,''),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,'EELIHW 1101','Health and Safety Precautions',1,''),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,'EELIHW 1102','Basic Electricity(AC/DC) &amp;Electrical Code',5,''),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D38" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,'EELIHW 1103','Tools, Instruments, Electric wires and cable works',5,''),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,'EELIHW 1204','Basic Electronics',4,''),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>435</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,'EELIHW 1205','Electrical-Circuits and Protection Devices',0,''),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>436</v>
+      </c>
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,'EELIHW 1206','Three Phase Principles',0,''),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>437</v>
+      </c>
+      <c r="D42" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,'EENDR 1101','Engineering Drawing 1',0,''),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,'EENDR 1202','Engineering Drawing 2',0,''),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,'ENG 1101','TECHNICAL WRITING ',3,''),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>381</v>
+      </c>
+      <c r="D45" t="s">
+        <v>382</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,'ENG 1202','TECHNICAL COMMUNICATION  ',3,''),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,'ENTRP 1202','ENTREPRENEURSHIP',0,''),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>439</v>
+      </c>
+      <c r="D47" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>(44,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,'INBS 1202','E- COMMERCE ',4,''),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" t="s">
+        <v>370</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>(46,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>(47,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>(48,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>442</v>
+      </c>
+      <c r="D53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>(49,'MTCL 1101','Calculus',4,''),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,'MTCL 1202','Engineering Mathematics',4,''),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>371</v>
+      </c>
+      <c r="D55" t="s">
+        <v>372</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>(51,'MTST 1101','STATISTICS ',4,''),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>444</v>
+      </c>
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>(52,'PHYS 1101','Physics 1',4,''),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D57" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>(53,'PHYS 1202','Physics 2',4,''),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>(54,'PRMG 1101','ENTREPRENEURSHIP',0,''),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D59" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>(55,'PUENG 2101','Public Speaking',3,''),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>447</v>
+      </c>
+      <c r="D60" t="s">
+        <v>351</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>(56,'TCENG 1202','Technical Communication',3,''),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" t="s">
+        <v>380</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>(57,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>453</v>
+      </c>
+      <c r="D62" t="s">
+        <v>453</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>(58,'EELIHW 1203','EELIHW 1203',7,''),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>454</v>
+      </c>
+      <c r="D63" t="s">
+        <v>454</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>(59,'EELIHW 2107','EELIHW 2107',8,''),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>455</v>
+      </c>
+      <c r="D64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>(60,'EELIHW 2108','EELIHW 2108',5,''),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>456</v>
+      </c>
+      <c r="D65" t="s">
+        <v>456</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>(61,'EELIHW 2209','EELIHW 2209',12,''),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>457</v>
+      </c>
+      <c r="D66" t="s">
+        <v>457</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>(62,'EELIHW 2210','EELIHW 2210',9,''),</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C5:D61">
+    <sortCondition ref="C4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="462">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -1407,6 +1407,12 @@
   </si>
   <si>
     <t>(1, 'MATH101', 'Basic Math', 2, 'Basic Math taught in level 1'),</t>
+  </si>
+  <si>
+    <t>WELD</t>
+  </si>
+  <si>
+    <t>Welding &amp; Fabrication</t>
   </si>
 </sst>
 </file>
@@ -7633,7 +7639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G38"/>
     </sheetView>
   </sheetViews>
@@ -7712,597 +7718,602 @@
     </row>
     <row r="10" spans="2:7">
       <c r="F10" t="s">
-        <v>253</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="F11" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
         <v>136</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>C12</f>
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE("Term ",D12," Mechatronics Trainees")</f>
-        <v>Term 1 Mechatronics Trainees</v>
+        <f>CONCATENATE("Term ",D12," ",$F$11, " Trainees")</f>
+        <v>Term 1 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE("(",B12,", '",$F$10,"', '",E12,"', ",D12,",'",F12,"'),")</f>
-        <v>(136, 'BUS', 'A', 1,'Term 1 Mechatronics Trainees'),</v>
+        <f>CONCATENATE("(",B12,",","'",$F$10,"-",D12,E12,"','",E12,"',",D12,",","'",F12,"'),")</f>
+        <v>(136,'WELD-1A','A',1,'Term 1 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
         <v>137</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3">
         <f>C12</f>
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13:F38" si="0">CONCATENATE("Term ",D13," Mechatronics Trainees")</f>
-        <v>Term 1 Mechatronics Trainees</v>
+        <f t="shared" ref="F13:F38" si="0">CONCATENATE("Term ",D13," ",$F$11, " Trainees")</f>
+        <v>Term 1 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G38" si="1">CONCATENATE("(",B13,", '",$F$10,"', '",E13,"', ",D13,",'",F13,"'),")</f>
-        <v>(137, 'BUS', 'B', 1,'Term 1 Mechatronics Trainees'),</v>
+        <f t="shared" ref="G13:G38" si="1">CONCATENATE("(",B13,",","'",$F$10,"-",D13,E13,"','",E13,"',",D13,",","'",F13,"'),")</f>
+        <v>(137,'WELD-1B','B',1,'Term 1 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
         <v>138</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="3">
         <f>C12</f>
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Term 1 Mechatronics Trainees</v>
+        <v>Term 1 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>(138, 'BUS', 'C', 1,'Term 1 Mechatronics Trainees'),</v>
+        <v>(138,'WELD-1C','C',1,'Term 1 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
         <v>139</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f>C15</f>
         <v>2</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Term 2 Mechatronics Trainees</v>
+        <v>Term 2 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>(139, 'BUS', 'A', 2,'Term 2 Mechatronics Trainees'),</v>
+        <v>(139,'WELD-2A','A',2,'Term 2 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
         <v>140</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3">
         <f>C15</f>
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Term 2 Mechatronics Trainees</v>
+        <v>Term 2 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>(140, 'BUS', 'B', 2,'Term 2 Mechatronics Trainees'),</v>
+        <v>(140,'WELD-2B','B',2,'Term 2 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
         <v>141</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="3">
         <f>C15</f>
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Term 2 Mechatronics Trainees</v>
+        <v>Term 2 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>(141, 'BUS', 'C', 2,'Term 2 Mechatronics Trainees'),</v>
+        <v>(141,'WELD-2C','C',2,'Term 2 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
         <v>142</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f>C18</f>
         <v>3</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Term 3 Mechatronics Trainees</v>
+        <v>Term 3 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>(142, 'BUS', 'A', 3,'Term 3 Mechatronics Trainees'),</v>
+        <v>(142,'WELD-3A','A',3,'Term 3 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19">
         <v>143</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="3">
         <f>C18</f>
         <v>3</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Term 3 Mechatronics Trainees</v>
+        <v>Term 3 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>(143, 'BUS', 'B', 3,'Term 3 Mechatronics Trainees'),</v>
+        <v>(143,'WELD-3B','B',3,'Term 3 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
         <v>144</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="3">
         <f>C18</f>
         <v>3</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Term 3 Mechatronics Trainees</v>
+        <v>Term 3 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>(144, 'BUS', 'C', 3,'Term 3 Mechatronics Trainees'),</v>
+        <v>(144,'WELD-3C','C',3,'Term 3 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21">
         <v>145</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f>C21</f>
         <v>4</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Term 4 Mechatronics Trainees</v>
+        <v>Term 4 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>(145, 'BUS', 'A', 4,'Term 4 Mechatronics Trainees'),</v>
+        <v>(145,'WELD-4A','A',4,'Term 4 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
         <v>146</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="3">
         <f>C21</f>
         <v>4</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Term 4 Mechatronics Trainees</v>
+        <v>Term 4 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>(146, 'BUS', 'A', 4,'Term 4 Mechatronics Trainees'),</v>
+        <v>(146,'WELD-4A','A',4,'Term 4 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
         <v>147</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3">
         <f>C21</f>
         <v>4</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Term 4 Mechatronics Trainees</v>
+        <v>Term 4 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>(147, 'BUS', 'B', 4,'Term 4 Mechatronics Trainees'),</v>
+        <v>(147,'WELD-4B','B',4,'Term 4 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
         <v>148</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" ref="D24" si="2">C24</f>
         <v>5</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Term 5 Mechatronics Trainees</v>
+        <v>Term 5 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>(148, 'BUS', 'C', 5,'Term 5 Mechatronics Trainees'),</v>
+        <v>(148,'WELD-5C','C',5,'Term 5 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
         <v>149</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4">
-        <f t="shared" ref="D25:D45" si="3">C24</f>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="3">C24</f>
         <v>5</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Term 5 Mechatronics Trainees</v>
+        <v>Term 5 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>(149, 'BUS', 'A', 5,'Term 5 Mechatronics Trainees'),</v>
+        <v>(149,'WELD-5A','A',5,'Term 5 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
         <v>150</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4">
+      <c r="C26" s="4"/>
+      <c r="D26" s="3">
         <f t="shared" ref="D26" si="4">C24</f>
         <v>5</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Term 5 Mechatronics Trainees</v>
+        <v>Term 5 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>(150, 'BUS', 'B', 5,'Term 5 Mechatronics Trainees'),</v>
+        <v>(150,'WELD-5B','B',5,'Term 5 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27">
         <v>151</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>6</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" ref="D27" si="5">C27</f>
         <v>6</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Term 6 Mechatronics Trainees</v>
+        <v>Term 6 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>(151, 'BUS', 'C', 6,'Term 6 Mechatronics Trainees'),</v>
+        <v>(151,'WELD-6C','C',6,'Term 6 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28">
         <v>152</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:D45" si="6">C27</f>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28" si="6">C27</f>
         <v>6</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>Term 6 Mechatronics Trainees</v>
+        <v>Term 6 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>(152, 'BUS', 'A', 6,'Term 6 Mechatronics Trainees'),</v>
+        <v>(152,'WELD-6A','A',6,'Term 6 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
         <v>153</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4">
+      <c r="C29" s="4"/>
+      <c r="D29" s="3">
         <f t="shared" ref="D29" si="7">C27</f>
         <v>6</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Term 6 Mechatronics Trainees</v>
+        <v>Term 6 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>(153, 'BUS', 'A', 6,'Term 6 Mechatronics Trainees'),</v>
+        <v>(153,'WELD-6A','A',6,'Term 6 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30">
         <v>154</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>7</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" ref="D30" si="8">C30</f>
         <v>7</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Term 7 Mechatronics Trainees</v>
+        <v>Term 7 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>(154, 'BUS', 'B', 7,'Term 7 Mechatronics Trainees'),</v>
+        <v>(154,'WELD-7B','B',7,'Term 7 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31">
         <v>155</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4">
-        <f t="shared" ref="D31:D45" si="9">C30</f>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31" si="9">C30</f>
         <v>7</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>Term 7 Mechatronics Trainees</v>
+        <v>Term 7 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>(155, 'BUS', 'C', 7,'Term 7 Mechatronics Trainees'),</v>
+        <v>(155,'WELD-7C','C',7,'Term 7 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
         <v>156</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4">
+      <c r="C32" s="4"/>
+      <c r="D32" s="3">
         <f t="shared" ref="D32" si="10">C30</f>
         <v>7</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>Term 7 Mechatronics Trainees</v>
+        <v>Term 7 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>(156, 'BUS', 'A', 7,'Term 7 Mechatronics Trainees'),</v>
+        <v>(156,'WELD-7A','A',7,'Term 7 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
         <v>157</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>8</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f t="shared" ref="D33" si="11">C33</f>
         <v>8</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>Term 8 Mechatronics Trainees</v>
+        <v>Term 8 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>(157, 'BUS', 'B', 8,'Term 8 Mechatronics Trainees'),</v>
+        <v>(157,'WELD-8B','B',8,'Term 8 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34">
         <v>158</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4">
-        <f t="shared" ref="D34:D45" si="12">C33</f>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34" si="12">C33</f>
         <v>8</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Term 8 Mechatronics Trainees</v>
+        <v>Term 8 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>(158, 'BUS', 'C', 8,'Term 8 Mechatronics Trainees'),</v>
+        <v>(158,'WELD-8C','C',8,'Term 8 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
         <v>159</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4">
+      <c r="C35" s="4"/>
+      <c r="D35" s="3">
         <f t="shared" ref="D35" si="13">C33</f>
         <v>8</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>Term 8 Mechatronics Trainees</v>
+        <v>Term 8 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>(159, 'BUS', 'A', 8,'Term 8 Mechatronics Trainees'),</v>
+        <v>(159,'WELD-8A','A',8,'Term 8 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
         <v>160</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>9</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <f t="shared" ref="D36" si="14">C36</f>
         <v>9</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>Term 9 Mechatronics Trainees</v>
+        <v>Term 9 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>(160, 'BUS', 'A', 9,'Term 9 Mechatronics Trainees'),</v>
+        <v>(160,'WELD-9A','A',9,'Term 9 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37">
         <v>161</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4">
-        <f t="shared" ref="D37:D45" si="15">C36</f>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37" si="15">C36</f>
         <v>9</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>333</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>Term 9 Mechatronics Trainees</v>
+        <v>Term 9 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>(161, 'BUS', 'B', 9,'Term 9 Mechatronics Trainees'),</v>
+        <v>(161,'WELD-9B','B',9,'Term 9 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
         <v>162</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4">
+      <c r="C38" s="4"/>
+      <c r="D38" s="3">
         <f t="shared" ref="D38" si="16">C36</f>
         <v>9</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>334</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>Term 9 Mechatronics Trainees</v>
+        <v>Term 9 Welding &amp; Fabrication Trainees</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>(162, 'BUS', 'C', 9,'Term 9 Mechatronics Trainees'),</v>
+        <v>(162,'WELD-9C','C',9,'Term 9 Welding &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="D43">
-        <f t="shared" ref="D43:D45" si="17">C42</f>
+        <f t="shared" ref="D43" si="17">C42</f>
         <v>0</v>
       </c>
       <c r="E43" t="s">
@@ -8348,7 +8359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F66"/>
     </sheetView>
   </sheetViews>

--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="461">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -1037,12 +1037,6 @@
     <t>INSERT INTO `trainee_group` (`id`, `name`, `section`, `level`, `remarks`) VALUES</t>
   </si>
   <si>
-    <t>(1, 'Electronics', 'A', 1, NULL),</t>
-  </si>
-  <si>
-    <t>(2, 'Mechtronics', 'A', 1, NULL),</t>
-  </si>
-  <si>
     <t>Basic Electricity and System</t>
   </si>
   <si>
@@ -1412,7 +1406,10 @@
     <t>WELD</t>
   </si>
   <si>
-    <t>Welding &amp; Fabrication</t>
+    <t>INSERT INTO `instructor` (`id`, `id_number`, `first_name`, `last_name`, `note`) VALUES</t>
+  </si>
+  <si>
+    <t>Weldin &amp; Fabrication</t>
   </si>
 </sst>
 </file>
@@ -1907,13 +1904,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3015,7 +3015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6294,10 +6294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F69"/>
+  <dimension ref="B3:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6307,32 +6307,35 @@
     <col min="6" max="6" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="2:6">
       <c r="C3" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="2:6">
       <c r="C4" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="2:6">
       <c r="C5" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="2:6">
       <c r="C6" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="2:6">
       <c r="C7" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>248</v>
       </c>
@@ -6346,10 +6349,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>100</v>
-      </c>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>231</v>
       </c>
@@ -6364,13 +6364,10 @@
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE("(",A9,", ","'",B9,"', '",C9,"', ",E9,", '",D9," - Instructor'),")</f>
-        <v>(100, 'Abdulaziz', 'Abid Galm Al Hinai', 2017001, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>101</v>
-      </c>
+        <v>(, 'Abdulaziz', 'Abid Galm Al Hinai', 2017001, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>231</v>
       </c>
@@ -6385,13 +6382,10 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ref="F10:F69" si="0">CONCATENATE("(",A10,", ","'",B10,"', '",C10,"', ",E10,", '",D10," - Instructor'),")</f>
-        <v>(101, 'Abdulaziz', 'Jumah Al Shamaki', 2017002, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>102</v>
-      </c>
+        <v>(, 'Abdulaziz', 'Jumah Al Shamaki', 2017002, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>230</v>
       </c>
@@ -6406,13 +6400,10 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>(102, 'Abdullah', 'Maher.Abdullah', 2017003, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>103</v>
-      </c>
+        <v>(, 'Abdullah', 'Maher.Abdullah', 2017003, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>207</v>
       </c>
@@ -6427,13 +6418,10 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>(103, 'Abdurahiman', 'Puthan', 2017004, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>104</v>
-      </c>
+        <v>(, 'Abdurahiman', 'Puthan', 2017004, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>198</v>
       </c>
@@ -6448,13 +6436,10 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>(104, 'Ahmed', 'Mahsob', 2017005, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>105</v>
-      </c>
+        <v>(, 'Ahmed', 'Mahsob', 2017005, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>198</v>
       </c>
@@ -6469,13 +6454,10 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>(105, 'Ahmed', 'AL-Maqbali', 2017006, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>106</v>
-      </c>
+        <v>(, 'Ahmed', 'AL-Maqbali', 2017006, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>206</v>
       </c>
@@ -6490,13 +6472,10 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>(106, 'Ali', 'Mohammed Ali Salih', 2017007, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>107</v>
-      </c>
+        <v>(, 'Ali', 'Mohammed Ali Salih', 2017007, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>232</v>
       </c>
@@ -6511,13 +6490,10 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>(107, 'Ammar', 'Bin Mosbah', 2017008, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>108</v>
-      </c>
+        <v>(, 'Ammar', 'Bin Mosbah', 2017008, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>220</v>
       </c>
@@ -6532,13 +6508,10 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>(108, 'antonio', 'Buca', 2017009, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>109</v>
-      </c>
+        <v>(, 'antonio', 'Buca', 2017009, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>210</v>
       </c>
@@ -6553,13 +6526,10 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>(109, 'Aref', 'Al ajmi', 2017010, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>110</v>
-      </c>
+        <v>(, 'Aref', 'Al ajmi', 2017010, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>202</v>
       </c>
@@ -6574,13 +6544,10 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>(110, 'Asma', 'AL-', 2017011, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>111</v>
-      </c>
+        <v>(, 'Asma', 'AL-', 2017011, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>202</v>
       </c>
@@ -6595,13 +6562,10 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>(111, 'Asma', 'Al Farsi', 2017012, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>112</v>
-      </c>
+        <v>(, 'Asma', 'Al Farsi', 2017012, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>221</v>
       </c>
@@ -6616,13 +6580,10 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>(112, 'Ayeesha', 'Yasmin', 2017013, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>113</v>
-      </c>
+        <v>(, 'Ayeesha', 'Yasmin', 2017013, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>218</v>
       </c>
@@ -6637,13 +6598,10 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>(113, 'Ayoub', 'Al Oufi', 2017014, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>114</v>
-      </c>
+        <v>(, 'Ayoub', 'Al Oufi', 2017014, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>219</v>
       </c>
@@ -6658,13 +6616,10 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>(114, 'Bilal', 'Al Arqenah', 2017015, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>115</v>
-      </c>
+        <v>(, 'Bilal', 'Al Arqenah', 2017015, 'PHY - Instructor'),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>193</v>
       </c>
@@ -6679,13 +6634,10 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>(115, 'Carlo', 'Romion', 2017016, 'PE - Instructor'),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>116</v>
-      </c>
+        <v>(, 'Carlo', 'Romion', 2017016, 'PE - Instructor'),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>223</v>
       </c>
@@ -6700,13 +6652,10 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>(116, 'Conrado', 'Torres', 2017017, 'ELX - Instructor'),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>117</v>
-      </c>
+        <v>(, 'Conrado', 'Torres', 2017017, 'ELX - Instructor'),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>213</v>
       </c>
@@ -6721,13 +6670,10 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>(117, 'Ericson', 'Billedo', 2017018, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>118</v>
-      </c>
+        <v>(, 'Ericson', 'Billedo', 2017018, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>227</v>
       </c>
@@ -6742,13 +6688,10 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>(118, 'Euclid', 'Santiago', 2017019, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>119</v>
-      </c>
+        <v>(, 'Euclid', 'Santiago', 2017019, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>224</v>
       </c>
@@ -6763,13 +6706,10 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>(119, 'Eulogio', 'Oderon', 2017020, 'ELX - Instructor'),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>120</v>
-      </c>
+        <v>(, 'Eulogio', 'Oderon', 2017020, 'ELX - Instructor'),</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>208</v>
       </c>
@@ -6784,13 +6724,10 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>(120, 'Fatma', 'AL-Blushi', 2017021, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>121</v>
-      </c>
+        <v>(, 'Fatma', 'AL-Blushi', 2017021, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -6805,13 +6742,10 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>(121, 'Fatma', 'Al Balushi', 2017022, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>122</v>
-      </c>
+        <v>(, 'Fatma', 'Al Balushi', 2017022, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -6826,13 +6760,10 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>(122, 'Ghalib', 'Al Amri', 2017023, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>123</v>
-      </c>
+        <v>(, 'Ghalib', 'Al Amri', 2017023, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
         <v>229</v>
       </c>
@@ -6847,13 +6778,10 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>(123, 'Hermogenes', 'Baculo', 2017024, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>124</v>
-      </c>
+        <v>(, 'Hermogenes', 'Baculo', 2017024, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>225</v>
       </c>
@@ -6868,13 +6796,10 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>(124, 'Ibrahim', 'Saif Said Al Mawaali', 2017025, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>125</v>
-      </c>
+        <v>(, 'Ibrahim', 'Saif Said Al Mawaali', 2017025, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>226</v>
       </c>
@@ -6889,13 +6814,10 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>(125, 'Ignatius', 'Rodrigues', 2017026, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>126</v>
-      </c>
+        <v>(, 'Ignatius', 'Rodrigues', 2017026, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>216</v>
       </c>
@@ -6910,13 +6832,10 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>(126, 'Jaffar', 'Al. Bahrani', 2017027, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>127</v>
-      </c>
+        <v>(, 'Jaffar', 'Al. Bahrani', 2017027, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>240</v>
       </c>
@@ -6931,13 +6850,10 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>(127, 'Jenier', 'Galarpe', 2017028, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>128</v>
-      </c>
+        <v>(, 'Jenier', 'Galarpe', 2017028, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>201</v>
       </c>
@@ -6952,13 +6868,10 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>(128, 'Julie', 'Mathew Senil', 2017029, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>129</v>
-      </c>
+        <v>(, 'Julie', 'Mathew Senil', 2017029, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>238</v>
       </c>
@@ -6973,13 +6886,10 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>(129, 'Juluis', 'Dabon', 2017030, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>130</v>
-      </c>
+        <v>(, 'Juluis', 'Dabon', 2017030, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>194</v>
       </c>
@@ -6994,13 +6904,10 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>(130, 'Kannan', 'subash chandra bose', 2017031, 'DRW - Instructor'),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>131</v>
-      </c>
+        <v>(, 'Kannan', 'subash chandra bose', 2017031, 'DRW - Instructor'),</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>228</v>
       </c>
@@ -7015,13 +6922,10 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>(131, 'Karunadas', 'Parakunnath', 2017032, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>132</v>
-      </c>
+        <v>(, 'Karunadas', 'Parakunnath', 2017032, 'ELC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>235</v>
       </c>
@@ -7036,13 +6940,10 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>(132, 'Macario', 'Barredo', 2017033, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>133</v>
-      </c>
+        <v>(, 'Macario', 'Barredo', 2017033, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
         <v>205</v>
       </c>
@@ -7057,13 +6958,10 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>(133, 'Mansoor', 'Al Balushi', 2017034, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>134</v>
-      </c>
+        <v>(, 'Mansoor', 'Al Balushi', 2017034, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>203</v>
       </c>
@@ -7078,13 +6976,10 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>(134, 'Marwan', 'ahmed. Almamari', 2017035, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>135</v>
-      </c>
+        <v>(, 'Marwan', 'ahmed. Almamari', 2017035, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" t="s">
         <v>209</v>
       </c>
@@ -7099,13 +6994,10 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>(135, 'Maryam', 'AL-Mamary', 2017036, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>136</v>
-      </c>
+        <v>(, 'Maryam', 'AL-Mamary', 2017036, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>197</v>
       </c>
@@ -7120,13 +7012,10 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>(136, 'Mohammed', 'Mahmoud Saliem', 2017037, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>137</v>
-      </c>
+        <v>(, 'Mohammed', 'Mahmoud Saliem', 2017037, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
         <v>197</v>
       </c>
@@ -7141,13 +7030,10 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>(137, 'Mohammed', 'Nasser Abdullah Al Balushi', 2017038, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>138</v>
-      </c>
+        <v>(, 'Mohammed', 'Nasser Abdullah Al Balushi', 2017038, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>197</v>
       </c>
@@ -7162,13 +7048,10 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>(138, 'Mohammed', 'Al-BAlushi', 2017039, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>139</v>
-      </c>
+        <v>(, 'Mohammed', 'Al-BAlushi', 2017039, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
         <v>197</v>
       </c>
@@ -7183,13 +7066,10 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>(139, 'Mohammed', 'Nabbhan Al Nabbhani', 2017040, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>140</v>
-      </c>
+        <v>(, 'Mohammed', 'Nabbhan Al Nabbhani', 2017040, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>197</v>
       </c>
@@ -7204,13 +7084,10 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>(140, 'Mohammed', 'ALNabhani', 2017041, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>141</v>
-      </c>
+        <v>(, 'Mohammed', 'ALNabhani', 2017041, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>197</v>
       </c>
@@ -7225,13 +7102,10 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>(141, 'Mohammed', 'Vaziruddin', 2017042, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>142</v>
-      </c>
+        <v>(, 'Mohammed', 'Vaziruddin', 2017042, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
         <v>236</v>
       </c>
@@ -7246,13 +7120,10 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>(142, 'mohammed', 'al-basyuni al-said al qal youbi', 2017043, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>143</v>
-      </c>
+        <v>(, 'mohammed', 'al-basyuni al-said al qal youbi', 2017043, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>197</v>
       </c>
@@ -7267,13 +7138,10 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>(143, 'Mohammed', 'Ramdan Salim', 2017044, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>144</v>
-      </c>
+        <v>(, 'Mohammed', 'Ramdan Salim', 2017044, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>195</v>
       </c>
@@ -7288,13 +7156,10 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>(144, 'Mustafa', 'Metwally', 2017045, 'DRW - Instructor'),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>145</v>
-      </c>
+        <v>(, 'Mustafa', 'Metwally', 2017045, 'DRW - Instructor'),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
         <v>217</v>
       </c>
@@ -7309,13 +7174,10 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>(145, 'NAGAPAVAN', '.N', 2017046, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>146</v>
-      </c>
+        <v>(, 'NAGAPAVAN', '.N', 2017046, 'MATH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
         <v>234</v>
       </c>
@@ -7330,13 +7192,10 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>(146, 'Nasir', 'Al Hinai', 2017047, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>147</v>
-      </c>
+        <v>(, 'Nasir', 'Al Hinai', 2017047, 'MECH - Instructor'),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
         <v>239</v>
       </c>
@@ -7351,13 +7210,10 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>(147, 'Norman', 'De Ocampo', 2017048, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>148</v>
-      </c>
+        <v>(, 'Norman', 'De Ocampo', 2017048, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>237</v>
       </c>
@@ -7372,13 +7228,10 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>(148, 'Osamah', 'Mohammad Ahmmad Al-Shobaki', 2017049, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>149</v>
-      </c>
+        <v>(, 'Osamah', 'Mohammad Ahmmad Al-Shobaki', 2017049, 'RAC - Instructor'),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" t="s">
         <v>199</v>
       </c>
@@ -7393,13 +7246,10 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>(149, 'Rajesh', 'Chaladath', 2017050, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>150</v>
-      </c>
+        <v>(, 'Rajesh', 'Chaladath', 2017050, 'BUS - Instructor'),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>192</v>
       </c>
@@ -7414,13 +7264,10 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>(150, 'Regina', 'Formaran', 2017051, 'PE - Instructor'),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>151</v>
-      </c>
+        <v>(, 'Regina', 'Formaran', 2017051, 'PE - Instructor'),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>196</v>
       </c>
@@ -7435,13 +7282,10 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>(151, 'Rojesb', 'Chaladatb', 2017052, 'DRW - Instructor'),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>152</v>
-      </c>
+        <v>(, 'Rojesb', 'Chaladatb', 2017052, 'DRW - Instructor'),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" t="s">
         <v>241</v>
       </c>
@@ -7456,13 +7300,10 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>(152, 'Rommel', 'A. Rosales', 2017053, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>153</v>
-      </c>
+        <v>(, 'Rommel', 'A. Rosales', 2017053, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" t="s">
         <v>211</v>
       </c>
@@ -7477,13 +7318,10 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>(153, 'Sajith', 'Bandara', 2017054, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>154</v>
-      </c>
+        <v>(, 'Sajith', 'Bandara', 2017054, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" t="s">
         <v>214</v>
       </c>
@@ -7498,13 +7336,10 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>(154, 'Sheikha', 'Ali Said Al-Badi', 2017055, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>155</v>
-      </c>
+        <v>(, 'Sheikha', 'Ali Said Al-Badi', 2017055, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" t="s">
         <v>204</v>
       </c>
@@ -7519,13 +7354,10 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>(155, 'Silpa', 'Sarah Abraham', 2017056, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>156</v>
-      </c>
+        <v>(, 'Silpa', 'Sarah Abraham', 2017056, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" t="s">
         <v>242</v>
       </c>
@@ -7540,13 +7372,10 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>(156, 'Taoufik', 'Ouelhazi', 2017057, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>157</v>
-      </c>
+        <v>(, 'Taoufik', 'Ouelhazi', 2017057, 'WEL - Instructor'),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
         <v>215</v>
       </c>
@@ -7561,13 +7390,10 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>(157, 'Vara', 'Prasad Reddy Subbi Reddy', 2017058, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>158</v>
-      </c>
+        <v>(, 'Vara', 'Prasad Reddy Subbi Reddy', 2017058, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
         <v>212</v>
       </c>
@@ -7582,13 +7408,10 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>(158, 'Vijaya', 'kumar', 2017059, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>159</v>
-      </c>
+        <v>(, 'Vijaya', 'kumar', 2017059, 'IT - Instructor'),</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" t="s">
         <v>200</v>
       </c>
@@ -7603,13 +7426,10 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="0"/>
-        <v>(159, 'vinay', 'kumar', 2017060, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>160</v>
-      </c>
+        <v>(, 'vinay', 'kumar', 2017060, 'ENG - Instructor'),</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
         <v>222</v>
       </c>
@@ -7624,7 +7444,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="0"/>
-        <v>(160, 'William', 'Caniedo', 2017061, 'ELX - Instructor'),</v>
+        <v>(, 'William', 'Caniedo', 2017061, 'ELX - Instructor'),</v>
       </c>
     </row>
   </sheetData>
@@ -7632,6 +7452,7 @@
     <sortCondition ref="B8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7639,8 +7460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7693,9 +7514,7 @@
       <c r="D7" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" t="s">
@@ -7704,9 +7523,7 @@
       <c r="D8" t="s">
         <v>331</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" t="s">
@@ -7718,19 +7535,19 @@
     </row>
     <row r="10" spans="2:7">
       <c r="F10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="F11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
         <v>136</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -7742,18 +7559,18 @@
       </c>
       <c r="F12" t="str">
         <f>CONCATENATE("Term ",D12," ",$F$11, " Trainees")</f>
-        <v>Term 1 Welding &amp; Fabrication Trainees</v>
+        <v>Term 1 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G12" t="str">
         <f>CONCATENATE("(",B12,",","'",$F$10,"-",D12,E12,"','",E12,"',",D12,",","'",F12,"'),")</f>
-        <v>(136,'WELD-1A','A',1,'Term 1 Welding &amp; Fabrication Trainees'),</v>
+        <v>(136,'WELD-1A','A',1,'Term 1 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
         <v>137</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3">
         <f>C12</f>
         <v>1</v>
@@ -7763,18 +7580,18 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ref="F13:F38" si="0">CONCATENATE("Term ",D13," ",$F$11, " Trainees")</f>
-        <v>Term 1 Welding &amp; Fabrication Trainees</v>
+        <v>Term 1 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G38" si="1">CONCATENATE("(",B13,",","'",$F$10,"-",D13,E13,"','",E13,"',",D13,",","'",F13,"'),")</f>
-        <v>(137,'WELD-1B','B',1,'Term 1 Welding &amp; Fabrication Trainees'),</v>
+        <v>(137,'WELD-1B','B',1,'Term 1 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
         <v>138</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3">
         <f>C12</f>
         <v>1</v>
@@ -7784,531 +7601,531 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Term 1 Welding &amp; Fabrication Trainees</v>
+        <v>Term 1 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>(138,'WELD-1C','C',1,'Term 1 Welding &amp; Fabrication Trainees'),</v>
+        <v>(138,'WELD-1C','C',1,'Term 1 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
         <v>139</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="3">
         <f>C15</f>
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Term 2 Welding &amp; Fabrication Trainees</v>
+        <v>Term 2 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>(139,'WELD-2A','A',2,'Term 2 Welding &amp; Fabrication Trainees'),</v>
+        <v>(139,'WELD-2A','A',2,'Term 2 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
         <v>140</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3">
         <f>C15</f>
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>333</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Term 2 Welding &amp; Fabrication Trainees</v>
+        <v>Term 2 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>(140,'WELD-2B','B',2,'Term 2 Welding &amp; Fabrication Trainees'),</v>
+        <v>(140,'WELD-2B','B',2,'Term 2 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
         <v>141</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3">
         <f>C15</f>
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>334</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Term 2 Welding &amp; Fabrication Trainees</v>
+        <v>Term 2 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>(141,'WELD-2C','C',2,'Term 2 Welding &amp; Fabrication Trainees'),</v>
+        <v>(141,'WELD-2C','C',2,'Term 2 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
         <v>142</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="3">
         <f>C18</f>
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Term 3 Welding &amp; Fabrication Trainees</v>
+        <v>Term 3 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>(142,'WELD-3A','A',3,'Term 3 Welding &amp; Fabrication Trainees'),</v>
+        <v>(142,'WELD-3A','A',3,'Term 3 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19">
         <v>143</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3">
         <f>C18</f>
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>333</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Term 3 Welding &amp; Fabrication Trainees</v>
+        <v>Term 3 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>(143,'WELD-3B','B',3,'Term 3 Welding &amp; Fabrication Trainees'),</v>
+        <v>(143,'WELD-3B','B',3,'Term 3 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
         <v>144</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="3">
         <f>C18</f>
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>334</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Term 3 Welding &amp; Fabrication Trainees</v>
+        <v>Term 3 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>(144,'WELD-3C','C',3,'Term 3 Welding &amp; Fabrication Trainees'),</v>
+        <v>(144,'WELD-3C','C',3,'Term 3 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21">
         <v>145</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="3">
         <f>C21</f>
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Term 4 Welding &amp; Fabrication Trainees</v>
+        <v>Term 4 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>(145,'WELD-4A','A',4,'Term 4 Welding &amp; Fabrication Trainees'),</v>
+        <v>(145,'WELD-4A','A',4,'Term 4 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
         <v>146</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3">
         <f>C21</f>
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>332</v>
+      <c r="E22" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Term 4 Welding &amp; Fabrication Trainees</v>
+        <v>Term 4 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>(146,'WELD-4A','A',4,'Term 4 Welding &amp; Fabrication Trainees'),</v>
+        <v>(146,'WELD-4B','B',4,'Term 4 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
         <v>147</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3">
         <f>C21</f>
         <v>4</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>333</v>
+      <c r="E23" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Term 4 Welding &amp; Fabrication Trainees</v>
+        <v>Term 4 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>(147,'WELD-4B','B',4,'Term 4 Welding &amp; Fabrication Trainees'),</v>
+        <v>(147,'WELD-4C','C',4,'Term 4 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
         <v>148</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>5</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ref="D24" si="2">C24</f>
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>334</v>
+      <c r="E24" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Term 5 Welding &amp; Fabrication Trainees</v>
+        <v>Term 5 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>(148,'WELD-5C','C',5,'Term 5 Welding &amp; Fabrication Trainees'),</v>
+        <v>(148,'WELD-5A','A',5,'Term 5 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
         <v>149</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3">
         <f t="shared" ref="D25" si="3">C24</f>
         <v>5</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>332</v>
+      <c r="E25" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Term 5 Welding &amp; Fabrication Trainees</v>
+        <v>Term 5 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>(149,'WELD-5A','A',5,'Term 5 Welding &amp; Fabrication Trainees'),</v>
+        <v>(149,'WELD-5B','B',5,'Term 5 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
         <v>150</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3">
         <f t="shared" ref="D26" si="4">C24</f>
         <v>5</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>333</v>
+      <c r="E26" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Term 5 Welding &amp; Fabrication Trainees</v>
+        <v>Term 5 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>(150,'WELD-5B','B',5,'Term 5 Welding &amp; Fabrication Trainees'),</v>
+        <v>(150,'WELD-5C','C',5,'Term 5 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27">
         <v>151</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27" si="5">C27</f>
         <v>6</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>334</v>
+      <c r="E27" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Term 6 Welding &amp; Fabrication Trainees</v>
+        <v>Term 6 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>(151,'WELD-6C','C',6,'Term 6 Welding &amp; Fabrication Trainees'),</v>
+        <v>(151,'WELD-6A','A',6,'Term 6 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28">
         <v>152</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="3">
         <f t="shared" ref="D28" si="6">C27</f>
         <v>6</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>332</v>
+      <c r="E28" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>Term 6 Welding &amp; Fabrication Trainees</v>
+        <v>Term 6 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>(152,'WELD-6A','A',6,'Term 6 Welding &amp; Fabrication Trainees'),</v>
+        <v>(152,'WELD-6B','B',6,'Term 6 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
         <v>153</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="3">
         <f t="shared" ref="D29" si="7">C27</f>
         <v>6</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>332</v>
+      <c r="E29" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Term 6 Welding &amp; Fabrication Trainees</v>
+        <v>Term 6 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>(153,'WELD-6A','A',6,'Term 6 Welding &amp; Fabrication Trainees'),</v>
+        <v>(153,'WELD-6C','C',6,'Term 6 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30">
         <v>154</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>7</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ref="D30" si="8">C30</f>
         <v>7</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>333</v>
+      <c r="E30" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Term 7 Welding &amp; Fabrication Trainees</v>
+        <v>Term 7 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>(154,'WELD-7B','B',7,'Term 7 Welding &amp; Fabrication Trainees'),</v>
+        <v>(154,'WELD-7A','A',7,'Term 7 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31">
         <v>155</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="3">
         <f t="shared" ref="D31" si="9">C30</f>
         <v>7</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>334</v>
+      <c r="E31" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>Term 7 Welding &amp; Fabrication Trainees</v>
+        <v>Term 7 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>(155,'WELD-7C','C',7,'Term 7 Welding &amp; Fabrication Trainees'),</v>
+        <v>(155,'WELD-7B','B',7,'Term 7 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
         <v>156</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="3">
         <f t="shared" ref="D32" si="10">C30</f>
         <v>7</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>332</v>
+      <c r="E32" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>Term 7 Welding &amp; Fabrication Trainees</v>
+        <v>Term 7 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>(156,'WELD-7A','A',7,'Term 7 Welding &amp; Fabrication Trainees'),</v>
+        <v>(156,'WELD-7C','C',7,'Term 7 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
         <v>157</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>8</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ref="D33" si="11">C33</f>
         <v>8</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>333</v>
+      <c r="E33" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>Term 8 Welding &amp; Fabrication Trainees</v>
+        <v>Term 8 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>(157,'WELD-8B','B',8,'Term 8 Welding &amp; Fabrication Trainees'),</v>
+        <v>(157,'WELD-8A','A',8,'Term 8 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34">
         <v>158</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3">
         <f t="shared" ref="D34" si="12">C33</f>
         <v>8</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>334</v>
+      <c r="E34" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Term 8 Welding &amp; Fabrication Trainees</v>
+        <v>Term 8 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>(158,'WELD-8C','C',8,'Term 8 Welding &amp; Fabrication Trainees'),</v>
+        <v>(158,'WELD-8B','B',8,'Term 8 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
         <v>159</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="3">
         <f t="shared" ref="D35" si="13">C33</f>
         <v>8</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>332</v>
+      <c r="E35" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>Term 8 Welding &amp; Fabrication Trainees</v>
+        <v>Term 8 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>(159,'WELD-8A','A',8,'Term 8 Welding &amp; Fabrication Trainees'),</v>
+        <v>(159,'WELD-8C','C',8,'Term 8 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
         <v>160</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>9</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ref="D36" si="14">C36</f>
         <v>9</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>Term 9 Welding &amp; Fabrication Trainees</v>
+        <v>Term 9 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>(160,'WELD-9A','A',9,'Term 9 Welding &amp; Fabrication Trainees'),</v>
+        <v>(160,'WELD-9A','A',9,'Term 9 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37">
         <v>161</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="3">
         <f t="shared" ref="D37" si="15">C36</f>
         <v>9</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>333</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>Term 9 Welding &amp; Fabrication Trainees</v>
+        <v>Term 9 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>(161,'WELD-9B','B',9,'Term 9 Welding &amp; Fabrication Trainees'),</v>
+        <v>(161,'WELD-9B','B',9,'Term 9 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
         <v>162</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="3">
         <f t="shared" ref="D38" si="16">C36</f>
         <v>9</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>334</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>Term 9 Welding &amp; Fabrication Trainees</v>
+        <v>Term 9 Weldin &amp; Fabrication Trainees</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>(162,'WELD-9C','C',9,'Term 9 Welding &amp; Fabrication Trainees'),</v>
+        <v>(162,'WELD-9C','C',9,'Term 9 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -8359,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F66"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8373,12 +8190,12 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="D1" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="D2" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8386,13 +8203,13 @@
     </row>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -8400,10 +8217,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -8418,10 +8235,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -8436,10 +8253,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -8454,10 +8271,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -8472,10 +8289,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -8490,10 +8307,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -8508,10 +8325,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -8526,10 +8343,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -8544,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -8562,10 +8379,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -8580,10 +8397,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -8598,10 +8415,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -8616,10 +8433,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -8634,10 +8451,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -8652,10 +8469,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -8670,10 +8487,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -8688,10 +8505,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -8706,10 +8523,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -8724,10 +8541,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -8742,10 +8559,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -8760,10 +8577,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -8778,10 +8595,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -8796,10 +8613,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8814,10 +8631,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8832,10 +8649,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -8850,10 +8667,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8868,10 +8685,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -8886,10 +8703,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -8904,10 +8721,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8922,10 +8739,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8940,10 +8757,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -8958,10 +8775,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -8976,10 +8793,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -8994,10 +8811,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -9012,10 +8829,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -9030,10 +8847,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -9048,10 +8865,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -9066,10 +8883,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9084,10 +8901,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9102,10 +8919,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D44" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -9120,10 +8937,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -9138,10 +8955,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9156,10 +8973,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -9174,10 +8991,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -9192,10 +9009,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -9210,10 +9027,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -9228,10 +9045,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -9246,10 +9063,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D52" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -9264,10 +9081,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -9282,10 +9099,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -9300,10 +9117,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D55" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -9318,10 +9135,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -9336,10 +9153,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -9354,10 +9171,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D58" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -9372,10 +9189,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -9390,10 +9207,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D60" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -9408,10 +9225,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -9426,10 +9243,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -9444,10 +9261,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E63">
         <v>8</v>
@@ -9462,10 +9279,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -9480,10 +9297,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D65" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E65">
         <v>12</v>
@@ -9498,10 +9315,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E66">
         <v>9</v>

--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="466">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -1410,6 +1410,21 @@
   </si>
   <si>
     <t>Weldin &amp; Fabrication</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>(1, 2017001, 'Abdulaziz', 'Abid Galm Al Hinai', 'ELC - Instructor'),</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -6294,1162 +6309,1369 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F69"/>
+  <dimension ref="A3:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="D3" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="C6" s="1" t="s">
+      <c r="F5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="D7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>263</v>
       </c>
-      <c r="E8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2017001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ref="F9:F70" si="0">CONCATENATE("(",A9,",",B9,",'",C9,"','",D9,"','",E9," Study Break'),")</f>
+        <v>(1,2017001,'Study','Break','BRK Study Break'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2017002</v>
+      </c>
+      <c r="C10" t="s">
         <v>231</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>309</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>259</v>
       </c>
-      <c r="E9">
-        <v>2017001</v>
-      </c>
-      <c r="F9" t="str">
-        <f>CONCATENATE("(",A9,", ","'",B9,"', '",C9,"', ",E9,", '",D9," - Instructor'),")</f>
-        <v>(, 'Abdulaziz', 'Abid Galm Al Hinai', 2017001, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,2017002,'Abdulaziz','Abid Galm Al Hinai','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2017003</v>
+      </c>
+      <c r="C11" t="s">
         <v>231</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>315</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>261</v>
       </c>
-      <c r="E10">
-        <v>2017002</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" ref="F10:F69" si="0">CONCATENATE("(",A10,", ","'",B10,"', '",C10,"', ",E10,", '",D10," - Instructor'),")</f>
-        <v>(, 'Abdulaziz', 'Jumah Al Shamaki', 2017002, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,2017003,'Abdulaziz','Jumah Al Shamaki','RAC Study Break'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2017004</v>
+      </c>
+      <c r="C12" t="s">
         <v>230</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>308</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>259</v>
       </c>
-      <c r="E11">
-        <v>2017003</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Abdullah', 'Maher.Abdullah', 2017003, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,2017004,'Abdullah','Maher.Abdullah','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2017005</v>
+      </c>
+      <c r="C13" t="s">
         <v>207</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>283</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>254</v>
       </c>
-      <c r="E12">
-        <v>2017004</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Abdurahiman', 'Puthan', 2017004, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,2017005,'Abdurahiman','Puthan','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2017006</v>
+      </c>
+      <c r="C14" t="s">
         <v>198</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>270</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>253</v>
       </c>
-      <c r="E13">
-        <v>2017005</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ahmed', 'Mahsob', 2017005, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,2017006,'Ahmed','Mahsob','BUS Study Break'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2017007</v>
+      </c>
+      <c r="C15" t="s">
         <v>198</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>284</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>254</v>
       </c>
-      <c r="E14">
-        <v>2017006</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ahmed', 'AL-Maqbali', 2017006, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,2017007,'Ahmed','AL-Maqbali','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2017008</v>
+      </c>
+      <c r="C16" t="s">
         <v>206</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>282</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>254</v>
       </c>
-      <c r="E15">
-        <v>2017007</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ali', 'Mohammed Ali Salih', 2017007, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,2017008,'Ali','Mohammed Ali Salih','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2017009</v>
+      </c>
+      <c r="C17" t="s">
         <v>232</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>310</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>260</v>
       </c>
-      <c r="E16">
-        <v>2017008</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ammar', 'Bin Mosbah', 2017008, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,2017009,'Ammar','Bin Mosbah','MECH Study Break'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2017010</v>
+      </c>
+      <c r="C18" t="s">
         <v>220</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>298</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>257</v>
       </c>
-      <c r="E17">
-        <v>2017009</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'antonio', 'Buca', 2017009, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,2017010,'antonio','Buca','PHY Study Break'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>2017011</v>
+      </c>
+      <c r="C19" t="s">
         <v>210</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>287</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>254</v>
       </c>
-      <c r="E18">
-        <v>2017010</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Aref', 'Al ajmi', 2017010, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,2017011,'Aref','Al ajmi','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>2017012</v>
+      </c>
+      <c r="C20" t="s">
         <v>202</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>276</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>254</v>
       </c>
-      <c r="E19">
-        <v>2017011</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Asma', 'AL-', 2017011, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,2017012,'Asma','AL-','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2017013</v>
+      </c>
+      <c r="C21" t="s">
         <v>202</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>296</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="E20">
-        <v>2017012</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Asma', 'Al Farsi', 2017012, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,2017013,'Asma','Al Farsi','PHY Study Break'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>2017014</v>
+      </c>
+      <c r="C22" t="s">
         <v>221</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>299</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>257</v>
       </c>
-      <c r="E21">
-        <v>2017013</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ayeesha', 'Yasmin', 2017013, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,2017014,'Ayeesha','Yasmin','PHY Study Break'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>2017015</v>
+      </c>
+      <c r="C23" t="s">
         <v>218</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>295</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>256</v>
       </c>
-      <c r="E22">
-        <v>2017014</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ayoub', 'Al Oufi', 2017014, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,2017015,'Ayoub','Al Oufi','MATH Study Break'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>2017016</v>
+      </c>
+      <c r="C24" t="s">
         <v>219</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>297</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" t="s">
         <v>257</v>
       </c>
-      <c r="E23">
-        <v>2017015</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Bilal', 'Al Arqenah', 2017015, 'PHY - Instructor'),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,2017016,'Bilal','Al Arqenah','PHY Study Break'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>2017017</v>
+      </c>
+      <c r="C25" t="s">
         <v>193</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>265</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E25" t="s">
         <v>251</v>
       </c>
-      <c r="E24">
-        <v>2017016</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Carlo', 'Romion', 2017016, 'PE - Instructor'),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,2017017,'Carlo','Romion','PE Study Break'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>2017018</v>
+      </c>
+      <c r="C26" t="s">
         <v>223</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
         <v>301</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E26" t="s">
         <v>258</v>
       </c>
-      <c r="E25">
-        <v>2017017</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Conrado', 'Torres', 2017017, 'ELX - Instructor'),</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,2017018,'Conrado','Torres','ELX Study Break'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>2017019</v>
+      </c>
+      <c r="C27" t="s">
         <v>213</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>289</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E27" t="s">
         <v>255</v>
       </c>
-      <c r="E26">
-        <v>2017018</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ericson', 'Billedo', 2017018, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,2017019,'Ericson','Billedo','IT Study Break'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>2017020</v>
+      </c>
+      <c r="C28" t="s">
         <v>227</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>305</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E28" t="s">
         <v>259</v>
       </c>
-      <c r="E27">
-        <v>2017019</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Euclid', 'Santiago', 2017019, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,2017020,'Euclid','Santiago','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>2017021</v>
+      </c>
+      <c r="C29" t="s">
         <v>224</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>302</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E29" t="s">
         <v>258</v>
       </c>
-      <c r="E28">
-        <v>2017020</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Eulogio', 'Oderon', 2017020, 'ELX - Instructor'),</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,2017021,'Eulogio','Oderon','ELX Study Break'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>2017022</v>
+      </c>
+      <c r="C30" t="s">
         <v>208</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>285</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E30" t="s">
         <v>254</v>
       </c>
-      <c r="E29">
-        <v>2017021</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Fatma', 'AL-Blushi', 2017021, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,2017022,'Fatma','AL-Blushi','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>2017023</v>
+      </c>
+      <c r="C31" t="s">
         <v>208</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>281</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E31" t="s">
         <v>255</v>
       </c>
-      <c r="E30">
-        <v>2017022</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Fatma', 'Al Balushi', 2017022, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,2017023,'Fatma','Al Balushi','IT Study Break'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>2017024</v>
+      </c>
+      <c r="C32" t="s">
         <v>233</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>311</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32" t="s">
         <v>260</v>
       </c>
-      <c r="E31">
-        <v>2017023</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ghalib', 'Al Amri', 2017023, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,2017024,'Ghalib','Al Amri','MECH Study Break'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2017025</v>
+      </c>
+      <c r="C33" t="s">
         <v>229</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D33" t="s">
         <v>307</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E33" t="s">
         <v>259</v>
       </c>
-      <c r="E32">
-        <v>2017024</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Hermogenes', 'Baculo', 2017024, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,2017025,'Hermogenes','Baculo','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>2017026</v>
+      </c>
+      <c r="C34" t="s">
         <v>225</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>303</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E34" t="s">
         <v>259</v>
       </c>
-      <c r="E33">
-        <v>2017025</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ibrahim', 'Saif Said Al Mawaali', 2017025, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,2017026,'Ibrahim','Saif Said Al Mawaali','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>2017027</v>
+      </c>
+      <c r="C35" t="s">
         <v>226</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>304</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E35" t="s">
         <v>259</v>
       </c>
-      <c r="E34">
-        <v>2017026</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Ignatius', 'Rodrigues', 2017026, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,2017027,'Ignatius','Rodrigues','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>2017028</v>
+      </c>
+      <c r="C36" t="s">
         <v>216</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
         <v>292</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E36" t="s">
         <v>256</v>
       </c>
-      <c r="E35">
-        <v>2017027</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Jaffar', 'Al. Bahrani', 2017027, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,2017028,'Jaffar','Al. Bahrani','MATH Study Break'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>2017029</v>
+      </c>
+      <c r="C37" t="s">
         <v>240</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D37" t="s">
         <v>319</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E37" t="s">
         <v>262</v>
       </c>
-      <c r="E36">
-        <v>2017028</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Jenier', 'Galarpe', 2017028, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,2017029,'Jenier','Galarpe','WEL Study Break'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>2017030</v>
+      </c>
+      <c r="C38" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
         <v>275</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E38" t="s">
         <v>254</v>
       </c>
-      <c r="E37">
-        <v>2017029</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Julie', 'Mathew Senil', 2017029, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,2017030,'Julie','Mathew Senil','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>2017031</v>
+      </c>
+      <c r="C39" t="s">
         <v>238</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D39" t="s">
         <v>317</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E39" t="s">
         <v>261</v>
       </c>
-      <c r="E38">
-        <v>2017030</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Juluis', 'Dabon', 2017030, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,2017031,'Juluis','Dabon','RAC Study Break'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>2017032</v>
+      </c>
+      <c r="C40" t="s">
         <v>194</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D40" t="s">
         <v>266</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E40" t="s">
         <v>252</v>
       </c>
-      <c r="E39">
-        <v>2017031</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Kannan', 'subash chandra bose', 2017031, 'DRW - Instructor'),</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,2017032,'Kannan','subash chandra bose','DRW Study Break'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>2017033</v>
+      </c>
+      <c r="C41" t="s">
         <v>228</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D41" t="s">
         <v>306</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E41" t="s">
         <v>259</v>
       </c>
-      <c r="E40">
-        <v>2017032</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Karunadas', 'Parakunnath', 2017032, 'ELC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,2017033,'Karunadas','Parakunnath','ELC Study Break'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>2017034</v>
+      </c>
+      <c r="C42" t="s">
         <v>235</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>313</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E42" t="s">
         <v>260</v>
       </c>
-      <c r="E41">
-        <v>2017033</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Macario', 'Barredo', 2017033, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,2017034,'Macario','Barredo','MECH Study Break'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>2017035</v>
+      </c>
+      <c r="C43" t="s">
         <v>205</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43" t="s">
         <v>281</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E43" t="s">
         <v>254</v>
       </c>
-      <c r="E42">
-        <v>2017034</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mansoor', 'Al Balushi', 2017034, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" t="s">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,2017035,'Mansoor','Al Balushi','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>2017036</v>
+      </c>
+      <c r="C44" t="s">
         <v>203</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E44" t="s">
         <v>254</v>
       </c>
-      <c r="E43">
-        <v>2017035</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Marwan', 'ahmed. Almamari', 2017035, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" t="s">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,2017036,'Marwan','ahmed. Almamari','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45">
+        <v>2017037</v>
+      </c>
+      <c r="C45" t="s">
         <v>209</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D45" t="s">
         <v>286</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E45" t="s">
         <v>254</v>
       </c>
-      <c r="E44">
-        <v>2017036</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Maryam', 'AL-Mamary', 2017036, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,2017037,'Maryam','AL-Mamary','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>2017038</v>
+      </c>
+      <c r="C46" t="s">
         <v>197</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D46" t="s">
         <v>269</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E46" t="s">
         <v>253</v>
       </c>
-      <c r="E45">
-        <v>2017037</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'Mahmoud Saliem', 2017037, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,2017038,'Mohammed','Mahmoud Saliem','BUS Study Break'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>2017039</v>
+      </c>
+      <c r="C47" t="s">
         <v>197</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" t="s">
         <v>271</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E47" t="s">
         <v>253</v>
       </c>
-      <c r="E46">
-        <v>2017038</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'Nasser Abdullah Al Balushi', 2017038, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,2017039,'Mohammed','Nasser Abdullah Al Balushi','BUS Study Break'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>2017040</v>
+      </c>
+      <c r="C48" t="s">
         <v>197</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D48" t="s">
         <v>274</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E48" t="s">
         <v>254</v>
       </c>
-      <c r="E47">
-        <v>2017039</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'Al-BAlushi', 2017039, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,2017040,'Mohammed','Al-BAlushi','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>2017041</v>
+      </c>
+      <c r="C49" t="s">
         <v>197</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D49" t="s">
         <v>277</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E49" t="s">
         <v>254</v>
       </c>
-      <c r="E48">
-        <v>2017040</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'Nabbhan Al Nabbhani', 2017040, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,2017041,'Mohammed','Nabbhan Al Nabbhani','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>2017042</v>
+      </c>
+      <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>279</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E50" t="s">
         <v>254</v>
       </c>
-      <c r="E49">
-        <v>2017041</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'ALNabhani', 2017041, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,2017042,'Mohammed','ALNabhani','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>2017043</v>
+      </c>
+      <c r="C51" t="s">
         <v>197</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
         <v>293</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E51" t="s">
         <v>256</v>
       </c>
-      <c r="E50">
-        <v>2017042</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'Vaziruddin', 2017042, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,2017043,'Mohammed','Vaziruddin','MATH Study Break'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>2017044</v>
+      </c>
+      <c r="C52" t="s">
         <v>236</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D52" t="s">
         <v>314</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E52" t="s">
         <v>261</v>
       </c>
-      <c r="E51">
-        <v>2017043</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'mohammed', 'al-basyuni al-said al qal youbi', 2017043, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>(44,2017044,'mohammed','al-basyuni al-said al qal youbi','RAC Study Break'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>2017045</v>
+      </c>
+      <c r="C53" t="s">
         <v>197</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D53" t="s">
         <v>322</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E53" t="s">
         <v>262</v>
       </c>
-      <c r="E52">
-        <v>2017044</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mohammed', 'Ramdan Salim', 2017044, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" t="s">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,2017045,'Mohammed','Ramdan Salim','WEL Study Break'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>2017046</v>
+      </c>
+      <c r="C54" t="s">
         <v>195</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
         <v>267</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E54" t="s">
         <v>252</v>
       </c>
-      <c r="E53">
-        <v>2017045</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Mustafa', 'Metwally', 2017045, 'DRW - Instructor'),</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>(46,2017046,'Mustafa','Metwally','DRW Study Break'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55">
+        <v>2017047</v>
+      </c>
+      <c r="C55" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D55" t="s">
         <v>294</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E55" t="s">
         <v>256</v>
       </c>
-      <c r="E54">
-        <v>2017046</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'NAGAPAVAN', '.N', 2017046, 'MATH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" t="s">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>(47,2017047,'NAGAPAVAN','.N','MATH Study Break'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>2017048</v>
+      </c>
+      <c r="C56" t="s">
         <v>234</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D56" t="s">
         <v>312</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E56" t="s">
         <v>260</v>
       </c>
-      <c r="E55">
-        <v>2017047</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Nasir', 'Al Hinai', 2017047, 'MECH - Instructor'),</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" t="s">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>(48,2017048,'Nasir','Al Hinai','MECH Study Break'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>2017049</v>
+      </c>
+      <c r="C57" t="s">
         <v>239</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D57" t="s">
         <v>318</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E57" t="s">
         <v>261</v>
       </c>
-      <c r="E56">
-        <v>2017048</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Norman', 'De Ocampo', 2017048, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" t="s">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>(49,2017049,'Norman','De Ocampo','RAC Study Break'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>2017050</v>
+      </c>
+      <c r="C58" t="s">
         <v>237</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D58" t="s">
         <v>316</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E58" t="s">
         <v>261</v>
       </c>
-      <c r="E57">
-        <v>2017049</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Osamah', 'Mohammad Ahmmad Al-Shobaki', 2017049, 'RAC - Instructor'),</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" t="s">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,2017050,'Osamah','Mohammad Ahmmad Al-Shobaki','RAC Study Break'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59">
+        <v>2017051</v>
+      </c>
+      <c r="C59" t="s">
         <v>199</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D59" t="s">
         <v>272</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E59" t="s">
         <v>253</v>
       </c>
-      <c r="E58">
-        <v>2017050</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Rajesh', 'Chaladath', 2017050, 'BUS - Instructor'),</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" t="s">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>(51,2017051,'Rajesh','Chaladath','BUS Study Break'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60">
+        <v>2017052</v>
+      </c>
+      <c r="C60" t="s">
         <v>192</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D60" t="s">
         <v>264</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E60" t="s">
         <v>251</v>
       </c>
-      <c r="E59">
-        <v>2017051</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Regina', 'Formaran', 2017051, 'PE - Instructor'),</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" t="s">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>(52,2017052,'Regina','Formaran','PE Study Break'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61">
+        <v>2017053</v>
+      </c>
+      <c r="C61" t="s">
         <v>196</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D61" t="s">
         <v>268</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E61" t="s">
         <v>252</v>
       </c>
-      <c r="E60">
-        <v>2017052</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Rojesb', 'Chaladatb', 2017052, 'DRW - Instructor'),</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" t="s">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>(53,2017053,'Rojesb','Chaladatb','DRW Study Break'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62">
+        <v>2017054</v>
+      </c>
+      <c r="C62" t="s">
         <v>241</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D62" t="s">
         <v>320</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E62" t="s">
         <v>262</v>
       </c>
-      <c r="E61">
-        <v>2017053</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Rommel', 'A. Rosales', 2017053, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" t="s">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>(54,2017054,'Rommel','A. Rosales','WEL Study Break'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>2017055</v>
+      </c>
+      <c r="C63" t="s">
         <v>211</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D63" t="s">
         <v>288</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E63" t="s">
         <v>255</v>
       </c>
-      <c r="E62">
-        <v>2017054</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Sajith', 'Bandara', 2017054, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" t="s">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>(55,2017055,'Sajith','Bandara','IT Study Break'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>56</v>
+      </c>
+      <c r="B64">
+        <v>2017056</v>
+      </c>
+      <c r="C64" t="s">
         <v>214</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D64" t="s">
         <v>290</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E64" t="s">
         <v>255</v>
       </c>
-      <c r="E63">
-        <v>2017055</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Sheikha', 'Ali Said Al-Badi', 2017055, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" t="s">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>(56,2017056,'Sheikha','Ali Said Al-Badi','IT Study Break'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65">
+        <v>2017057</v>
+      </c>
+      <c r="C65" t="s">
         <v>204</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D65" t="s">
         <v>280</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E65" t="s">
         <v>254</v>
       </c>
-      <c r="E64">
-        <v>2017056</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Silpa', 'Sarah Abraham', 2017056, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" t="s">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>(57,2017057,'Silpa','Sarah Abraham','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>58</v>
+      </c>
+      <c r="B66">
+        <v>2017058</v>
+      </c>
+      <c r="C66" t="s">
         <v>242</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
         <v>321</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E66" t="s">
         <v>262</v>
       </c>
-      <c r="E65">
-        <v>2017057</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Taoufik', 'Ouelhazi', 2017057, 'WEL - Instructor'),</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" t="s">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>(58,2017058,'Taoufik','Ouelhazi','WEL Study Break'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67">
+        <v>2017059</v>
+      </c>
+      <c r="C67" t="s">
         <v>215</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
         <v>291</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E67" t="s">
         <v>255</v>
       </c>
-      <c r="E66">
-        <v>2017058</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Vara', 'Prasad Reddy Subbi Reddy', 2017058, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" t="s">
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>(59,2017059,'Vara','Prasad Reddy Subbi Reddy','IT Study Break'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68">
+        <v>2017060</v>
+      </c>
+      <c r="C68" t="s">
         <v>212</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D68" t="s">
         <v>273</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E68" t="s">
         <v>255</v>
       </c>
-      <c r="E67">
-        <v>2017059</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'Vijaya', 'kumar', 2017059, 'IT - Instructor'),</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" t="s">
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>(60,2017060,'Vijaya','kumar','IT Study Break'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>61</v>
+      </c>
+      <c r="B69">
+        <v>2017061</v>
+      </c>
+      <c r="C69" t="s">
         <v>200</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D69" t="s">
         <v>273</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E69" t="s">
         <v>254</v>
       </c>
-      <c r="E68">
-        <v>2017060</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'vinay', 'kumar', 2017060, 'ENG - Instructor'),</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" t="s">
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>(61,2017061,'vinay','kumar','ENG Study Break'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>62</v>
+      </c>
+      <c r="B70">
+        <v>2017062</v>
+      </c>
+      <c r="C70" t="s">
         <v>222</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D70" t="s">
         <v>300</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E70" t="s">
         <v>258</v>
       </c>
-      <c r="E69">
-        <v>2017061</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="0"/>
-        <v>(, 'William', 'Caniedo', 2017061, 'ELX - Instructor'),</v>
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
+        <v>(62,2017062,'William','Caniedo','ELX Study Break'),</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B9:D96">
-    <sortCondition ref="B8"/>
+  <sortState ref="C10:E97">
+    <sortCondition ref="C8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7460,8 +7682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8176,8 +8398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8202,6 +8424,9 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
       <c r="C4" t="s">
         <v>410</v>
       </c>
@@ -8244,7 +8469,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F66" si="0">CONCATENATE("(",B6,",'",C6,"','",D6,"',",E6,",''),")</f>
+        <f>CONCATENATE("(",B6,",'",C6,"','",D6,"',",E6,",''),")</f>
         <v>(2,'BBSSM 1102','INTRODUCTION TO SELLING ',6,''),</v>
       </c>
     </row>
@@ -8262,7 +8487,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B7,",'",C7,"','",D7,"',",E7,",''),")</f>
         <v>(3,'BBSSM 1103','ECONOMICS',6,''),</v>
       </c>
     </row>
@@ -8280,7 +8505,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B8,",'",C8,"','",D8,"',",E8,",''),")</f>
         <v>(4,'BBSSM 1201','BUSINESS ETHICS',6,''),</v>
       </c>
     </row>
@@ -8298,7 +8523,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B9,",'",C9,"','",D9,"',",E9,",''),")</f>
         <v>(5,'BBSSM 1202','ADVERTISIMENT &amp; PROMOTION',6,''),</v>
       </c>
     </row>
@@ -8316,7 +8541,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B10,",'",C10,"','",D10,"',",E10,",''),")</f>
         <v>(6,'BBSSM 1203','CONSUMER BEHAVIOR ',6,''),</v>
       </c>
     </row>
@@ -8334,7 +8559,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B11,",'",C11,"','",D11,"',",E11,",''),")</f>
         <v>(7,'BBSSM 1204','BUSINESS RESEARCH METHODS',6,''),</v>
       </c>
     </row>
@@ -8352,7 +8577,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B12,",'",C12,"','",D12,"',",E12,",''),")</f>
         <v>(8,'BBSSM 2101','DIRECT MARKETING ',6,''),</v>
       </c>
     </row>
@@ -8370,7 +8595,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B13,",'",C13,"','",D13,"',",E13,",''),")</f>
         <v>(9,'BBSSM 2102','RETAILING MANAGEMENT ',6,''),</v>
       </c>
     </row>
@@ -8388,7 +8613,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B14,",'",C14,"','",D14,"',",E14,",''),")</f>
         <v>(10,'BBSSM 2103','RETAIL PRICING STRAGEGIES ',6,''),</v>
       </c>
     </row>
@@ -8406,7 +8631,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B15,",'",C15,"','",D15,"',",E15,",''),")</f>
         <v>(11,'BBSSM 2104','PROFESSIONAL SELLING ',6,''),</v>
       </c>
     </row>
@@ -8424,7 +8649,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B16,",'",C16,"','",D16,"',",E16,",''),")</f>
         <v>(12,'BBSSM 2201','CUSTOMER RELATIONSHIP MGT.',6,''),</v>
       </c>
     </row>
@@ -8439,11 +8664,11 @@
         <v>409</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',0,''),</v>
+        <f>CONCATENATE("(",B17,",'",C17,"','",D17,"',",E17,",''),")</f>
+        <v>(13,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',10,''),</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -8457,11 +8682,11 @@
         <v>405</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,'BBSSM 2204','MARKETING COMMUINCATION',0,''),</v>
+        <f>CONCATENATE("(",B18,",'",C18,"','",D18,"',",E18,",''),")</f>
+        <v>(14,'BBSSM 2204','MARKETING COMMUINCATION',10,''),</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -8475,11 +8700,11 @@
         <v>408</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>(15,'BBSSM 2204x','GRADUATION PROJECT ',0,''),</v>
+        <f>CONCATENATE("(",B19,",'",C19,"','",D19,"',",E19,",''),")</f>
+        <v>(15,'BBSSM 2204x','GRADUATION PROJECT ',10,''),</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -8496,7 +8721,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B20,",'",C20,"','",D20,"',",E20,",''),")</f>
         <v>(16,'CHEM 1101','Chemistry 1',4,''),</v>
       </c>
     </row>
@@ -8514,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B21,",'",C21,"','",D21,"',",E21,",''),")</f>
         <v>(17,'CHEM 1202','Chemistry 2',4,''),</v>
       </c>
     </row>
@@ -8529,11 +8754,11 @@
         <v>336</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>(18,'EECIM 1101','Basic Electricity and System',0,''),</v>
+        <f>CONCATENATE("(",B22,",'",C22,"','",D22,"',",E22,",''),")</f>
+        <v>(18,'EECIM 1101','Basic Electricity and System',10,''),</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -8547,11 +8772,11 @@
         <v>337</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>(19,'EECIM 1102','Basic Electronics and Circuits',0,''),</v>
+        <f>CONCATENATE("(",B23,",'",C23,"','",D23,"',",E23,",''),")</f>
+        <v>(19,'EECIM 1102','Basic Electronics and Circuits',10,''),</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -8565,11 +8790,11 @@
         <v>338</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>(20,'EECIM 1103','Fundamental Digital Electronics Circuits',0,''),</v>
+        <f>CONCATENATE("(",B24,",'",C24,"','",D24,"',",E24,",''),")</f>
+        <v>(20,'EECIM 1103','Fundamental Digital Electronics Circuits',10,''),</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -8586,7 +8811,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B25,",'",C25,"','",D25,"',",E25,",''),")</f>
         <v>(21,'EECIM 1203','ELX-?',7,''),</v>
       </c>
     </row>
@@ -8604,7 +8829,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B26,",'",C26,"','",D26,"',",E26,",''),")</f>
         <v>(22,'EECIM 1204','Installation, Servicing Audio-Video Systems',5,''),</v>
       </c>
     </row>
@@ -8619,11 +8844,11 @@
         <v>343</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>(23,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',0,''),</v>
+        <f>CONCATENATE("(",B27,",'",C27,"','",D27,"',",E27,",''),")</f>
+        <v>(23,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',10,''),</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -8637,11 +8862,11 @@
         <v>344</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>(24,'EECIM 1206','Electronics Devices Servicing 1',0,''),</v>
+        <f>CONCATENATE("(",B28,",'",C28,"','",D28,"',",E28,",''),")</f>
+        <v>(24,'EECIM 1206','Electronics Devices Servicing 1',10,''),</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -8658,7 +8883,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B29,",'",C29,"','",D29,"',",E29,",''),")</f>
         <v>(25,'EECIM 1305','ELX-?',5,''),</v>
       </c>
     </row>
@@ -8673,11 +8898,11 @@
         <v>350</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>(26,'EECIM 2107','Personal Computers and Multimedia Devices',0,''),</v>
+        <f>CONCATENATE("(",B30,",'",C30,"','",D30,"',",E30,",''),")</f>
+        <v>(26,'EECIM 2107','Personal Computers and Multimedia Devices',10,''),</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -8691,11 +8916,11 @@
         <v>351</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>(27,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',0,''),</v>
+        <f>CONCATENATE("(",B31,",'",C31,"','",D31,"',",E31,",''),")</f>
+        <v>(27,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',10,''),</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -8709,11 +8934,11 @@
         <v>352</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>(28,'EECIM 2109','Graduation Project 1',0,''),</v>
+        <f>CONCATENATE("(",B32,",'",C32,"','",D32,"',",E32,",''),")</f>
+        <v>(28,'EECIM 2109','Graduation Project 1',10,''),</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -8727,11 +8952,11 @@
         <v>356</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>(29,'EECIM 2210','Security Alarm systems',0,''),</v>
+        <f>CONCATENATE("(",B33,",'",C33,"','",D33,"',",E33,",''),")</f>
+        <v>(29,'EECIM 2210','Security Alarm systems',10,''),</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -8745,11 +8970,11 @@
         <v>357</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>(30,'EECIM 2211','Electronics Devices Servicing 2',0,''),</v>
+        <f>CONCATENATE("(",B34,",'",C34,"','",D34,"',",E34,",''),")</f>
+        <v>(30,'EECIM 2211','Electronics Devices Servicing 2',10,''),</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -8763,11 +8988,11 @@
         <v>358</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>(31,'EECIM 2212','Graduation Project 2',0,''),</v>
+        <f>CONCATENATE("(",B35,",'",C35,"','",D35,"',",E35,",''),")</f>
+        <v>(31,'EECIM 2212','Graduation Project 2',10,''),</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -8784,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B36,",'",C36,"','",D36,"',",E36,",''),")</f>
         <v>(32,'EELIHW 1101','Health and Safety Precautions',1,''),</v>
       </c>
     </row>
@@ -8802,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B37,",'",C37,"','",D37,"',",E37,",''),")</f>
         <v>(33,'EELIHW 1102','Basic Electricity(AC/DC) &amp;Electrical Code',5,''),</v>
       </c>
     </row>
@@ -8820,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B38,",'",C38,"','",D38,"',",E38,",''),")</f>
         <v>(34,'EELIHW 1103','Tools, Instruments, Electric wires and cable works',5,''),</v>
       </c>
     </row>
@@ -8838,7 +9063,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B39,",'",C39,"','",D39,"',",E39,",''),")</f>
         <v>(35,'EELIHW 1204','Basic Electronics',4,''),</v>
       </c>
     </row>
@@ -8853,11 +9078,11 @@
         <v>365</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>(36,'EELIHW 1205','Electrical-Circuits and Protection Devices',0,''),</v>
+        <f>CONCATENATE("(",B40,",'",C40,"','",D40,"',",E40,",''),")</f>
+        <v>(36,'EELIHW 1205','Electrical-Circuits and Protection Devices',10,''),</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -8871,11 +9096,11 @@
         <v>366</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>(37,'EELIHW 1206','Three Phase Principles',0,''),</v>
+        <f>CONCATENATE("(",B41,",'",C41,"','",D41,"',",E41,",''),")</f>
+        <v>(37,'EELIHW 1206','Three Phase Principles',10,''),</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -8889,11 +9114,11 @@
         <v>339</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>(38,'EENDR 1101','Engineering Drawing 1',0,''),</v>
+        <f>CONCATENATE("(",B42,",'",C42,"','",D42,"',",E42,",''),")</f>
+        <v>(38,'EENDR 1101','Engineering Drawing 1',10,''),</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -8907,11 +9132,11 @@
         <v>345</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>(39,'EENDR 1202','Engineering Drawing 2',0,''),</v>
+        <f>CONCATENATE("(",B43,",'",C43,"','",D43,"',",E43,",''),")</f>
+        <v>(39,'EENDR 1202','Engineering Drawing 2',10,''),</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -8928,7 +9153,7 @@
         <v>3</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B44,",'",C44,"','",D44,"',",E44,",''),")</f>
         <v>(40,'ENG 1101','TECHNICAL WRITING ',3,''),</v>
       </c>
     </row>
@@ -8946,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B45,",'",C45,"','",D45,"',",E45,",''),")</f>
         <v>(41,'ENG 1202','TECHNICAL COMMUNICATION  ',3,''),</v>
       </c>
     </row>
@@ -8961,11 +9186,11 @@
         <v>372</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>(42,'ENTRP 1202','ENTREPRENEURSHIP',0,''),</v>
+        <f>CONCATENATE("(",B46,",'",C46,"','",D46,"',",E46,",''),")</f>
+        <v>(42,'ENTRP 1202','ENTREPRENEURSHIP',10,''),</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -8982,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B47,",'",C47,"','",D47,"',",E47,",''),")</f>
         <v>(43,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
       </c>
     </row>
@@ -9000,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B48,",'",C48,"','",D48,"',",E48,",''),")</f>
         <v>(44,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
       </c>
     </row>
@@ -9018,7 +9243,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B49,",'",C49,"','",D49,"',",E49,",''),")</f>
         <v>(45,'INBS 1202','E- COMMERCE ',4,''),</v>
       </c>
     </row>
@@ -9036,7 +9261,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B50,",'",C50,"','",D50,"',",E50,",''),")</f>
         <v>(46,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
       </c>
     </row>
@@ -9054,7 +9279,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B51,",'",C51,"','",D51,"',",E51,",''),")</f>
         <v>(47,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
       </c>
     </row>
@@ -9072,7 +9297,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B52,",'",C52,"','",D52,"',",E52,",''),")</f>
         <v>(48,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
       </c>
     </row>
@@ -9090,7 +9315,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B53,",'",C53,"','",D53,"',",E53,",''),")</f>
         <v>(49,'MTCL 1101','Calculus',4,''),</v>
       </c>
     </row>
@@ -9108,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B54,",'",C54,"','",D54,"',",E54,",''),")</f>
         <v>(50,'MTCL 1202','Engineering Mathematics',4,''),</v>
       </c>
     </row>
@@ -9126,7 +9351,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B55,",'",C55,"','",D55,"',",E55,",''),")</f>
         <v>(51,'MTST 1101','STATISTICS ',4,''),</v>
       </c>
     </row>
@@ -9144,7 +9369,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B56,",'",C56,"','",D56,"',",E56,",''),")</f>
         <v>(52,'PHYS 1101','Physics 1',4,''),</v>
       </c>
     </row>
@@ -9162,7 +9387,7 @@
         <v>4</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B57,",'",C57,"','",D57,"',",E57,",''),")</f>
         <v>(53,'PHYS 1202','Physics 2',4,''),</v>
       </c>
     </row>
@@ -9177,11 +9402,11 @@
         <v>372</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>(54,'PRMG 1101','ENTREPRENEURSHIP',0,''),</v>
+        <f>CONCATENATE("(",B58,",'",C58,"','",D58,"',",E58,",''),")</f>
+        <v>(54,'PRMG 1101','ENTREPRENEURSHIP',10,''),</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -9198,7 +9423,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B59,",'",C59,"','",D59,"',",E59,",''),")</f>
         <v>(55,'PUENG 2101','Public Speaking',3,''),</v>
       </c>
     </row>
@@ -9216,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B60,",'",C60,"','",D60,"',",E60,",''),")</f>
         <v>(56,'TCENG 1202','Technical Communication',3,''),</v>
       </c>
     </row>
@@ -9234,7 +9459,7 @@
         <v>3</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B61,",'",C61,"','",D61,"',",E61,",''),")</f>
         <v>(57,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
       </c>
     </row>
@@ -9252,7 +9477,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B62,",'",C62,"','",D62,"',",E62,",''),")</f>
         <v>(58,'EELIHW 1203','EELIHW 1203',7,''),</v>
       </c>
     </row>
@@ -9270,7 +9495,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B63,",'",C63,"','",D63,"',",E63,",''),")</f>
         <v>(59,'EELIHW 2107','EELIHW 2107',8,''),</v>
       </c>
     </row>
@@ -9288,7 +9513,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B64,",'",C64,"','",D64,"',",E64,",''),")</f>
         <v>(60,'EELIHW 2108','EELIHW 2108',5,''),</v>
       </c>
     </row>
@@ -9306,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B65,",'",C65,"','",D65,"',",E65,",''),")</f>
         <v>(61,'EELIHW 2209','EELIHW 2209',12,''),</v>
       </c>
     </row>
@@ -9324,13 +9549,13 @@
         <v>9</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("(",B66,",'",C66,"','",D66,"',",E66,",''),")</f>
         <v>(62,'EELIHW 2210','EELIHW 2210',9,''),</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C5:D61">
-    <sortCondition ref="C4"/>
+  <sortState ref="B5:F66">
+    <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -6311,7 +6311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F70"/>
     </sheetView>
   </sheetViews>
@@ -6405,8 +6405,8 @@
         <v>259</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>(2,2017002,'Abdulaziz','Abid Galm Al Hinai','ELC Study Break'),</v>
+        <f>CONCATENATE("(",A10,",",B10,",'",C10,"','",D10,"','",E10," - Instructor'),")</f>
+        <v>(2,2017002,'Abdulaziz','Abid Galm Al Hinai','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6426,8 +6426,8 @@
         <v>261</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,2017003,'Abdulaziz','Jumah Al Shamaki','RAC Study Break'),</v>
+        <f t="shared" ref="F11:F70" si="1">CONCATENATE("(",A11,",",B11,",'",C11,"','",D11,"','",E11," - Instructor'),")</f>
+        <v>(3,2017003,'Abdulaziz','Jumah Al Shamaki','RAC - Instructor'),</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6447,8 +6447,8 @@
         <v>259</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,2017004,'Abdullah','Maher.Abdullah','ELC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(4,2017004,'Abdullah','Maher.Abdullah','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6468,8 +6468,8 @@
         <v>254</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,2017005,'Abdurahiman','Puthan','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(5,2017005,'Abdurahiman','Puthan','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6489,8 +6489,8 @@
         <v>253</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,2017006,'Ahmed','Mahsob','BUS Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(6,2017006,'Ahmed','Mahsob','BUS - Instructor'),</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6510,8 +6510,8 @@
         <v>254</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>(7,2017007,'Ahmed','AL-Maqbali','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(7,2017007,'Ahmed','AL-Maqbali','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6531,8 +6531,8 @@
         <v>254</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,2017008,'Ali','Mohammed Ali Salih','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(8,2017008,'Ali','Mohammed Ali Salih','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6552,8 +6552,8 @@
         <v>260</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>(9,2017009,'Ammar','Bin Mosbah','MECH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(9,2017009,'Ammar','Bin Mosbah','MECH - Instructor'),</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6573,8 +6573,8 @@
         <v>257</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,2017010,'antonio','Buca','PHY Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(10,2017010,'antonio','Buca','PHY - Instructor'),</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6594,8 +6594,8 @@
         <v>254</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>(11,2017011,'Aref','Al ajmi','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(11,2017011,'Aref','Al ajmi','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6615,8 +6615,8 @@
         <v>254</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>(12,2017012,'Asma','AL-','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(12,2017012,'Asma','AL-','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6636,8 +6636,8 @@
         <v>257</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>(13,2017013,'Asma','Al Farsi','PHY Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(13,2017013,'Asma','Al Farsi','PHY - Instructor'),</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6657,8 +6657,8 @@
         <v>257</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>(14,2017014,'Ayeesha','Yasmin','PHY Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(14,2017014,'Ayeesha','Yasmin','PHY - Instructor'),</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6678,8 +6678,8 @@
         <v>256</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>(15,2017015,'Ayoub','Al Oufi','MATH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(15,2017015,'Ayoub','Al Oufi','MATH - Instructor'),</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6699,8 +6699,8 @@
         <v>257</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>(16,2017016,'Bilal','Al Arqenah','PHY Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(16,2017016,'Bilal','Al Arqenah','PHY - Instructor'),</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6720,8 +6720,8 @@
         <v>251</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>(17,2017017,'Carlo','Romion','PE Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(17,2017017,'Carlo','Romion','PE - Instructor'),</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6741,8 +6741,8 @@
         <v>258</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>(18,2017018,'Conrado','Torres','ELX Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(18,2017018,'Conrado','Torres','ELX - Instructor'),</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6762,8 +6762,8 @@
         <v>255</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>(19,2017019,'Ericson','Billedo','IT Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(19,2017019,'Ericson','Billedo','IT - Instructor'),</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6783,8 +6783,8 @@
         <v>259</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>(20,2017020,'Euclid','Santiago','ELC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(20,2017020,'Euclid','Santiago','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6804,8 +6804,8 @@
         <v>258</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>(21,2017021,'Eulogio','Oderon','ELX Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(21,2017021,'Eulogio','Oderon','ELX - Instructor'),</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6825,8 +6825,8 @@
         <v>254</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>(22,2017022,'Fatma','AL-Blushi','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(22,2017022,'Fatma','AL-Blushi','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6846,8 +6846,8 @@
         <v>255</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>(23,2017023,'Fatma','Al Balushi','IT Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(23,2017023,'Fatma','Al Balushi','IT - Instructor'),</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6867,8 +6867,8 @@
         <v>260</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>(24,2017024,'Ghalib','Al Amri','MECH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(24,2017024,'Ghalib','Al Amri','MECH - Instructor'),</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6888,8 +6888,8 @@
         <v>259</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>(25,2017025,'Hermogenes','Baculo','ELC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(25,2017025,'Hermogenes','Baculo','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6909,8 +6909,8 @@
         <v>259</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>(26,2017026,'Ibrahim','Saif Said Al Mawaali','ELC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(26,2017026,'Ibrahim','Saif Said Al Mawaali','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6930,8 +6930,8 @@
         <v>259</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>(27,2017027,'Ignatius','Rodrigues','ELC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(27,2017027,'Ignatius','Rodrigues','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6951,8 +6951,8 @@
         <v>256</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>(28,2017028,'Jaffar','Al. Bahrani','MATH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(28,2017028,'Jaffar','Al. Bahrani','MATH - Instructor'),</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6972,8 +6972,8 @@
         <v>262</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>(29,2017029,'Jenier','Galarpe','WEL Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(29,2017029,'Jenier','Galarpe','WEL - Instructor'),</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6993,8 +6993,8 @@
         <v>254</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>(30,2017030,'Julie','Mathew Senil','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(30,2017030,'Julie','Mathew Senil','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7014,8 +7014,8 @@
         <v>261</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>(31,2017031,'Juluis','Dabon','RAC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(31,2017031,'Juluis','Dabon','RAC - Instructor'),</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7035,8 +7035,8 @@
         <v>252</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>(32,2017032,'Kannan','subash chandra bose','DRW Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(32,2017032,'Kannan','subash chandra bose','DRW - Instructor'),</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7056,8 +7056,8 @@
         <v>259</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>(33,2017033,'Karunadas','Parakunnath','ELC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(33,2017033,'Karunadas','Parakunnath','ELC - Instructor'),</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7077,8 +7077,8 @@
         <v>260</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>(34,2017034,'Macario','Barredo','MECH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(34,2017034,'Macario','Barredo','MECH - Instructor'),</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7098,8 +7098,8 @@
         <v>254</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>(35,2017035,'Mansoor','Al Balushi','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(35,2017035,'Mansoor','Al Balushi','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7119,8 +7119,8 @@
         <v>254</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>(36,2017036,'Marwan','ahmed. Almamari','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(36,2017036,'Marwan','ahmed. Almamari','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7140,8 +7140,8 @@
         <v>254</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>(37,2017037,'Maryam','AL-Mamary','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(37,2017037,'Maryam','AL-Mamary','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7161,8 +7161,8 @@
         <v>253</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>(38,2017038,'Mohammed','Mahmoud Saliem','BUS Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(38,2017038,'Mohammed','Mahmoud Saliem','BUS - Instructor'),</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7182,8 +7182,8 @@
         <v>253</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>(39,2017039,'Mohammed','Nasser Abdullah Al Balushi','BUS Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(39,2017039,'Mohammed','Nasser Abdullah Al Balushi','BUS - Instructor'),</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7203,8 +7203,8 @@
         <v>254</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>(40,2017040,'Mohammed','Al-BAlushi','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(40,2017040,'Mohammed','Al-BAlushi','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7224,8 +7224,8 @@
         <v>254</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>(41,2017041,'Mohammed','Nabbhan Al Nabbhani','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(41,2017041,'Mohammed','Nabbhan Al Nabbhani','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7245,8 +7245,8 @@
         <v>254</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>(42,2017042,'Mohammed','ALNabhani','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(42,2017042,'Mohammed','ALNabhani','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7266,8 +7266,8 @@
         <v>256</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>(43,2017043,'Mohammed','Vaziruddin','MATH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(43,2017043,'Mohammed','Vaziruddin','MATH - Instructor'),</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7287,8 +7287,8 @@
         <v>261</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>(44,2017044,'mohammed','al-basyuni al-said al qal youbi','RAC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(44,2017044,'mohammed','al-basyuni al-said al qal youbi','RAC - Instructor'),</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7308,8 +7308,8 @@
         <v>262</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>(45,2017045,'Mohammed','Ramdan Salim','WEL Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(45,2017045,'Mohammed','Ramdan Salim','WEL - Instructor'),</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7329,8 +7329,8 @@
         <v>252</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>(46,2017046,'Mustafa','Metwally','DRW Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(46,2017046,'Mustafa','Metwally','DRW - Instructor'),</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7350,8 +7350,8 @@
         <v>256</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>(47,2017047,'NAGAPAVAN','.N','MATH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(47,2017047,'NAGAPAVAN','.N','MATH - Instructor'),</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7371,8 +7371,8 @@
         <v>260</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>(48,2017048,'Nasir','Al Hinai','MECH Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(48,2017048,'Nasir','Al Hinai','MECH - Instructor'),</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7392,8 +7392,8 @@
         <v>261</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>(49,2017049,'Norman','De Ocampo','RAC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(49,2017049,'Norman','De Ocampo','RAC - Instructor'),</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7413,8 +7413,8 @@
         <v>261</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>(50,2017050,'Osamah','Mohammad Ahmmad Al-Shobaki','RAC Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(50,2017050,'Osamah','Mohammad Ahmmad Al-Shobaki','RAC - Instructor'),</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7434,8 +7434,8 @@
         <v>253</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>(51,2017051,'Rajesh','Chaladath','BUS Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(51,2017051,'Rajesh','Chaladath','BUS - Instructor'),</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7455,8 +7455,8 @@
         <v>251</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>(52,2017052,'Regina','Formaran','PE Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(52,2017052,'Regina','Formaran','PE - Instructor'),</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7476,8 +7476,8 @@
         <v>252</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>(53,2017053,'Rojesb','Chaladatb','DRW Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(53,2017053,'Rojesb','Chaladatb','DRW - Instructor'),</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7497,8 +7497,8 @@
         <v>262</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>(54,2017054,'Rommel','A. Rosales','WEL Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(54,2017054,'Rommel','A. Rosales','WEL - Instructor'),</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7518,8 +7518,8 @@
         <v>255</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>(55,2017055,'Sajith','Bandara','IT Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(55,2017055,'Sajith','Bandara','IT - Instructor'),</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7539,8 +7539,8 @@
         <v>255</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>(56,2017056,'Sheikha','Ali Said Al-Badi','IT Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(56,2017056,'Sheikha','Ali Said Al-Badi','IT - Instructor'),</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7560,8 +7560,8 @@
         <v>254</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>(57,2017057,'Silpa','Sarah Abraham','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(57,2017057,'Silpa','Sarah Abraham','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7581,8 +7581,8 @@
         <v>262</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>(58,2017058,'Taoufik','Ouelhazi','WEL Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(58,2017058,'Taoufik','Ouelhazi','WEL - Instructor'),</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7602,8 +7602,8 @@
         <v>255</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v>(59,2017059,'Vara','Prasad Reddy Subbi Reddy','IT Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(59,2017059,'Vara','Prasad Reddy Subbi Reddy','IT - Instructor'),</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7623,8 +7623,8 @@
         <v>255</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="0"/>
-        <v>(60,2017060,'Vijaya','kumar','IT Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(60,2017060,'Vijaya','kumar','IT - Instructor'),</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7644,8 +7644,8 @@
         <v>254</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="0"/>
-        <v>(61,2017061,'vinay','kumar','ENG Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(61,2017061,'vinay','kumar','ENG - Instructor'),</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7665,8 +7665,8 @@
         <v>258</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="0"/>
-        <v>(62,2017062,'William','Caniedo','ELX Study Break'),</v>
+        <f t="shared" si="1"/>
+        <v>(62,2017062,'William','Caniedo','ELX - Instructor'),</v>
       </c>
     </row>
   </sheetData>
@@ -8398,7 +8398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F66"/>
     </sheetView>
   </sheetViews>
@@ -8451,7 +8451,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE("(",B5,",'",C5,"','",D5,"',",E5,",''),")</f>
+        <f t="shared" ref="F5:F36" si="0">CONCATENATE("(",B5,",'",C5,"','",D5,"',",E5,",''),")</f>
         <v>(1,'BBSSM 1101','PRINCIPLES OF MARKETING ',6,''),</v>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE("(",B6,",'",C6,"','",D6,"',",E6,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(2,'BBSSM 1102','INTRODUCTION TO SELLING ',6,''),</v>
       </c>
     </row>
@@ -8487,7 +8487,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE("(",B7,",'",C7,"','",D7,"',",E7,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(3,'BBSSM 1103','ECONOMICS',6,''),</v>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE("(",B8,",'",C8,"','",D8,"',",E8,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(4,'BBSSM 1201','BUSINESS ETHICS',6,''),</v>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE("(",B9,",'",C9,"','",D9,"',",E9,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(5,'BBSSM 1202','ADVERTISIMENT &amp; PROMOTION',6,''),</v>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE("(",B10,",'",C10,"','",D10,"',",E10,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(6,'BBSSM 1203','CONSUMER BEHAVIOR ',6,''),</v>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("(",B11,",'",C11,"','",D11,"',",E11,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(7,'BBSSM 1204','BUSINESS RESEARCH METHODS',6,''),</v>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE("(",B12,",'",C12,"','",D12,"',",E12,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(8,'BBSSM 2101','DIRECT MARKETING ',6,''),</v>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE("(",B13,",'",C13,"','",D13,"',",E13,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(9,'BBSSM 2102','RETAILING MANAGEMENT ',6,''),</v>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE("(",B14,",'",C14,"','",D14,"',",E14,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(10,'BBSSM 2103','RETAIL PRICING STRAGEGIES ',6,''),</v>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE("(",B15,",'",C15,"','",D15,"',",E15,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(11,'BBSSM 2104','PROFESSIONAL SELLING ',6,''),</v>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE("(",B16,",'",C16,"','",D16,"',",E16,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(12,'BBSSM 2201','CUSTOMER RELATIONSHIP MGT.',6,''),</v>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE("(",B17,",'",C17,"','",D17,"',",E17,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(13,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',10,''),</v>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE("(",B18,",'",C18,"','",D18,"',",E18,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(14,'BBSSM 2204','MARKETING COMMUINCATION',10,''),</v>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE("(",B19,",'",C19,"','",D19,"',",E19,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(15,'BBSSM 2204x','GRADUATION PROJECT ',10,''),</v>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE("(",B20,",'",C20,"','",D20,"',",E20,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(16,'CHEM 1101','Chemistry 1',4,''),</v>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE("(",B21,",'",C21,"','",D21,"',",E21,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(17,'CHEM 1202','Chemistry 2',4,''),</v>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE("(",B22,",'",C22,"','",D22,"',",E22,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(18,'EECIM 1101','Basic Electricity and System',10,''),</v>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE("(",B23,",'",C23,"','",D23,"',",E23,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(19,'EECIM 1102','Basic Electronics and Circuits',10,''),</v>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE("(",B24,",'",C24,"','",D24,"',",E24,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(20,'EECIM 1103','Fundamental Digital Electronics Circuits',10,''),</v>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE("(",B25,",'",C25,"','",D25,"',",E25,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(21,'EECIM 1203','ELX-?',7,''),</v>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE("(",B26,",'",C26,"','",D26,"',",E26,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(22,'EECIM 1204','Installation, Servicing Audio-Video Systems',5,''),</v>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE("(",B27,",'",C27,"','",D27,"',",E27,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(23,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',10,''),</v>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE("(",B28,",'",C28,"','",D28,"',",E28,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(24,'EECIM 1206','Electronics Devices Servicing 1',10,''),</v>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE("(",B29,",'",C29,"','",D29,"',",E29,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(25,'EECIM 1305','ELX-?',5,''),</v>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE("(",B30,",'",C30,"','",D30,"',",E30,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(26,'EECIM 2107','Personal Computers and Multimedia Devices',10,''),</v>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE("(",B31,",'",C31,"','",D31,"',",E31,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(27,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',10,''),</v>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE("(",B32,",'",C32,"','",D32,"',",E32,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(28,'EECIM 2109','Graduation Project 1',10,''),</v>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE("(",B33,",'",C33,"','",D33,"',",E33,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(29,'EECIM 2210','Security Alarm systems',10,''),</v>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE("(",B34,",'",C34,"','",D34,"',",E34,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(30,'EECIM 2211','Electronics Devices Servicing 2',10,''),</v>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="str">
-        <f>CONCATENATE("(",B35,",'",C35,"','",D35,"',",E35,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(31,'EECIM 2212','Graduation Project 2',10,''),</v>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f>CONCATENATE("(",B36,",'",C36,"','",D36,"',",E36,",''),")</f>
+        <f t="shared" si="0"/>
         <v>(32,'EELIHW 1101','Health and Safety Precautions',1,''),</v>
       </c>
     </row>
@@ -9027,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE("(",B37,",'",C37,"','",D37,"',",E37,",''),")</f>
+        <f t="shared" ref="F37:F68" si="1">CONCATENATE("(",B37,",'",C37,"','",D37,"',",E37,",''),")</f>
         <v>(33,'EELIHW 1102','Basic Electricity(AC/DC) &amp;Electrical Code',5,''),</v>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f>CONCATENATE("(",B38,",'",C38,"','",D38,"',",E38,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(34,'EELIHW 1103','Tools, Instruments, Electric wires and cable works',5,''),</v>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="str">
-        <f>CONCATENATE("(",B39,",'",C39,"','",D39,"',",E39,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(35,'EELIHW 1204','Basic Electronics',4,''),</v>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="str">
-        <f>CONCATENATE("(",B40,",'",C40,"','",D40,"',",E40,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(36,'EELIHW 1205','Electrical-Circuits and Protection Devices',10,''),</v>
       </c>
     </row>
@@ -9099,7 +9099,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="str">
-        <f>CONCATENATE("(",B41,",'",C41,"','",D41,"',",E41,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(37,'EELIHW 1206','Three Phase Principles',10,''),</v>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="str">
-        <f>CONCATENATE("(",B42,",'",C42,"','",D42,"',",E42,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(38,'EENDR 1101','Engineering Drawing 1',10,''),</v>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="str">
-        <f>CONCATENATE("(",B43,",'",C43,"','",D43,"',",E43,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(39,'EENDR 1202','Engineering Drawing 2',10,''),</v>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
         <v>3</v>
       </c>
       <c r="F44" t="str">
-        <f>CONCATENATE("(",B44,",'",C44,"','",D44,"',",E44,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(40,'ENG 1101','TECHNICAL WRITING ',3,''),</v>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="str">
-        <f>CONCATENATE("(",B45,",'",C45,"','",D45,"',",E45,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(41,'ENG 1202','TECHNICAL COMMUNICATION  ',3,''),</v>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="str">
-        <f>CONCATENATE("(",B46,",'",C46,"','",D46,"',",E46,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(42,'ENTRP 1202','ENTREPRENEURSHIP',10,''),</v>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="F47" t="str">
-        <f>CONCATENATE("(",B47,",'",C47,"','",D47,"',",E47,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(43,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="F48" t="str">
-        <f>CONCATENATE("(",B48,",'",C48,"','",D48,"',",E48,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(44,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="str">
-        <f>CONCATENATE("(",B49,",'",C49,"','",D49,"',",E49,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(45,'INBS 1202','E- COMMERCE ',4,''),</v>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE("(",B50,",'",C50,"','",D50,"',",E50,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(46,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
       </c>
     </row>
@@ -9279,7 +9279,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="str">
-        <f>CONCATENATE("(",B51,",'",C51,"','",D51,"',",E51,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(47,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
       </c>
     </row>
@@ -9297,7 +9297,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="str">
-        <f>CONCATENATE("(",B52,",'",C52,"','",D52,"',",E52,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(48,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="str">
-        <f>CONCATENATE("(",B53,",'",C53,"','",D53,"',",E53,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(49,'MTCL 1101','Calculus',4,''),</v>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="str">
-        <f>CONCATENATE("(",B54,",'",C54,"','",D54,"',",E54,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(50,'MTCL 1202','Engineering Mathematics',4,''),</v>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="str">
-        <f>CONCATENATE("(",B55,",'",C55,"','",D55,"',",E55,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(51,'MTST 1101','STATISTICS ',4,''),</v>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="str">
-        <f>CONCATENATE("(",B56,",'",C56,"','",D56,"',",E56,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(52,'PHYS 1101','Physics 1',4,''),</v>
       </c>
     </row>
@@ -9387,7 +9387,7 @@
         <v>4</v>
       </c>
       <c r="F57" t="str">
-        <f>CONCATENATE("(",B57,",'",C57,"','",D57,"',",E57,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(53,'PHYS 1202','Physics 2',4,''),</v>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="str">
-        <f>CONCATENATE("(",B58,",'",C58,"','",D58,"',",E58,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(54,'PRMG 1101','ENTREPRENEURSHIP',10,''),</v>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="str">
-        <f>CONCATENATE("(",B59,",'",C59,"','",D59,"',",E59,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(55,'PUENG 2101','Public Speaking',3,''),</v>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="F60" t="str">
-        <f>CONCATENATE("(",B60,",'",C60,"','",D60,"',",E60,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(56,'TCENG 1202','Technical Communication',3,''),</v>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
         <v>3</v>
       </c>
       <c r="F61" t="str">
-        <f>CONCATENATE("(",B61,",'",C61,"','",D61,"',",E61,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(57,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
       </c>
     </row>
@@ -9477,7 +9477,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="str">
-        <f>CONCATENATE("(",B62,",'",C62,"','",D62,"',",E62,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(58,'EELIHW 1203','EELIHW 1203',7,''),</v>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="str">
-        <f>CONCATENATE("(",B63,",'",C63,"','",D63,"',",E63,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(59,'EELIHW 2107','EELIHW 2107',8,''),</v>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="str">
-        <f>CONCATENATE("(",B64,",'",C64,"','",D64,"',",E64,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(60,'EELIHW 2108','EELIHW 2108',5,''),</v>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="F65" t="str">
-        <f>CONCATENATE("(",B65,",'",C65,"','",D65,"',",E65,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(61,'EELIHW 2209','EELIHW 2209',12,''),</v>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="str">
-        <f>CONCATENATE("(",B66,",'",C66,"','",D66,"',",E66,",''),")</f>
+        <f t="shared" si="1"/>
         <v>(62,'EELIHW 2210','EELIHW 2210',9,''),</v>
       </c>
     </row>

--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$7:$A$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$C$4:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$C$4:$E$67</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="472">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -1425,6 +1425,24 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>STUDY BREAK</t>
+  </si>
+  <si>
+    <t>EELIHW 1203 x</t>
+  </si>
+  <si>
+    <t>EELIHW 2107 x</t>
+  </si>
+  <si>
+    <t>EELIHW 2108 x</t>
+  </si>
+  <si>
+    <t>EELIHW 2209 x</t>
+  </si>
+  <si>
+    <t>EELIHW 2210 x</t>
   </si>
 </sst>
 </file>
@@ -6311,7 +6329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F70"/>
     </sheetView>
   </sheetViews>
@@ -6384,7 +6402,7 @@
         <v>463</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ref="F9:F70" si="0">CONCATENATE("(",A9,",",B9,",'",C9,"','",D9,"','",E9," Study Break'),")</f>
+        <f t="shared" ref="F9" si="0">CONCATENATE("(",A9,",",B9,",'",C9,"','",D9,"','",E9," Study Break'),")</f>
         <v>(1,2017001,'Study','Break','BRK Study Break'),</v>
       </c>
     </row>
@@ -8396,10 +8414,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I66"/>
+  <dimension ref="B1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8442,17 +8460,17 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F36" si="0">CONCATENATE("(",B5,",'",C5,"','",D5,"',",E5,",''),")</f>
-        <v>(1,'BBSSM 1101','PRINCIPLES OF MARKETING ',6,''),</v>
+        <f t="shared" ref="F5:F37" si="0">CONCATENATE("(",B5,",'",C5,"','",D5,"',",E5,",''),")</f>
+        <v>(1,'STUDY BREAK','STUDY BREAK',1,''),</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -8460,17 +8478,17 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>(2,'BBSSM 1102','INTRODUCTION TO SELLING ',6,''),</v>
+        <v>(2,'BBSSM 1101','PRINCIPLES OF MARKETING ',6,''),</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -8478,17 +8496,17 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>(3,'BBSSM 1103','ECONOMICS',6,''),</v>
+        <v>(3,'BBSSM 1102','INTRODUCTION TO SELLING ',6,''),</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -8496,17 +8514,17 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>(4,'BBSSM 1201','BUSINESS ETHICS',6,''),</v>
+        <v>(4,'BBSSM 1103','ECONOMICS',6,''),</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -8514,17 +8532,17 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>(5,'BBSSM 1202','ADVERTISIMENT &amp; PROMOTION',6,''),</v>
+        <v>(5,'BBSSM 1201','BUSINESS ETHICS',6,''),</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -8532,17 +8550,17 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>(6,'BBSSM 1203','CONSUMER BEHAVIOR ',6,''),</v>
+        <v>(6,'BBSSM 1202','ADVERTISIMENT &amp; PROMOTION',6,''),</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -8550,17 +8568,17 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>(7,'BBSSM 1204','BUSINESS RESEARCH METHODS',6,''),</v>
+        <v>(7,'BBSSM 1203','CONSUMER BEHAVIOR ',6,''),</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -8568,17 +8586,17 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>(8,'BBSSM 2101','DIRECT MARKETING ',6,''),</v>
+        <v>(8,'BBSSM 1204','BUSINESS RESEARCH METHODS',6,''),</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -8586,17 +8604,17 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>(9,'BBSSM 2102','RETAILING MANAGEMENT ',6,''),</v>
+        <v>(9,'BBSSM 2101','DIRECT MARKETING ',6,''),</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -8604,17 +8622,17 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>(10,'BBSSM 2103','RETAIL PRICING STRAGEGIES ',6,''),</v>
+        <v>(10,'BBSSM 2102','RETAILING MANAGEMENT ',6,''),</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -8622,17 +8640,17 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>(11,'BBSSM 2104','PROFESSIONAL SELLING ',6,''),</v>
+        <v>(11,'BBSSM 2103','RETAIL PRICING STRAGEGIES ',6,''),</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -8640,17 +8658,17 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>(12,'BBSSM 2201','CUSTOMER RELATIONSHIP MGT.',6,''),</v>
+        <v>(12,'BBSSM 2104','PROFESSIONAL SELLING ',6,''),</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -8658,17 +8676,17 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>(13,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',10,''),</v>
+        <v>(13,'BBSSM 2201','CUSTOMER RELATIONSHIP MGT.',6,''),</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -8676,17 +8694,17 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>(14,'BBSSM 2204','MARKETING COMMUINCATION',10,''),</v>
+        <v>(14,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',10,''),</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -8694,17 +8712,17 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>(15,'BBSSM 2204x','GRADUATION PROJECT ',10,''),</v>
+        <v>(15,'BBSSM 2204','MARKETING COMMUINCATION',10,''),</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -8712,17 +8730,17 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>(16,'CHEM 1101','Chemistry 1',4,''),</v>
+        <v>(16,'BBSSM 2204x','GRADUATION PROJECT ',10,''),</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -8730,17 +8748,17 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>(17,'CHEM 1202','Chemistry 2',4,''),</v>
+        <v>(17,'CHEM 1101','Chemistry 1',4,''),</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -8748,17 +8766,17 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>(18,'EECIM 1101','Basic Electricity and System',10,''),</v>
+        <v>(18,'CHEM 1202','Chemistry 2',4,''),</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -8766,17 +8784,17 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>(19,'EECIM 1102','Basic Electronics and Circuits',10,''),</v>
+        <v>(19,'EECIM 1101','Basic Electricity and System',10,''),</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -8784,17 +8802,17 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>(20,'EECIM 1103','Fundamental Digital Electronics Circuits',10,''),</v>
+        <v>(20,'EECIM 1102','Basic Electronics and Circuits',10,''),</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -8802,17 +8820,17 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>338</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>(21,'EECIM 1203','ELX-?',7,''),</v>
+        <v>(21,'EECIM 1103','Fundamental Digital Electronics Circuits',10,''),</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -8820,17 +8838,17 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="D26" t="s">
-        <v>342</v>
+        <v>449</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>(22,'EECIM 1204','Installation, Servicing Audio-Video Systems',5,''),</v>
+        <v>(22,'EECIM 1203','ELX-?',7,''),</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -8838,17 +8856,17 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>(23,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',10,''),</v>
+        <v>(23,'EECIM 1204','Installation, Servicing Audio-Video Systems',5,''),</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -8856,17 +8874,17 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>(24,'EECIM 1206','Electronics Devices Servicing 1',10,''),</v>
+        <v>(24,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',10,''),</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -8874,17 +8892,17 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>(25,'EECIM 1305','ELX-?',5,''),</v>
+        <v>(25,'EECIM 1206','Electronics Devices Servicing 1',10,''),</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -8892,17 +8910,17 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="D30" t="s">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>(26,'EECIM 2107','Personal Computers and Multimedia Devices',10,''),</v>
+        <v>(26,'EECIM 1305','ELX-?',5,''),</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -8910,17 +8928,17 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>(27,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',10,''),</v>
+        <v>(27,'EECIM 2107','Personal Computers and Multimedia Devices',10,''),</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -8928,17 +8946,17 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>(28,'EECIM 2109','Graduation Project 1',10,''),</v>
+        <v>(28,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',10,''),</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -8946,17 +8964,17 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>(29,'EECIM 2210','Security Alarm systems',10,''),</v>
+        <v>(29,'EECIM 2109','Graduation Project 1',10,''),</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -8964,17 +8982,17 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>(30,'EECIM 2211','Electronics Devices Servicing 2',10,''),</v>
+        <v>(30,'EECIM 2210','Security Alarm systems',10,''),</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -8982,17 +9000,17 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>(31,'EECIM 2212','Graduation Project 2',10,''),</v>
+        <v>(31,'EECIM 2211','Electronics Devices Servicing 2',10,''),</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -9000,17 +9018,17 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D36" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>(32,'EELIHW 1101','Health and Safety Precautions',1,''),</v>
+        <v>(32,'EECIM 2212','Graduation Project 2',10,''),</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -9018,17 +9036,17 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37:F68" si="1">CONCATENATE("(",B37,",'",C37,"','",D37,"',",E37,",''),")</f>
-        <v>(33,'EELIHW 1102','Basic Electricity(AC/DC) &amp;Electrical Code',5,''),</v>
+        <f t="shared" si="0"/>
+        <v>(33,'EELIHW 1101','Health and Safety Precautions',1,''),</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -9036,17 +9054,17 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>(34,'EELIHW 1103','Tools, Instruments, Electric wires and cable works',5,''),</v>
+        <f t="shared" ref="F38:F67" si="1">CONCATENATE("(",B38,",'",C38,"','",D38,"',",E38,",''),")</f>
+        <v>(34,'EELIHW 1102','Basic Electricity(AC/DC) &amp;Electrical Code',5,''),</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -9054,17 +9072,17 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>(35,'EELIHW 1204','Basic Electronics',4,''),</v>
+        <v>(35,'EELIHW 1103','Tools, Instruments, Electric wires and cable works',5,''),</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -9072,17 +9090,17 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>(36,'EELIHW 1205','Electrical-Circuits and Protection Devices',10,''),</v>
+        <v>(36,'EELIHW 1204','Basic Electronics',4,''),</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -9090,17 +9108,17 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>(37,'EELIHW 1206','Three Phase Principles',10,''),</v>
+        <v>(37,'EELIHW 1205','Electrical-Circuits and Protection Devices',10,''),</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -9108,17 +9126,17 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>(38,'EENDR 1101','Engineering Drawing 1',10,''),</v>
+        <v>(38,'EELIHW 1206','Three Phase Principles',10,''),</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -9126,17 +9144,17 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D43" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>(39,'EENDR 1202','Engineering Drawing 2',10,''),</v>
+        <v>(39,'EENDR 1101','Engineering Drawing 1',10,''),</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -9144,17 +9162,17 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>(40,'ENG 1101','TECHNICAL WRITING ',3,''),</v>
+        <v>(40,'EENDR 1202','Engineering Drawing 2',10,''),</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -9162,17 +9180,17 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>(41,'ENG 1202','TECHNICAL COMMUNICATION  ',3,''),</v>
+        <v>(41,'ENG 1101','TECHNICAL WRITING ',3,''),</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -9180,17 +9198,17 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>(42,'ENTRP 1202','ENTREPRENEURSHIP',10,''),</v>
+        <v>(42,'ENG 1202','TECHNICAL COMMUNICATION  ',3,''),</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -9198,17 +9216,17 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="D47" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>(43,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
+        <v>(43,'ENTRP 1202','ENTREPRENEURSHIP',10,''),</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -9216,17 +9234,17 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D48" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>(44,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
+        <v>(44,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -9234,17 +9252,17 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="D49" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>(45,'INBS 1202','E- COMMERCE ',4,''),</v>
+        <v>(45,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -9252,17 +9270,17 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>(46,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
+        <v>(46,'INBS 1202','E- COMMERCE ',4,''),</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -9270,17 +9288,17 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>(47,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
+        <v>(47,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -9288,17 +9306,17 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>(48,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
+        <v>(48,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
       </c>
     </row>
     <row r="53" spans="2:6">
@@ -9306,17 +9324,17 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>(49,'MTCL 1101','Calculus',4,''),</v>
+        <v>(49,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
       </c>
     </row>
     <row r="54" spans="2:6">
@@ -9324,17 +9342,17 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D54" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>(50,'MTCL 1202','Engineering Mathematics',4,''),</v>
+        <v>(50,'MTCL 1101','Calculus',4,''),</v>
       </c>
     </row>
     <row r="55" spans="2:6">
@@ -9342,17 +9360,17 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="D55" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>(51,'MTST 1101','STATISTICS ',4,''),</v>
+        <v>(51,'MTCL 1202','Engineering Mathematics',4,''),</v>
       </c>
     </row>
     <row r="56" spans="2:6">
@@ -9360,17 +9378,17 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>442</v>
+        <v>369</v>
       </c>
       <c r="D56" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>(52,'PHYS 1101','Physics 1',4,''),</v>
+        <v>(52,'MTST 1101','STATISTICS ',4,''),</v>
       </c>
     </row>
     <row r="57" spans="2:6">
@@ -9378,17 +9396,17 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>(53,'PHYS 1202','Physics 2',4,''),</v>
+        <v>(53,'PHYS 1101','Physics 1',4,''),</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -9396,17 +9414,17 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>(54,'PRMG 1101','ENTREPRENEURSHIP',10,''),</v>
+        <v>(54,'PHYS 1202','Physics 2',4,''),</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -9414,17 +9432,17 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>(55,'PUENG 2101','Public Speaking',3,''),</v>
+        <v>(55,'PRMG 1101','ENTREPRENEURSHIP',10,''),</v>
       </c>
     </row>
     <row r="60" spans="2:6">
@@ -9432,17 +9450,17 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>(56,'TCENG 1202','Technical Communication',3,''),</v>
+        <v>(56,'PUENG 2101','Public Speaking',3,''),</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -9450,17 +9468,17 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>(57,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
+        <v>(57,'TCENG 1202','Technical Communication',3,''),</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -9468,17 +9486,17 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D62" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>(58,'EELIHW 1203','EELIHW 1203',7,''),</v>
+        <v>(58,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
       </c>
     </row>
     <row r="63" spans="2:6">
@@ -9486,17 +9504,17 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D63" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>(59,'EELIHW 2107','EELIHW 2107',8,''),</v>
+        <v>(59,'EELIHW 1203','EELIHW 1203 x',7,''),</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -9504,17 +9522,17 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D64" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>(60,'EELIHW 2108','EELIHW 2108',5,''),</v>
+        <v>(60,'EELIHW 2107','EELIHW 2107 x',8,''),</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -9522,17 +9540,17 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D65" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>(61,'EELIHW 2209','EELIHW 2209',12,''),</v>
+        <v>(61,'EELIHW 2108','EELIHW 2108 x',5,''),</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -9540,21 +9558,39 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
+        <v>454</v>
+      </c>
+      <c r="D66" t="s">
+        <v>470</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>(62,'EELIHW 2209','EELIHW 2209 x',12,''),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
         <v>455</v>
       </c>
-      <c r="D66" t="s">
-        <v>455</v>
-      </c>
-      <c r="E66">
+      <c r="D67" t="s">
+        <v>471</v>
+      </c>
+      <c r="E67">
         <v>9</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="1"/>
-        <v>(62,'EELIHW 2210','EELIHW 2210',9,''),</v>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>(63,'EELIHW 2210','EELIHW 2210 x',9,''),</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:F66">
+  <sortState ref="B6:F67">
     <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/user.xlsx
+++ b/csv/user.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$7:$A$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$C$4:$E$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$B$4:$E$63</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="465">
   <si>
     <t>Regina Formaran,OU=PE</t>
   </si>
@@ -1145,9 +1145,6 @@
     <t xml:space="preserve">INTRODUCTION TO SELLING </t>
   </si>
   <si>
-    <t>ENTREPRENEURSHIP</t>
-  </si>
-  <si>
     <t>BBSSM 1103</t>
   </si>
   <si>
@@ -1166,12 +1163,6 @@
     <t xml:space="preserve">TECHNICAL WRINTING </t>
   </si>
   <si>
-    <t>ENG 1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECHNICAL COMMUNICATION  </t>
-  </si>
-  <si>
     <t>MTBS 1202</t>
   </si>
   <si>
@@ -1202,12 +1193,6 @@
     <t>BUSINESS RESEARCH METHODS</t>
   </si>
   <si>
-    <t>ENTRP 1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECHNICAL WRITING </t>
-  </si>
-  <si>
     <t>BBSSM 2101</t>
   </si>
   <si>
@@ -1361,16 +1346,10 @@
     <t>PHYS 1202</t>
   </si>
   <si>
-    <t>PRMG 1101</t>
-  </si>
-  <si>
     <t>TCENG 1202</t>
   </si>
   <si>
     <t>Period Req</t>
-  </si>
-  <si>
-    <t>ENG 1101</t>
   </si>
   <si>
     <t>EECIM 1203</t>
@@ -1448,8 +1427,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2281,13 +2260,13 @@
       <selection activeCell="B1" sqref="B1:B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2274,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2282,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2290,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2319,7 +2298,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +2330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2359,7 +2338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2367,7 +2346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2375,7 +2354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2370,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2399,7 +2378,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2407,7 +2386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +2394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2402,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2431,7 +2410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2439,7 +2418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2463,7 +2442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2471,7 +2450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2487,7 +2466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2495,7 +2474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +2482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2519,7 +2498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2527,7 +2506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2535,7 +2514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +2522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2530,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2559,7 +2538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2567,7 +2546,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2575,7 +2554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2583,7 +2562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2591,7 +2570,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2599,7 +2578,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2607,7 +2586,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2615,7 +2594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2623,7 +2602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2631,7 +2610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2639,7 +2618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2647,7 +2626,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2655,7 +2634,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2663,7 +2642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2671,7 +2650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2679,7 +2658,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2687,7 +2666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2695,7 +2674,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2703,7 +2682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2711,7 +2690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2719,7 +2698,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2727,7 +2706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2735,7 +2714,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2743,7 +2722,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2751,7 +2730,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2759,7 +2738,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2767,7 +2746,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2775,7 +2754,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2783,7 +2762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2791,7 +2770,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2799,7 +2778,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2807,7 +2786,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2815,7 +2794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2823,7 +2802,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2831,7 +2810,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2839,7 +2818,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2847,7 +2826,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2855,7 +2834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2863,7 +2842,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2871,7 +2850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2879,7 +2858,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2887,7 +2866,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2895,7 +2874,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2903,7 +2882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2911,7 +2890,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2919,7 +2898,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2927,7 +2906,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2935,7 +2914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2943,7 +2922,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2951,7 +2930,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2959,7 +2938,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2967,7 +2946,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2975,7 +2954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2983,7 +2962,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2991,7 +2970,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2999,7 +2978,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3007,7 +2986,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3015,7 +2994,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3023,7 +3002,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3031,7 +3010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3052,7 +3031,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3063,7 +3042,7 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -3100,7 +3079,7 @@
         <v>Formaran</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -3137,7 +3116,7 @@
         <v>Romion</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -3174,7 +3153,7 @@
         <v>subash chandra bose</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -3211,7 +3190,7 @@
         <v>Metwally</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -3248,7 +3227,7 @@
         <v>Chaladatb</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -3285,7 +3264,7 @@
         <v>Mahmoud Saliem</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -3322,7 +3301,7 @@
         <v>Mahsob</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -3359,7 +3338,7 @@
         <v>Mahmud Saliem</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -3396,7 +3375,7 @@
         <v>Nasser Abdullah Al Balushi</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3433,7 +3412,7 @@
         <v>Fawi Hassan</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3470,7 +3449,7 @@
         <v>DHAYANITHI</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -3507,7 +3486,7 @@
         <v>Chaladath</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -3544,7 +3523,7 @@
         <v>kumar</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -3581,7 +3560,7 @@
         <v>Al-BAlushi</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -3618,7 +3597,7 @@
         <v>Mathew Senil</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -3655,7 +3634,7 @@
         <v>AL-</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3692,7 +3671,7 @@
         <v>Kumar Vadakkakalloth</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -3729,7 +3708,7 @@
         <v>Nabbhan Al Nabbhani</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -3766,7 +3745,7 @@
         <v>ahmed. Almamari</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -3803,7 +3782,7 @@
         <v>ALNabhani</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -3840,7 +3819,7 @@
         <v>Dutt. Algole</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -3877,7 +3856,7 @@
         <v>Sarah Abraham</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -3914,7 +3893,7 @@
         <v>Al Balushi</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -3951,7 +3930,7 @@
         <v>Mahammed IBraheem Al Lawati</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -3988,7 +3967,7 @@
         <v>James Bayye</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -4025,7 +4004,7 @@
         <v>Mohammed Ali Salih</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -4062,7 +4041,7 @@
         <v>Vidyanand</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -4099,7 +4078,7 @@
         <v>Shine</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -4136,7 +4115,7 @@
         <v>Shibani Latrash</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -4173,7 +4152,7 @@
         <v>Ahmed Sherif</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -4210,7 +4189,7 @@
         <v>Mathew</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -4247,7 +4226,7 @@
         <v>Shafee Shaik</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -4284,7 +4263,7 @@
         <v>Abdullah bin Nasr</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -4321,7 +4300,7 @@
         <v>Puthan</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -4358,7 +4337,7 @@
         <v>AL-Maqbali</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -4395,7 +4374,7 @@
         <v>AL-Blushi</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4432,7 +4411,7 @@
         <v>AL-Blushi</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -4469,7 +4448,7 @@
         <v>AL-Mamary</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -4506,7 +4485,7 @@
         <v>Al ajmi</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -4543,7 +4522,7 @@
         <v>Bandara</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>190</v>
       </c>
@@ -4580,7 +4559,7 @@
         <v>kumar</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -4617,7 +4596,7 @@
         <v>Billedo</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -4654,7 +4633,7 @@
         <v>Ali Said Al-Badi</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -4691,7 +4670,7 @@
         <v>Sultan</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -4728,7 +4707,7 @@
         <v>Mohammed Al-Rushaidi</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -4765,7 +4744,7 @@
         <v>Prasad Reddy Subbi Reddy</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -4802,7 +4781,7 @@
         <v>Bibanco</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -4839,7 +4818,7 @@
         <v>Najjar</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>142</v>
       </c>
@@ -4876,7 +4855,7 @@
         <v>Al Balushi</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -4913,7 +4892,7 @@
         <v>Al. Bahrani</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -4950,7 +4929,7 @@
         <v>Vaziruddin</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -4987,7 +4966,7 @@
         <v>.N</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>146</v>
       </c>
@@ -5024,7 +5003,7 @@
         <v>Saed Hussein Wahpd</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -5061,7 +5040,7 @@
         <v>Joaquin</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -5098,7 +5077,7 @@
         <v>Al Oufi</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -5135,7 +5114,7 @@
         <v>Al Farsi</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -5172,7 +5151,7 @@
         <v>Al Arqenah</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -5209,7 +5188,7 @@
         <v>Buca</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -5246,7 +5225,7 @@
         <v>Vuthaluro</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -5283,7 +5262,7 @@
         <v>Yasmin</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -5320,7 +5299,7 @@
         <v>Caniedo</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -5357,7 +5336,7 @@
         <v>Torres</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -5394,7 +5373,7 @@
         <v>Enriquez</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -5431,7 +5410,7 @@
         <v>Oderon</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -5468,7 +5447,7 @@
         <v>Saif Said Al Mawaali</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -5505,7 +5484,7 @@
         <v>Rodrigues</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -5542,7 +5521,7 @@
         <v>Santiago</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5579,7 +5558,7 @@
         <v>Mahabu Suouni</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -5616,7 +5595,7 @@
         <v>Javier</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -5653,7 +5632,7 @@
         <v>Parakunnath</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -5690,7 +5669,7 @@
         <v>Baculo</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -5727,7 +5706,7 @@
         <v>Maher.Abdullah</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -5764,7 +5743,7 @@
         <v>Abid Galm Al Hinai</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -5801,7 +5780,7 @@
         <v>Bin Mosbah</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -5838,7 +5817,7 @@
         <v>Al Amri</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -5875,7 +5854,7 @@
         <v>Al Hinai</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -5912,7 +5891,7 @@
         <v>Barredo</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -5949,7 +5928,7 @@
         <v>Cruzat</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -5986,7 +5965,7 @@
         <v>al-basyuni al-said al qal youbi</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -6023,7 +6002,7 @@
         <v>Jumah Al Shamaki</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -6060,7 +6039,7 @@
         <v>Mohammad Ahmmad Al-Shobaki</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6097,7 +6076,7 @@
         <v>Roca</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -6134,7 +6113,7 @@
         <v>Dabon</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -6171,7 +6150,7 @@
         <v>De Ocampo</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -6208,7 +6187,7 @@
         <v>Galarpe</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -6245,7 +6224,7 @@
         <v>A. Rosales</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -6282,7 +6261,7 @@
         <v>Ouelhazi</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -6333,45 +6312,45 @@
       <selection activeCell="F7" sqref="F7:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>250</v>
       </c>
@@ -6385,7 +6364,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6393,20 +6372,20 @@
         <v>2017001</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ref="F9" si="0">CONCATENATE("(",A9,",",B9,",'",C9,"','",D9,"','",E9," Study Break'),")</f>
         <v>(1,2017001,'Study','Break','BRK Study Break'),</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6427,7 +6406,7 @@
         <v>(2,2017002,'Abdulaziz','Abid Galm Al Hinai','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6448,7 +6427,7 @@
         <v>(3,2017003,'Abdulaziz','Jumah Al Shamaki','RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -6469,7 +6448,7 @@
         <v>(4,2017004,'Abdullah','Maher.Abdullah','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -6490,7 +6469,7 @@
         <v>(5,2017005,'Abdurahiman','Puthan','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -6511,7 +6490,7 @@
         <v>(6,2017006,'Ahmed','Mahsob','BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -6532,7 +6511,7 @@
         <v>(7,2017007,'Ahmed','AL-Maqbali','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -6553,7 +6532,7 @@
         <v>(8,2017008,'Ali','Mohammed Ali Salih','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -6574,7 +6553,7 @@
         <v>(9,2017009,'Ammar','Bin Mosbah','MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -6595,7 +6574,7 @@
         <v>(10,2017010,'antonio','Buca','PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -6616,7 +6595,7 @@
         <v>(11,2017011,'Aref','Al ajmi','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -6637,7 +6616,7 @@
         <v>(12,2017012,'Asma','AL-','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -6658,7 +6637,7 @@
         <v>(13,2017013,'Asma','Al Farsi','PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -6679,7 +6658,7 @@
         <v>(14,2017014,'Ayeesha','Yasmin','PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -6700,7 +6679,7 @@
         <v>(15,2017015,'Ayoub','Al Oufi','MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -6721,7 +6700,7 @@
         <v>(16,2017016,'Bilal','Al Arqenah','PHY - Instructor'),</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -6742,7 +6721,7 @@
         <v>(17,2017017,'Carlo','Romion','PE - Instructor'),</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -6763,7 +6742,7 @@
         <v>(18,2017018,'Conrado','Torres','ELX - Instructor'),</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -6784,7 +6763,7 @@
         <v>(19,2017019,'Ericson','Billedo','IT - Instructor'),</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -6805,7 +6784,7 @@
         <v>(20,2017020,'Euclid','Santiago','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -6826,7 +6805,7 @@
         <v>(21,2017021,'Eulogio','Oderon','ELX - Instructor'),</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
@@ -6847,7 +6826,7 @@
         <v>(22,2017022,'Fatma','AL-Blushi','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -6868,7 +6847,7 @@
         <v>(23,2017023,'Fatma','Al Balushi','IT - Instructor'),</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
@@ -6889,7 +6868,7 @@
         <v>(24,2017024,'Ghalib','Al Amri','MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
@@ -6910,7 +6889,7 @@
         <v>(25,2017025,'Hermogenes','Baculo','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -6931,7 +6910,7 @@
         <v>(26,2017026,'Ibrahim','Saif Said Al Mawaali','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -6952,7 +6931,7 @@
         <v>(27,2017027,'Ignatius','Rodrigues','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -6973,7 +6952,7 @@
         <v>(28,2017028,'Jaffar','Al. Bahrani','MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -6994,7 +6973,7 @@
         <v>(29,2017029,'Jenier','Galarpe','WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -7015,7 +6994,7 @@
         <v>(30,2017030,'Julie','Mathew Senil','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -7036,7 +7015,7 @@
         <v>(31,2017031,'Juluis','Dabon','RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -7057,7 +7036,7 @@
         <v>(32,2017032,'Kannan','subash chandra bose','DRW - Instructor'),</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -7078,7 +7057,7 @@
         <v>(33,2017033,'Karunadas','Parakunnath','ELC - Instructor'),</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -7099,7 +7078,7 @@
         <v>(34,2017034,'Macario','Barredo','MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -7120,7 +7099,7 @@
         <v>(35,2017035,'Mansoor','Al Balushi','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -7141,7 +7120,7 @@
         <v>(36,2017036,'Marwan','ahmed. Almamari','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -7162,7 +7141,7 @@
         <v>(37,2017037,'Maryam','AL-Mamary','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -7183,7 +7162,7 @@
         <v>(38,2017038,'Mohammed','Mahmoud Saliem','BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -7204,7 +7183,7 @@
         <v>(39,2017039,'Mohammed','Nasser Abdullah Al Balushi','BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>40</v>
       </c>
@@ -7225,7 +7204,7 @@
         <v>(40,2017040,'Mohammed','Al-BAlushi','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
@@ -7246,7 +7225,7 @@
         <v>(41,2017041,'Mohammed','Nabbhan Al Nabbhani','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
@@ -7267,7 +7246,7 @@
         <v>(42,2017042,'Mohammed','ALNabhani','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
@@ -7288,7 +7267,7 @@
         <v>(43,2017043,'Mohammed','Vaziruddin','MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
@@ -7309,7 +7288,7 @@
         <v>(44,2017044,'mohammed','al-basyuni al-said al qal youbi','RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45</v>
       </c>
@@ -7330,7 +7309,7 @@
         <v>(45,2017045,'Mohammed','Ramdan Salim','WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46</v>
       </c>
@@ -7351,7 +7330,7 @@
         <v>(46,2017046,'Mustafa','Metwally','DRW - Instructor'),</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47</v>
       </c>
@@ -7372,7 +7351,7 @@
         <v>(47,2017047,'NAGAPAVAN','.N','MATH - Instructor'),</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>48</v>
       </c>
@@ -7393,7 +7372,7 @@
         <v>(48,2017048,'Nasir','Al Hinai','MECH - Instructor'),</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>49</v>
       </c>
@@ -7414,7 +7393,7 @@
         <v>(49,2017049,'Norman','De Ocampo','RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -7435,7 +7414,7 @@
         <v>(50,2017050,'Osamah','Mohammad Ahmmad Al-Shobaki','RAC - Instructor'),</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>51</v>
       </c>
@@ -7456,7 +7435,7 @@
         <v>(51,2017051,'Rajesh','Chaladath','BUS - Instructor'),</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>52</v>
       </c>
@@ -7477,7 +7456,7 @@
         <v>(52,2017052,'Regina','Formaran','PE - Instructor'),</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>53</v>
       </c>
@@ -7498,7 +7477,7 @@
         <v>(53,2017053,'Rojesb','Chaladatb','DRW - Instructor'),</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>54</v>
       </c>
@@ -7519,7 +7498,7 @@
         <v>(54,2017054,'Rommel','A. Rosales','WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>55</v>
       </c>
@@ -7540,7 +7519,7 @@
         <v>(55,2017055,'Sajith','Bandara','IT - Instructor'),</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
@@ -7561,7 +7540,7 @@
         <v>(56,2017056,'Sheikha','Ali Said Al-Badi','IT - Instructor'),</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
@@ -7582,7 +7561,7 @@
         <v>(57,2017057,'Silpa','Sarah Abraham','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>58</v>
       </c>
@@ -7603,7 +7582,7 @@
         <v>(58,2017058,'Taoufik','Ouelhazi','WEL - Instructor'),</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>59</v>
       </c>
@@ -7624,7 +7603,7 @@
         <v>(59,2017059,'Vara','Prasad Reddy Subbi Reddy','IT - Instructor'),</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>60</v>
       </c>
@@ -7645,7 +7624,7 @@
         <v>(60,2017060,'Vijaya','kumar','IT - Instructor'),</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>61</v>
       </c>
@@ -7666,7 +7645,7 @@
         <v>(61,2017061,'vinay','kumar','ENG - Instructor'),</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>62</v>
       </c>
@@ -7704,7 +7683,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -7712,7 +7691,7 @@
     <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>323</v>
       </c>
@@ -7720,7 +7699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>324</v>
       </c>
@@ -7728,7 +7707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>325</v>
       </c>
@@ -7736,7 +7715,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>326</v>
       </c>
@@ -7747,7 +7726,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>327</v>
       </c>
@@ -7756,7 +7735,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>329</v>
       </c>
@@ -7765,7 +7744,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>330</v>
       </c>
@@ -7773,17 +7752,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>136</v>
       </c>
@@ -7806,7 +7785,7 @@
         <v>(136,'WELD-1A','A',1,'Term 1 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>137</v>
       </c>
@@ -7827,7 +7806,7 @@
         <v>(137,'WELD-1B','B',1,'Term 1 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>138</v>
       </c>
@@ -7848,7 +7827,7 @@
         <v>(138,'WELD-1C','C',1,'Term 1 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>139</v>
       </c>
@@ -7871,7 +7850,7 @@
         <v>(139,'WELD-2A','A',2,'Term 2 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>140</v>
       </c>
@@ -7892,7 +7871,7 @@
         <v>(140,'WELD-2B','B',2,'Term 2 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>141</v>
       </c>
@@ -7913,7 +7892,7 @@
         <v>(141,'WELD-2C','C',2,'Term 2 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>142</v>
       </c>
@@ -7936,7 +7915,7 @@
         <v>(142,'WELD-3A','A',3,'Term 3 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>143</v>
       </c>
@@ -7957,7 +7936,7 @@
         <v>(143,'WELD-3B','B',3,'Term 3 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>144</v>
       </c>
@@ -7978,7 +7957,7 @@
         <v>(144,'WELD-3C','C',3,'Term 3 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>145</v>
       </c>
@@ -8001,7 +7980,7 @@
         <v>(145,'WELD-4A','A',4,'Term 4 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>146</v>
       </c>
@@ -8022,7 +8001,7 @@
         <v>(146,'WELD-4B','B',4,'Term 4 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>147</v>
       </c>
@@ -8043,7 +8022,7 @@
         <v>(147,'WELD-4C','C',4,'Term 4 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>148</v>
       </c>
@@ -8066,7 +8045,7 @@
         <v>(148,'WELD-5A','A',5,'Term 5 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>149</v>
       </c>
@@ -8087,7 +8066,7 @@
         <v>(149,'WELD-5B','B',5,'Term 5 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>150</v>
       </c>
@@ -8108,7 +8087,7 @@
         <v>(150,'WELD-5C','C',5,'Term 5 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>151</v>
       </c>
@@ -8131,7 +8110,7 @@
         <v>(151,'WELD-6A','A',6,'Term 6 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>152</v>
       </c>
@@ -8152,7 +8131,7 @@
         <v>(152,'WELD-6B','B',6,'Term 6 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>153</v>
       </c>
@@ -8173,7 +8152,7 @@
         <v>(153,'WELD-6C','C',6,'Term 6 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>154</v>
       </c>
@@ -8196,7 +8175,7 @@
         <v>(154,'WELD-7A','A',7,'Term 7 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>155</v>
       </c>
@@ -8217,7 +8196,7 @@
         <v>(155,'WELD-7B','B',7,'Term 7 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>156</v>
       </c>
@@ -8238,7 +8217,7 @@
         <v>(156,'WELD-7C','C',7,'Term 7 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>157</v>
       </c>
@@ -8261,7 +8240,7 @@
         <v>(157,'WELD-8A','A',8,'Term 8 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>158</v>
       </c>
@@ -8282,7 +8261,7 @@
         <v>(158,'WELD-8B','B',8,'Term 8 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>159</v>
       </c>
@@ -8303,7 +8282,7 @@
         <v>(159,'WELD-8C','C',8,'Term 8 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>160</v>
       </c>
@@ -8326,7 +8305,7 @@
         <v>(160,'WELD-9A','A',9,'Term 9 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>161</v>
       </c>
@@ -8347,7 +8326,7 @@
         <v>(161,'WELD-9B','B',9,'Term 9 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>162</v>
       </c>
@@ -8368,7 +8347,7 @@
         <v>(162,'WELD-9C','C',9,'Term 9 Weldin &amp; Fabrication Trainees'),</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D43">
         <f t="shared" ref="D43" si="17">C42</f>
         <v>0</v>
@@ -8377,7 +8356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D44">
         <f t="shared" ref="D44" si="18">C42</f>
         <v>0</v>
@@ -8386,7 +8365,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D45">
         <f t="shared" ref="D45" si="19">C45</f>
         <v>0</v>
@@ -8414,13 +8393,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I67"/>
+  <dimension ref="B1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
@@ -8428,42 +8407,42 @@
     <col min="6" max="6" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -8473,15 +8452,15 @@
         <v>(1,'STUDY BREAK','STUDY BREAK',1,''),</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" t="s">
         <v>375</v>
-      </c>
-      <c r="D6" t="s">
-        <v>376</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -8491,12 +8470,12 @@
         <v>(2,'BBSSM 1101','PRINCIPLES OF MARKETING ',6,''),</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D7" t="s">
         <v>371</v>
@@ -8509,15 +8488,15 @@
         <v>(3,'BBSSM 1102','INTRODUCTION TO SELLING ',6,''),</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" t="s">
         <v>373</v>
-      </c>
-      <c r="D8" t="s">
-        <v>374</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -8527,15 +8506,15 @@
         <v>(4,'BBSSM 1103','ECONOMICS',6,''),</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -8545,15 +8524,15 @@
         <v>(5,'BBSSM 1201','BUSINESS ETHICS',6,''),</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -8563,15 +8542,15 @@
         <v>(6,'BBSSM 1202','ADVERTISIMENT &amp; PROMOTION',6,''),</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -8581,15 +8560,15 @@
         <v>(7,'BBSSM 1203','CONSUMER BEHAVIOR ',6,''),</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -8599,15 +8578,15 @@
         <v>(8,'BBSSM 1204','BUSINESS RESEARCH METHODS',6,''),</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -8617,15 +8596,15 @@
         <v>(9,'BBSSM 2101','DIRECT MARKETING ',6,''),</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -8635,15 +8614,15 @@
         <v>(10,'BBSSM 2102','RETAILING MANAGEMENT ',6,''),</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -8653,15 +8632,15 @@
         <v>(11,'BBSSM 2103','RETAIL PRICING STRAGEGIES ',6,''),</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -8671,15 +8650,15 @@
         <v>(12,'BBSSM 2104','PROFESSIONAL SELLING ',6,''),</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -8689,15 +8668,15 @@
         <v>(13,'BBSSM 2201','CUSTOMER RELATIONSHIP MGT.',6,''),</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -8707,15 +8686,15 @@
         <v>(14,'BBSSM 2201x','MANAGEMENT AND ORGANIZATION ',10,''),</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8725,15 +8704,15 @@
         <v>(15,'BBSSM 2204','MARKETING COMMUINCATION',10,''),</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -8743,12 +8722,12 @@
         <v>(16,'BBSSM 2204x','GRADUATION PROJECT ',10,''),</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
         <v>353</v>
@@ -8761,12 +8740,12 @@
         <v>(17,'CHEM 1101','Chemistry 1',4,''),</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
         <v>359</v>
@@ -8779,12 +8758,12 @@
         <v>(18,'CHEM 1202','Chemistry 2',4,''),</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D23" t="s">
         <v>336</v>
@@ -8797,12 +8776,12 @@
         <v>(19,'EECIM 1101','Basic Electricity and System',10,''),</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
         <v>337</v>
@@ -8815,12 +8794,12 @@
         <v>(20,'EECIM 1102','Basic Electronics and Circuits',10,''),</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
         <v>338</v>
@@ -8833,15 +8812,15 @@
         <v>(21,'EECIM 1103','Fundamental Digital Electronics Circuits',10,''),</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -8851,12 +8830,12 @@
         <v>(22,'EECIM 1203','ELX-?',7,''),</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
         <v>342</v>
@@ -8869,12 +8848,12 @@
         <v>(23,'EECIM 1204','Installation, Servicing Audio-Video Systems',5,''),</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D28" t="s">
         <v>343</v>
@@ -8887,12 +8866,12 @@
         <v>(24,'EECIM 1205','Switched-Mode Power Supplies &amp; Autovolt Power',10,''),</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D29" t="s">
         <v>344</v>
@@ -8905,15 +8884,15 @@
         <v>(25,'EECIM 1206','Electronics Devices Servicing 1',10,''),</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -8923,12 +8902,12 @@
         <v>(26,'EECIM 1305','ELX-?',5,''),</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D31" t="s">
         <v>350</v>
@@ -8941,12 +8920,12 @@
         <v>(27,'EECIM 2107','Personal Computers and Multimedia Devices',10,''),</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D32" t="s">
         <v>351</v>
@@ -8959,12 +8938,12 @@
         <v>(28,'EECIM 2108','Computer System Data Comm. &amp; Internetworking',10,''),</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D33" t="s">
         <v>352</v>
@@ -8977,12 +8956,12 @@
         <v>(29,'EECIM 2109','Graduation Project 1',10,''),</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D34" t="s">
         <v>356</v>
@@ -8995,12 +8974,12 @@
         <v>(30,'EECIM 2210','Security Alarm systems',10,''),</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D35" t="s">
         <v>357</v>
@@ -9013,12 +8992,12 @@
         <v>(31,'EECIM 2211','Electronics Devices Servicing 2',10,''),</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D36" t="s">
         <v>358</v>
@@ -9031,12 +9010,12 @@
         <v>(32,'EECIM 2212','Graduation Project 2',10,''),</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D37" t="s">
         <v>361</v>
@@ -9049,12 +9028,12 @@
         <v>(33,'EELIHW 1101','Health and Safety Precautions',1,''),</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D38" t="s">
         <v>362</v>
@@ -9063,16 +9042,16 @@
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" ref="F38:F67" si="1">CONCATENATE("(",B38,",'",C38,"','",D38,"',",E38,",''),")</f>
+        <f t="shared" ref="F38:F63" si="1">CONCATENATE("(",B38,",'",C38,"','",D38,"',",E38,",''),")</f>
         <v>(34,'EELIHW 1102','Basic Electricity(AC/DC) &amp;Electrical Code',5,''),</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D39" t="s">
         <v>363</v>
@@ -9085,12 +9064,12 @@
         <v>(35,'EELIHW 1103','Tools, Instruments, Electric wires and cable works',5,''),</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D40" t="s">
         <v>364</v>
@@ -9103,12 +9082,12 @@
         <v>(36,'EELIHW 1204','Basic Electronics',4,''),</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D41" t="s">
         <v>365</v>
@@ -9121,12 +9100,12 @@
         <v>(37,'EELIHW 1205','Electrical-Circuits and Protection Devices',10,''),</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D42" t="s">
         <v>366</v>
@@ -9139,12 +9118,12 @@
         <v>(38,'EELIHW 1206','Three Phase Principles',10,''),</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D43" t="s">
         <v>339</v>
@@ -9157,12 +9136,12 @@
         <v>(39,'EENDR 1101','Engineering Drawing 1',10,''),</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D44" t="s">
         <v>345</v>
@@ -9175,259 +9154,259 @@
         <v>(40,'EENDR 1202','Engineering Drawing 2',10,''),</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>(41,'ENG 1101','TECHNICAL WRITING ',3,''),</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
+        <v>(41,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>(42,'ENG 1202','TECHNICAL COMMUNICATION  ',3,''),</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+        <v>(42,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>(43,'ENTRP 1202','ENTREPRENEURSHIP',10,''),</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
+        <v>(43,'INBS 1202','E- COMMERCE ',4,''),</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="D48" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>(44,'ENTRP 1101','Entrepreneurship 1',3,''),</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
+        <v>(44,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D49" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>(45,'ENTRP 1203','Entrepreneurship 2',3,''),</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
+        <v>(45,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D50" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>(46,'INBS 1202','E- COMMERCE ',4,''),</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
+        <v>(46,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="D51" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>(47,'INTE 1101 ','ADVANCED IT SKILLS ',4,''),</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
+        <v>(47,'MTCL 1101','Calculus',4,''),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>(48,'INTE 1202','INTRODUCTION TO C++ Programming',4,''),</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>(48,'MTCL 1202','Engineering Mathematics',4,''),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D53" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>(49,'MTBS 1202','BUSINESS MATHIMATICS',4,''),</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>(49,'MTST 1101','STATISTICS ',4,''),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>(50,'MTCL 1101','Calculus',4,''),</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>(50,'PHYS 1101','Physics 1',4,''),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>(51,'MTCL 1202','Engineering Mathematics',4,''),</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>(51,'PHYS 1202','Physics 2',4,''),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="D56" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>(52,'MTST 1101','STATISTICS ',4,''),</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+        <v>(52,'PUENG 2101','Public Speaking',3,''),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>(53,'PHYS 1101','Physics 1',4,''),</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
+        <v>(53,'TCENG 1202','Technical Communication',3,''),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="D58" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>(54,'PHYS 1202','Physics 2',4,''),</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>(54,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>55</v>
       </c>
@@ -9435,158 +9414,86 @@
         <v>444</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>(55,'PRMG 1101','ENTREPRENEURSHIP',10,''),</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
+        <v>(55,'EELIHW 1203','EELIHW 1203 x',7,''),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>(56,'PUENG 2101','Public Speaking',3,''),</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
+        <v>(56,'EELIHW 2107','EELIHW 2107 x',8,''),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>462</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>(57,'TCENG 1202','Technical Communication',3,''),</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
+        <v>(57,'EELIHW 2108','EELIHW 2108 x',5,''),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="D62" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>(58,'TWENG 1101','TECHNICAL WRINTING ',3,''),</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
+        <v>(58,'EELIHW 2209','EELIHW 2209 x',12,''),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D63" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>(59,'EELIHW 1203','EELIHW 1203 x',7,''),</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>452</v>
-      </c>
-      <c r="D64" t="s">
-        <v>468</v>
-      </c>
-      <c r="E64">
-        <v>8</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="1"/>
-        <v>(60,'EELIHW 2107','EELIHW 2107 x',8,''),</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>453</v>
-      </c>
-      <c r="D65" t="s">
-        <v>469</v>
-      </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="1"/>
-        <v>(61,'EELIHW 2108','EELIHW 2108 x',5,''),</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
-        <v>454</v>
-      </c>
-      <c r="D66" t="s">
-        <v>470</v>
-      </c>
-      <c r="E66">
-        <v>12</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="1"/>
-        <v>(62,'EELIHW 2209','EELIHW 2209 x',12,''),</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67">
-        <v>63</v>
-      </c>
-      <c r="C67" t="s">
-        <v>455</v>
-      </c>
-      <c r="D67" t="s">
-        <v>471</v>
-      </c>
-      <c r="E67">
-        <v>9</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="1"/>
-        <v>(63,'EELIHW 2210','EELIHW 2210 x',9,''),</v>
+        <v>(59,'EELIHW 2210','EELIHW 2210 x',9,''),</v>
       </c>
     </row>
   </sheetData>
